--- a/500all/speech_level/speeches_CHRG-114hhrg99443.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg99443.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="295">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="269">
   <si>
     <t>committee_name</t>
   </si>
@@ -52,18 +52,12 @@
     <t>400224</t>
   </si>
   <si>
-    <t>John Kline</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Chairman Kline. A quorum being present, the Committee on Education and the Workforce will come to order. Good morning, everyone, and welcome, Secretary Burwell. We appreciate you joining us to discuss the policies and priorities of the Department of Health and Human Services.    From welfare and health care to early childhood development and support services for older Americans, the policies your department oversees affect the lives of millions of Americans.    Conversations like this one are vitally important as we work to ensure that the Department is acting in the best interest of the taxpayers and those in need.    As we examine what programs and policies are working and which ones are in need of improvement, I hope there are a number of areas where we can find common ground.    Of course, there are also areas where we will ultimately agree to disagree, and perhaps the most prominent example is the President's health care law. As has been the case for nearly six years, this flawed law continues to hurt working families, students, and small businesses. It is still depressing hours and wages for low-income workers, still making it harder for individuals to receive the care they need, and still driving up health care costs.    One Emory University professor recently wrote that his family's health insurance premium is now their biggest expense, even greater than their mortgage. Before the health care law went into effect, this man was able to cover his entire family of four for less than $13,000. Now, the cost of insuring just him and his wife is nearly $28,000. Twice the cost to cover half as many people. In fact, paying more for less is becoming a hallmark of the health care law.    Over the years, Republicans have put forward a number of health care reform ideas, ones that would expand access to affordable care and lead to a more patient-centered health care system. We will continue to do so, because we firmly believe the President's health care law is fatally flawed and unsustainable, and more importantly, because we believe the American people deserve better.    Again, I suspect we will have to agree to disagree, but as I mentioned, there are areas where I am hopeful we can find common ground.    Head Start, for example, currently supports nearly 1 million children at a cost of more than $9 billion annually. It is an important program for many low-income families. However, concerns persist that it is not providing children with long-term results.    We both agree, I am sure, changes need to be made, but so far we have different ideas of what reform should look like. The Department is in the process of fundamentally transforming Head Start through regulations that will have serious consequences for the vulnerable families this important program serves.    We, on the other hand, have outlined a number of key principles that we believe will strengthen the program based on feedback we collected from parents and providers.    I look forward to discussing where we might be able to find middle ground and work together so that these children can have the solid foundation they need to succeed in school and in life.    I am also hopeful that we can work together to ensure changes to the Preschool Development Grants program are implemented as Congress intended. The Every Student Succeeds Act reformed the program to help States streamline and strengthen early learning efforts.    To accomplish this goal, Congress moved the program from the Department of Education to HHS, which already oversees the bulk of early learning programs. As you take on this responsibility, Madam Secretary, please know we intend to stay engaged with the Department to ensure a successful transition.    Finally, the Department is also responsible for helping States to prevent and respond to child abuse and neglect, specifically those outlined in the Child Abuse Prevention and Treatment Act or CAPTA. As I am sure you are aware, this law provides States with resources to improve their child protective service systems, if they make a number of assurances concerning their child welfare policies.    It has come to our attention that some States are making these assurances without putting the necessary policies in place. Yet, not a single State is being denied Federal funds.    A Reuters' investigation recently revealed the shocking and deadly consequences of this neglect and cast serious doubts as to whether basic requirements of the law are being met and enforced.    In light of this tragic report, we wrote to you to better understand the Department's process in reviewing and approving State plans under CAPTA, and I would like to continue that discussion here today.    It is clear that the current system is failing some of our country's most vulnerable children and families, and something has to change.    As you can see, we have quite a bit to cover today. These and other issues are vitally important to the men and women we serve, and we have a responsibility to ensure that we are serving those individuals in the best way possible.    With that, I will now recognize the ranking member, Mr. Scott, for his opening remarks.</t>
   </si>
   <si>
     <t>400364</t>
   </si>
   <si>
-    <t>Robert C. "Bobby" Scott</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Scott. Thank you, Chairman Kline, and welcome, Secretary Burwell. Thank you for being with us. We look forward to your testimony.    Today, we will hear about the President's Fiscal Year 2017 Health and Human Services' budget proposal and the Department's policy priorities. Once again, I commend the Secretary for her work to ensure that the budget reflects the priorities of this committee, protecting access to health care for all Americans, giving all children the chance to succeed, and making sure that we meet the needs of families and children affected by public health threats when they occur.    In many areas, I believe we have made great progress on these priorities. In the not so distant past, many families were left without affordable health care options and many more could not have access to basic consumer protections in their insurance.    Double digit increases in prices were routine every year. Women routinely charged more for insurance than men. If you lost you lost your job and wanted to start a new business and you had a preexisting condition, you were essentially out of luck. If you were a senior and fell into the Part D doughnut hole, you did not get any help, and when we consider the Affordable Care Act, thousands of people every day were losing their insurance.    Passage of the Affordable Care Act has given millions of Americans access to health care coverage, many for the first time in their lives. The ACA has helped slow the growth in health care costs, it is closing the doughnut hole for seniors, and has encouraged and improved access to mental health services and preventive care. Instead of thousands losing their insurance, millions more have gained insurance.    So, I thank Secretary Burwell for her efforts and her Department's hard work in implementing the Affordable Care Act. I recognize the challenge your department faces in implementing this law with limited resources and unlimited attacks.    Despite these challenges, the ACA has expanded coverage to millions and given millions more robust consumer protections in their health coverage. The ACA has provided a historic foundation for which we are going to accomplish our ultimate goal, making sure that all Americans have the opportunity to succeed.    I do not believe that we have reached the finish line yet, but I look forward to working with the Department and my congressional colleagues to make meaningful improvements as we strengthen the law.    I also pleased that the President's budget has placed a priority on giving all children a chance to succeed by ensuring robust funding to increase both access to and quality of early learning and child care programs. We must invest in high quality early learning programs because all children deserve to enter kindergarten with the building blocks to success.    Decades of research have shown that properly nurturing children in the first five years of life is essential to supporting enhanced brain development, cognitive functioning, and emotional and physical health.    All too often, low-income working families lack access to high quality affordable child care in their early childhood education, and these children tend to fall behind. Beyond the achievement gap, children that do not participate in high quality early learning programs are more likely to have weaker educational outcomes, lower earnings, increased involvement in the criminal justice system, and affordable high quality child care is, therefore, not just critical for children, it is also critical for working parents.    Child care is a two generation program. Parents of young children need child care to work and go to school, and lack of stable child care is associated with job interruptions and job loss for working parents. Child care ought to be a national priority for America's children and working families.    Just two programs survived the bulk of the Federal role in early education, the Head Start program and the Child Care and Development Block Grant. Unfortunately, because of limited Federal funding, too few children have appropriate access. This unmet need continues to grow. Only four of 10 eligible children have access to a Head Start program, and fewer than one out of six eligible children receive Federal child care assistance.    We have decades of evidence that investing in programs like Head Start and the Child Care and Development Block Grant works. This is the time to invest in these programs and ensure that we are giving all children the chance to succeed.    I also want to commend the Secretary and her department for their efforts in response to some of the most troubling health crises of our time, the Ebola outbreak, Zika and opioid crisis. The Department has been in the forefront of responding and keeping Americans safe and healthy, particularly when you talk about budgeting, some do not always see the value of investing in prevention or readiness activities so that we are equipped to deal with a public health crisis.    Like many Federal programs, in fact, like health care insurance itself, you often do not miss it until it is gone. It is important now more than ever that we invest in our Nation's current and future health and well-being. The President's proposal does this with the Cancer Moonshot and other long-term investments.    Lastly, I would like to thank the Department and the Secretary for their efforts to respond to the catastrophic situation in Flint, Michigan. The research is clear on the impact of exposure to lead on young children, the adverse effects of lead exposure range from decreased academic attainment to increased needs for special education, and a higher likelihood of behavioral challenges. These impacts can result in a significant decline in earnings, loss of tax revenue, additional burdens to the criminal justice system, and increased stress on our hospital systems.    The opportunity for a strong start to a successful life will be stunted for Flint's children if they are not given the necessary resources, including early intervention and access to high quality early learning programs, such as Head Start, to help them overcome the lifelong effects of exposure to lead.    We need to come up with the money to make that possible, and make no mistake, we should not expect to fix this crisis easy or on the cheap. In fact, it will cost approximately $1.2 billion to provide long-term comprehensive services to all Flint children exposed to lead just in the areas that cover programs under this committee's jurisdiction.    Furthermore, it is imperative that this committee and the Department continue to examine how Federal programs can be responsive and ensure that every Flint youth is receiving the necessary services to mitigate the effects of lead exposure.    The Department's response so far has been commendable. Additional funding for health centers in Flint, Medicaid expansion to provide vital health coverage and important health screenings, $3.6 million onetime emergency funding to help Head Start grantees expand early childhood education, health care and nutritional services.    These are examples of targeted Federal solutions, but this committee and this Congress has to do more. The impact of lead exposure on young children is long-lasting, and a response must have a long-term approach.    We must use all of the tools available to us, starting with prenatal care and screenings of pregnant moms, early literacy resources, early interventions to identify special education needs, Title I and Title II funding from the Elementary and Secondary Education Act, after school programs, at-risk youth prevention programs, even investments in college access efforts.    I know with all the Department's leadership, we can continue to respond to this crisis, and I am hopeful that together we can put forward real solutions and help mitigate the damage from the water crisis in Flint, and make sure young children there get back on track to a prosperous fulfilling life.    So, thank you, Mr. Chairman, and thank you, Secretary Burwell. I look forward to your testimony.</t>
   </si>
   <si>
@@ -76,9 +70,6 @@
     <t>N/A</t>
   </si>
   <si>
-    <t>Burwell</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Secretary Burwell. Chairman Kline, Ranking Member Scott, and members of the Committee, thank you for the opportunity to discuss the President's budget for the Department of Health and Human Services today.    As many of you know, I believe all of us share common interests and that we can find common ground. In recent legislative sessions, this committee took important steps to strengthen our workforce and open the doors to new early learning opportunities. Thank you for your leadership in passing the Workforce Innovation and Opportunity Act and the Child Care and Development Block Grant Act of 2014. We look forward to working with you on both of these in the year ahead.    The budget before you today is the final budget for this administration and my final budget as Secretary. It makes critical investments to protect the health and well-being of the American people. It helps ensure that we can do our job to keep people safe and healthy, accelerates our progress in scientific research and medical innovation, expands and strengthens our health care system, and helps us continue to be responsible stewards of the taxpayers' dollars.    For HHS, the budget proposal is $82.8 billion in discretionary budget authority. Our request recognizes the constraints in our budget environment and includes targeted reforms to Medicare, Medicaid, and other programs. Over the next 10 years, these reforms to Medicare would result in net savings of $419 billion.    Let me start with an issue we have been working on here at home and abroad, and as we work aggressively to combat the spread of Zika. The administration is requesting $1.9 billion in emergency funding, including $1.5 billion for the Department of Health and Human Services. We appreciate Congress' consideration of this important request. This funding will help us implement the essential strategies to prevent, detect, and respond to this virus, with a focus on reducing the risks to pregnant woman.    I know the rise of opioid misuse, abuse, and overdose has affected many of your constituents. Every day in America, 78 people die of opioid related deaths, and that is why this budget proposes significant funding, over $1 billion, to combat the opioid epidemic.    Research shows that early learning programs, as the Chairman mentioned, can set a course for a child's success throughout their life. That is why over the course of this administration, together with congressional support, we have more than doubled access to early Head Start services for infants and toddlers.    Our budget proposes a total of $9.6 billion to the Head Start program and an investment in child care services that would allow us to serve over 2.6 million children. Beyond this budget, for the children in Flint, Michigan, we have already announced $3.6 million, as Mr. Scott mentioned, in one-time emergency for Head Start money.    With these funds, they can expand early childhood education, behavioral health services, and other vital nutrition services. Today, too many of our Nation's children and adults with diagnosable mental health disorders do not receive the treatment they need. So, this budget proposes $780 million in new mandatory and discretionary resources over the next two years to close that gap.    While we invest in the safety and health of Americans today, we must also relentlessly push forward on the frontiers of science and medicine. This budget invests in the Vice President's cancer initiative. Today, we are entering a new era in medical science. With proposed increases of $107 million for the precision medicine initiative and $45 million for the administration's BRAIN initiative; we can continue this progress.    In order for Americans to benefit from our recent breakthroughs in medical science, we need to ensure that all Americans have access to quality affordable health care. The Affordable Care Act has helped us make historic progress. Today, more than 90 percent of Americans have health coverage--the first time in our Nation's history that has been true.    The budget seeks to build on that progress by improving the quality of care that patients receive and spending dollars more wisely. It proposes investments to improve the access to care for underserved groups across the United States, including many in rural communities, with $5.1 billion in health center funding and nearly $14 billion over the next decade for our Nation's health care workforce.    By advancing and improving the way we pay doctors, coordinate care, and use health data and information, we build a better, smarter system.    Finally, I want to thank the employees of HHS. In the past year, they fought Ebola in West Africa, helped millions gain health coverage, and have done the quiet day-to-day work that makes our Nation healthier and stronger. I am honored to be a part of the team, and as members of this committee know, I am personally committed to working closely with you and your staff to find common ground to deliver for the American people.    Thank you.</t>
   </si>
   <si>
@@ -151,9 +142,6 @@
     <t>412310</t>
   </si>
   <si>
-    <t>David P. Roe</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Roe. Thank you, Mr. Chairman. Thank you, Madam Secretary, for your pushing the rule for the end of life counseling. That is a huge thing. I have heard a lot of positives about that. I want to thank you for that.    Just a couple of quick questions.    Stop-loss insurance regulation, as you know, in the private sector, a majority of those plans are basically self-insured plans, like we had in the City of Johnson City when I was the mayor. We used stop-loss insurance to protect our losses if they went above what we calculated they might be.    Would you commit to the Committee not to regulate stop-loss insurance as health insurance because it is clearly not, in the future as Secretary of HHS?</t>
   </si>
   <si>
@@ -175,9 +163,6 @@
     <t>400179</t>
   </si>
   <si>
-    <t>Rubén Hinojosa</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Hinojosa. Thank you, Chairman Kline and Ranking Member Scott. I support President Obama's Fiscal Year 2017 budget for the Department of Health and Human Services because the administration's priorities for HHS support the well-being of all Americans, and are closely aligned with the needs of my congressional district.    Madam Secretary, it is a pleasure to have you testify before this committee, and I want to ask the chairman as a member of this committee for unanimous consent that the three pages of my opening remarks be included in today's report.</t>
   </si>
   <si>
@@ -220,9 +205,6 @@
     <t>412601</t>
   </si>
   <si>
-    <t>Bradley Byrne</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Byrne. Thank you. Madam Secretary, I want to talk to you about the transitional reinsurance program and some current concerns that I and others have about the legality of the way these funds have been used.    We are going to put on the screen the actual text of the law, that you see there now. I also have here the same legal memorandum that my colleague, Chairman Pitts, showed you two weeks ago when you testified before the Energy and Commerce Committee.    The nonpartisan Congressional Research Service, which put out this memo, analyzed this issue and stated, and I am going to quote them, ``Insofar as CMS' interpretation allows the entire contribution of an issue in any given year to be used only for reinsurance payments such that no part of it is allocated for the U.S. Treasury contribution, and that would appear to be a conflict with a plain reading of Section 1341(b)4,'' that is the language up there.    ``Because the statute unambiguously states that each issuer's contribution contain an amount that reflects its proportionate share of the U.S. Treasury contribution, and that these amounts should be deposited in the General Fund of the U.S. Treasury, a contrary agency interpretation would not be entitled to deference under the Chevron decision.''    We have that second piece of language up there now. So, you have had two weeks since Chairman Pitts brought this to your attention. You had the legal memorandum. I assume you have had a chance to go over this with your staff and your counsel.</t>
   </si>
   <si>
@@ -253,9 +235,6 @@
     <t>400097</t>
   </si>
   <si>
-    <t>Susan A. Davis</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mrs. Davis. Thank you, Mr. Chairman, and good to have you with us, Madam Secretary. I wanted to really go to one of the areas where as you said we are trying to create a smarter system.    In that regard, I think there has been some early success of the diabetes prevention program. We have seen evidence that really is common sense, I think, that if you speak to the need for providing better nutrition, exercise training, that you are going to see a reduce on the onset of diabetes. We have seen that particularly in seniors.    I just wanted to mention that there is bipartisan legislation to expand the diabetes prevention program to Medicare. There have been numerous pilots to demonstrate that really can have a demonstrable effect on saving lives, as well as cutting costs.    I am hoping that you can take a look at that as well, how can we work to expand that. I would love to see all my colleagues come together on that legislation, but there may be some other tools that we have as well. I hope you will take a look at that.    I want to shift quickly to early childhood, because that is an area that you are going to be working heavily in as we go forward, and certainly reflected in the legislation, the transition is in 2017.    I know that within that legislation, there is a call to expand the length of the school day among other requirements. I am wondering what you are doing, what the staff is looking at now, how are we going to move forward with that while at the same time being certain we are keeping the quality the same or at least better, maintaining quality, and certainly finding ways that we hit the bar of lengthening but we are not losing some of the other ingredients that make up such a successful program.</t>
   </si>
   <si>
@@ -283,9 +262,6 @@
     <t>412621</t>
   </si>
   <si>
-    <t>Carlos Curbelo</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Curbelo. Thank you, Mr. Chairman. Madam Secretary, more than 4,000 foreign children and adolescents have resettled in Miami, Dade County, in Fiscal Year 2015, and 937 more in the first quarter of Fiscal Year 2016. Foreign born students add an average of $2,720 in extraordinary costs to local school districts, above and beyond the per pupil State reimbursements.    The numbers of refugees, especially Cuban refugees, has increased substantially in our community. The estimated number was over 4,000 last year and is expected to be on a similar pace in the current year. However, this could be an understated number because many parents are immigrating without their children, and their children join them later once they have adjusted their status.    This presents a problem because the later arriving children of refugee parents do not count under refugee data, but they still represent major costs to local communities.    Since school districts are barred from inquiring into immigration status, is there a proxy measure for school-wide services that can be used to determine the actual impact of the significant influx on affected school districts?</t>
   </si>
   <si>
@@ -313,9 +289,6 @@
     <t>412193</t>
   </si>
   <si>
-    <t>Joe Courtney</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Courtney. Thank you, Mr. Chairman, and thank you, Madam Secretary, for your outstanding service. Your portfolio is about as complex and broad as any in government, and I think you are doing an outstanding job. Thank you.</t>
   </si>
   <si>
@@ -346,9 +319,6 @@
     <t>412648</t>
   </si>
   <si>
-    <t>Elise M. Stefanik</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Stefanik. Thank you, Mr. Chairman. First, I want to echo my friend and colleague, Mr. Courtney's, statements that the heroin and opioid epidemic is an issue that I have been focused on in my district, and I look forward to working with you on that issue.    Thank you, Madam Secretary, for being here today. Shifting gears, I think we can all agree here that we need to make sure that our seniors receive the best care possible, and in order to do that, we must accept there are differing needs across this country.    The Older Americans Act is an important law that helps seniors remain in their homes and out of expensive institutional care. As you know, what may work for seniors receiving meals or care in urban areas is likely to be inadequate to the unique challenges facing rural areas such as the district I represent in New York's North country, where we have one of the highest concentrations of seniors in New York State.    One of the hallmarks of the Older Americans Act is the State and local control provided through the structure of the aging network. This is a great example of legislation that understands one-size-fits-all does not always work.    Can you speak to how this structure is important to meeting the needs of this Nation's elderly and what we will do to continue the successful model?</t>
   </si>
   <si>
@@ -364,9 +334,6 @@
     <t>412308</t>
   </si>
   <si>
-    <t>Jared Polis</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Polis. Thank you, Mr. Chairman. I want to thank the Secretary for joining the committee today, and I want to thank her and the administration for putting forward a budget that reduces our deficit, makes important investments in health and education that our country needs.    I applaud the work of the Department of Health and Human Services for working to implement the Affordable Care Act. I congratulate on the especially successful 2016 third quarter enrollment period and 4.9 million new customers in the Federal Exchange.    Madam Secretary, you have seen firsthand, of course, the positive effects of the Affordable Care Act. I know in my home State of Colorado, 16.5 percent of people lacked health care insurance before the Affordable Care Act, and last year, the number fell to 6.7 percent, a historic low.    I am concerned, however, about how the geographic rating areas for each State can skew the cost of health care. My constituents in Grand County, for example, face among the very highest premium increases in the country. Their premiums went up at least 25 percent this year. They pay, by the way, nearly twice as much as other Coloradoans for insurance.    How is the Department helping States to guarantee that families and individuals who live in rural mountain communities are able to access high quality care at a reasonable cost the way the Affordable Care Act intended?</t>
   </si>
   <si>
@@ -412,9 +379,6 @@
     <t>412650</t>
   </si>
   <si>
-    <t>Steve Russell</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Russell. Thank you, Mr. Chairman, and thank you, Madam Secretary, for being here today.    As a returning combat veteran, I had some firsthand experience with prescription pain killers. In my case, Percocet, but, while it did reduce the pain, it left me with a clouded mind. I became concerned about that. I did not like not having my faculties, so I quit taking them.    However, pain management, and not just among our veterans, has resulted in perhaps a lot of what is categorized as suicides, it might have been accidental death. On a broader scale nationally, at least 18 States now have more deaths due to prescription opioids than car fatalities.</t>
   </si>
   <si>
@@ -436,9 +400,6 @@
     <t>412312</t>
   </si>
   <si>
-    <t>Gregorio Kilili Camacho Sablan</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Sablan. Thank you very much, Mr. Chairman. Madam Secretary, you mentioned this would be your last budget hearing. I think you should be proud. There are so many things in the proposal that would serve Americans greatly.    I am the only member here who is not representing a State. I am going to limit my conversation to one issue. The President proposed in his fiscal 2017 budget that the National Medicaid program be available to the 4 million Americans who live in the insular areas, including my constituents, in the Northern Mariana Islands, and thank you, this is a very welcomed proposal.    The people of the Mariana Islands are not as well off as the rest of Americans. Our median household income is about $20,000, and the national median income is $50,000. Because we have so many who are poor, we have many who qualify for Medicaid, 15,036 of our total population of 53,000 receive medical care through the Medicaid program.    As you know, Medicaid in the Mariana Islands and the other insular areas is not the same as Medicaid elsewhere. There is a cap on the amount of Federal Medicaid money that goes to our islands, only about $5 million per year to the Marianas.    The local cost-share of Medicaid is not computed on overall income as it is with the rest of America. So our Commonwealth, our local government has to pay 45 percent of the cost more like one of the richer US states would pay. We are not rich, however.    So, we welcome the additional Medicaid money provided by the Affordable Care Act beginning in 2011, about $13 million per year. That new money kept our only hospital open when the local government had to stop its annual funding for our hospital because of the Great Recession and loss of tax revenues.    That Affordable Care Act money is only available through 2019. What happens then? Does our hospital close? What about those now on Medicaid, do they lose coverage? I would like to give you the time to please explain to the committee about the President's proposal and how we are going to make sure that Americans in my district get the same access to health care as Americans elsewhere, everywhere else in our Nation?</t>
   </si>
   <si>
@@ -454,9 +415,6 @@
     <t>412469</t>
   </si>
   <si>
-    <t>Lou Barletta</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Barletta. Thank you, Mr. Chairman, and thank you, Secretary Burwell, for being here today.    I was deeply disturbed by a recent Senate report that found the Centers for Medicare and Medicaid Services, which is part of your department, had billed out roughly $750 million in Obamacare subsidies to half a million people who were unable to prove their citizenship or lawful presence in our country.    These tax credits are solely to be used to purchase health insurance by United States citizens and those lawfully residing here. Instead, they were improperly distributed, and the Federal Government will likely never see a cent returned.    This report was just one of many reports that have recently come to light detailing the rapid fraud and waste under Obamacare mismanagement that hard working Americans have had to foot the bill for.    I have been working to fight illegal immigration for more than a decade now, and I find it extremely troubling that, at a time when our national debt is $19 trillion and counting, the Federal Government continues to throw money away with no regard for the consequences.    I would have a hard time explaining to families in my district, many of whom are struggling to put food on the table, as to why they should be helping to pay for the health expenses of someone who broke the law to get here and has no right to those Federal dollars.    Secretary Burwell, whose decision was it to prioritize illegal immigrants over American citizens?</t>
   </si>
   <si>
@@ -490,9 +448,6 @@
     <t>412501</t>
   </si>
   <si>
-    <t>Suzanne Bonamici</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Bonamici. Thank you, Mr. Chairman. Thank you, Secretary Burwell. Your work covers so many areas that affect the daily lives of Oregonians and Americans. I appreciate that.    I want to thank my colleague and friend, Representative Stefanik, for bringing up the Older Americans Act. I want to ask you about the Home &amp; Community-Based Supportive Services program that funds services like legal assistance, elder abuse and prevention, transportation and meal sites, medical appointments, referral assistance for seniors and their caregivers.    Now, I am supporting the additional $10 million in the President's request as well as many of my colleagues. Why is it important to increase funding for the Older Americans Act programs, especially the Home &amp; Community-Based Supportive Services, given the rapidly rising population of older Americans? I do want to save time for another.</t>
   </si>
   <si>
@@ -520,9 +475,6 @@
     <t>400643</t>
   </si>
   <si>
-    <t>Virginia Foxx</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Foxx. Thank you, Mr. Chairman. Secretary Burwell, I want to follow up somewhat on what my colleague, Mr. Byrne, was talking about in his line of questioning, but first I want to say I have heard from employers who self-insure that this transitional reinsurance fee is particularly burdensome to them, depriving them of resources that could be used instead to create jobs.    You asserted that HHS interpreted the law accurately and appropriately. You claim that the comment period for the NPRM resulted in no objections to the Department's interpretation of the law.    However, most of us believe that the NPRM was drafted in such a complicated way that no one could interpret it in the way your department did, where you used convoluted language to create a loophole to justify your reasoning. Given your dubious interpretation of the law thus far--you have heard members of this committee, and you will hear us say we think you have interpreted it wrong. I agree with Mr. Byrne, you have interpreted it wrong. You are hearing directly from members of Congress that you have interpreted it wrong.    I am now concerned that you are going to find a way to extend the transitional reinsurance program even though the law clearly states that it expires this year. So, could you expand in greater detail your legal interpretation of implementing the transitional reinsurance program contrary to the letter of the law?    Can you commit to this committee that you will follow the letter of the law which states the program must cease collections for the program at the end of this year? Do you plan to distribute funds after 2016?</t>
   </si>
   <si>
@@ -550,9 +502,6 @@
     <t>412585</t>
   </si>
   <si>
-    <t>Mark Pocan</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Pocan. Thank you, Mr. Chairman. Thank you, Madam Secretary, for being here today. I am trying to get to three subjects in four minutes. I am going to try to go fast.    Does the name Brent Brown from Wisconsin ring a bell to you? This is a gentleman who wrote a letter to the President, and I would like to ask unanimous consent to enter this letter into the record.</t>
   </si>
   <si>
@@ -589,9 +538,6 @@
     <t>412635</t>
   </si>
   <si>
-    <t>Mike Bishop</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Bishop. Thank you, Mr. Chairman. Thank you, Madam Secretary, for your testimony this morning.    On February 19, as part of the Fiscal Year 2017 Medicare Advantage Rate Notice, CMS proposed a cut to Medicare Advantage employer group waiver plans, otherwise known as Medicare Advantage retiree coverage, 3.3 million seniors received their Medicare Advantage coverage through this plan.    In fact, in Michigan alone, there are more than 300,000 retirees, including labor unions, State and local government, and private employer retirees who rely on Medicare Advantage retiree coverage.    These proposed cuts would jeopardize the high quality care that they depend on for their health and financial security. That is why, last week, my colleague, Representative Debbie Dingell, and I, led a bipartisan Michigan delegation letter that included 11 of our colleagues in Michigan, to raise concerns with regard to the impact these proposed cuts would have on our constituents, and we also urged the agency to remove the cut to the Medicare Advantage retiree coverage from the final rate notice.    Earlier this month, the UAW Retiree Medical Benefits Trust, which provides health coverage to retirees and their dependents of the United Auto Workers Union, who formerly worked for the Michigan Big Three (GM, Ford, and Chrysler) submitted comments to CMS expressing concerns with CMS' proposed cuts to Medicare Advantage retiree coverage and the impact these cuts would have on their retirees.    The Trust currently provides coverage to 719,000 people. Of this population, 534,000 are covered by Medicare. The Trust offers their retirees a choice of plans in which they can enroll. At the present time, 161,000 of these retirees have selected and are covered by Medicare Advantage plans.    In comments submitted to CMS, the UAW Retiree Medical Benefits Trust expressed concerns that the proposed cuts to Medicare Advantage retiree coverage might result in diminishing the quality of care available to retirees and the proposal would lead to substantial reduction in payment to employer group waiver plans, thereby resulting in premium increases and/or benefit reductions.    This leads me to my question. I did send you this letter, and I appreciate the fact that you have acknowledged receipt of that letter. Thank you very much for that.    Having said what I just said, and the grave concerns they represent to in particular my constituents in the State of Michigan, can you tell me whether or not CMS considered the impact the cuts to the Medicare Advantage retiree coverage would have on the 3.3 million seniors who depend on this form of coverage when developing the Advanced Notice?</t>
   </si>
   <si>
@@ -613,9 +559,6 @@
     <t>412520</t>
   </si>
   <si>
-    <t>Mark Takano</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Takano. Thank you, Mr. Chairman. Madam Secretary, it is truly a pleasure to hear from you this morning about your department's priorities. I am glad to hear about the administration's continuing commitment to programs that support working families, educate our children, and keep Americans healthy.    First, I would like to ask you about the Department's work to support LGBT seniors. As you may know, the Congressional LGBT Equality Caucus, of which I am co-chair, has formed an LGBT Aging Issues Task Force. We sent a letter to Administrator Greenlee asking for ACL to require each State plan to assess whether State units on aging are meeting the needs of the LGBT community in their area.    As you know, LGBT elders have poorer physical health, worse mental health, lower income, and fewer close ties on average than other seniors.    Can you speak to whether ACL will be rolling out a guidance focused on LGBT older Americans, and if not, what will they be doing to assist this aging population?</t>
   </si>
   <si>
@@ -646,9 +589,6 @@
     <t>412426</t>
   </si>
   <si>
-    <t>Todd Rokita</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Rokita. I thank the Chairman. Thank you for coming, it is good to see you. On behalf of the Governor of the State of Indiana, Mike Pence, and many of us in the State, thanks for working with us on what we call ``HIP 2.0,'' consumer driven health care, that I think will be a model to help the Department and others around the country really get at cost constraints while serving more people. Thank you for your cooperation and leadership in that regard.</t>
   </si>
   <si>
@@ -721,9 +661,6 @@
     <t>412600</t>
   </si>
   <si>
-    <t>Katherine M. Clark</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Clark. Thank you, Mr. Chairman, and thank you, Secretary Burwell, for not only your testimony today but the incredible work that you are doing. I especially want to highlight your commitment to addressing the opioid crisis, coming from a State like Massachusetts where it has just been a devastating effect, we so appreciate your partnership and your commitment.    I specifically want to ask you about adolescents and young adults. I have spoken with many experts who treat this population. They have been clear that this population needs special protocols to be able to tailor the treatment to their unique social and biological needs. They are also clear there has not been enough emphasis on programming or research in this area.    Can you discuss any efforts that are underway to target action towards young adults and adolescents, and if you see this as an important area for fighting the opioid crisis?</t>
   </si>
   <si>
@@ -745,9 +682,6 @@
     <t>412625</t>
   </si>
   <si>
-    <t>Rick W. Allen</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Allen. Thank you, Mr. Chairman, and thank you, Madam Secretary, and thanks for your call, by the way. I am sorry I did not get back to you.    I wanted to just comment on a couple of things. One is you mentioned you have lowered the taxpayer growth in Medicare. I need some background on that, because I am not seeing that, so if you could get that to me.    The other number that I am seeing is ``totally insured.'' I am not seeing that in my district. In fact, a very small percentage of my district is insured. In fact, doctors tell me at the emergency room that nothing has changed, many people are showing up without insurance as before.    Also, on your comment about you do not pay more for preexisting conditions, I met a lady yesterday that told me about her son and his condition, and she wanted to know why his premiums had gotten so high and his deductible was like $10,000. I said well, I will get an answer for you. I need you to get that to me.    Last but not least, the President signed into law, and I voted for, the Hyde Amendment, which was an attachment to the appropriations bill. How are you monitoring your funding of these various claims that no taxpayer funds are being used for abortions? How do you monitor that, and what are you doing to oversee that?</t>
   </si>
   <si>
@@ -775,9 +709,6 @@
     <t>400433</t>
   </si>
   <si>
-    <t>Joe Wilson</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Wilson. Thank you, Mr. Chair. Welcome, Madam Secretary.</t>
   </si>
   <si>
@@ -808,9 +739,6 @@
     <t>412622</t>
   </si>
   <si>
-    <t>Earl L. "Buddy" Carter</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Carter. Thank you, Mr. Chairman. Thank you, Madam Secretary, for being here. Madam Secretary, as you know, I am a pharmacist, so I am very concerned about issues, obviously, dealing with patients and dealing with them getting their medications.    Specifically, I wanted to ask you about compounding, compounding for office use only. I am very concerned about the FDA interpreting legislative intent, and certainly this is something that comes into play when we are talking about for office use only.    I know the FDA continues to prevent medications to be compounded for office use only, and what this causes is for the patients to have to go back to the pharmacy, get a specific prescription, compound it for them, then go back to the doctor to have it applied.    I am wondering where you are at in that process? Many States have already allowed for this to take place. Many States have already had regulations and laws in place that allow for office use only, for compounds to be made, and for the physician to have them there in the office where the physician has the ability to apply and use that medication instead of the patient having to go get a specific prescription filled for them as opposed to having it for office use only.    I just want to know where we are at in that process.</t>
   </si>
   <si>
@@ -856,9 +784,6 @@
     <t>412607</t>
   </si>
   <si>
-    <t>Alma S. Adams</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Adams. Thank you, Mr. Chair, and thank you, Madam Secretary, for being here. I am going to move along quickly. I just want to give a shout out to my police department in High Point for the work they are doing in opioid abuse, and I thank you for your work.    Let me ask you about the health of our Nation's most marginalized young people as it relates to sexual health services. A lot of data and research performed by CDC, American Academy of Pediatrics, and even your Office of Adolescent Health show that far too many young people in the U.S. face barriers accessing and receiving adequate health care services regarding sexual health education.    So, can you please speak to existing efforts that HHS is leading to ensure that our Nation's youth, especially those most vulnerable, have the education, skills, and access to sexual education services?</t>
   </si>
   <si>
@@ -878,9 +803,6 @@
   </si>
   <si>
     <t>412317</t>
-  </si>
-  <si>
-    <t>Glenn Thompson</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Thompson. Thank you, Mr. Chairman. Secretary Burwell, thank you so much for the phone call, very much appreciate you reaching out.    I just want to note the current crisis with the opioids, there is obviously some impact from infants to the elderly. We need to approach this from a broader perspective, this is symptomatic. I view it as a broader epidemic of substance abuse. It does not matter how large or how small the community is, it is present.    This is kind of an all hands on deck for the Executive Branch, Legislative Branch, and all of the partners, we need to be working together.    My question though is regarding access to health care. In your testimony, you state that through targeted investments, the administration's budget expands access to health care, particularly for rural and underserved areas. I represent Pennsylvania's Fifth Congressional District. It is the State's most rural, largest congressional district, about 24 percent of the land mass. I know rural. I know it well.    As a former health care provider for almost 30 years, access requires the presence of providers in our communities, first. I do not care how you pay for it or all the other moving parts of it. You have to have that access. There has to be a presence.    Really, a tremendous concern considering the fact that more than 45 rural hospitals have closed since 2010, and approximately 300 others are in danger of closing. I struggle to understand how these facts support your conclusion that the Affordable Care Act is having a positive effect on the well-being of employers, employees, providers, health care professionals, and most importantly, patients in rural areas.    Can you expand on your statement in regard to those facts? That is a trend line that is not good and it scares me.</t>
@@ -1297,11 +1219,9 @@
       <c r="F2" t="s">
         <v>11</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" t="s"/>
+      <c r="H2" t="s">
         <v>12</v>
-      </c>
-      <c r="H2" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1321,13 +1241,11 @@
         <v>10</v>
       </c>
       <c r="F3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" t="s"/>
+      <c r="H3" t="s">
         <v>14</v>
-      </c>
-      <c r="G3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H3" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1349,11 +1267,9 @@
       <c r="F4" t="s">
         <v>11</v>
       </c>
-      <c r="G4" t="s">
-        <v>12</v>
-      </c>
+      <c r="G4" t="s"/>
       <c r="H4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1375,11 +1291,9 @@
       <c r="F5" t="s">
         <v>11</v>
       </c>
-      <c r="G5" t="s">
-        <v>12</v>
-      </c>
+      <c r="G5" t="s"/>
       <c r="H5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1399,13 +1313,11 @@
         <v>10</v>
       </c>
       <c r="F6" t="s">
-        <v>19</v>
-      </c>
-      <c r="G6" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G6" t="s"/>
       <c r="H6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1427,11 +1339,9 @@
       <c r="F7" t="s">
         <v>11</v>
       </c>
-      <c r="G7" t="s">
-        <v>12</v>
-      </c>
+      <c r="G7" t="s"/>
       <c r="H7" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1451,13 +1361,11 @@
         <v>10</v>
       </c>
       <c r="F8" t="s">
-        <v>19</v>
-      </c>
-      <c r="G8" t="s">
+        <v>17</v>
+      </c>
+      <c r="G8" t="s"/>
+      <c r="H8" t="s">
         <v>20</v>
-      </c>
-      <c r="H8" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1479,11 +1387,9 @@
       <c r="F9" t="s">
         <v>11</v>
       </c>
-      <c r="G9" t="s">
-        <v>12</v>
-      </c>
+      <c r="G9" t="s"/>
       <c r="H9" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1503,13 +1409,11 @@
         <v>10</v>
       </c>
       <c r="F10" t="s">
-        <v>19</v>
-      </c>
-      <c r="G10" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G10" t="s"/>
       <c r="H10" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1531,11 +1435,9 @@
       <c r="F11" t="s">
         <v>11</v>
       </c>
-      <c r="G11" t="s">
-        <v>12</v>
-      </c>
+      <c r="G11" t="s"/>
       <c r="H11" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -1555,13 +1457,11 @@
         <v>10</v>
       </c>
       <c r="F12" t="s">
-        <v>19</v>
-      </c>
-      <c r="G12" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G12" t="s"/>
       <c r="H12" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1583,11 +1483,9 @@
       <c r="F13" t="s">
         <v>11</v>
       </c>
-      <c r="G13" t="s">
-        <v>12</v>
-      </c>
+      <c r="G13" t="s"/>
       <c r="H13" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1607,13 +1505,11 @@
         <v>10</v>
       </c>
       <c r="F14" t="s">
-        <v>19</v>
-      </c>
-      <c r="G14" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G14" t="s"/>
       <c r="H14" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1635,11 +1531,9 @@
       <c r="F15" t="s">
         <v>11</v>
       </c>
-      <c r="G15" t="s">
-        <v>12</v>
-      </c>
+      <c r="G15" t="s"/>
       <c r="H15" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1659,13 +1553,11 @@
         <v>10</v>
       </c>
       <c r="F16" t="s">
-        <v>14</v>
-      </c>
-      <c r="G16" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G16" t="s"/>
       <c r="H16" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1685,13 +1577,11 @@
         <v>10</v>
       </c>
       <c r="F17" t="s">
-        <v>19</v>
-      </c>
-      <c r="G17" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G17" t="s"/>
       <c r="H17" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1711,13 +1601,11 @@
         <v>10</v>
       </c>
       <c r="F18" t="s">
-        <v>14</v>
-      </c>
-      <c r="G18" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G18" t="s"/>
       <c r="H18" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1737,13 +1625,11 @@
         <v>10</v>
       </c>
       <c r="F19" t="s">
-        <v>19</v>
-      </c>
-      <c r="G19" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G19" t="s"/>
       <c r="H19" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1763,13 +1649,11 @@
         <v>10</v>
       </c>
       <c r="F20" t="s">
-        <v>14</v>
-      </c>
-      <c r="G20" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G20" t="s"/>
       <c r="H20" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1789,13 +1673,11 @@
         <v>10</v>
       </c>
       <c r="F21" t="s">
-        <v>19</v>
-      </c>
-      <c r="G21" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G21" t="s"/>
       <c r="H21" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1815,13 +1697,11 @@
         <v>10</v>
       </c>
       <c r="F22" t="s">
-        <v>14</v>
-      </c>
-      <c r="G22" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G22" t="s"/>
       <c r="H22" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1841,13 +1721,11 @@
         <v>10</v>
       </c>
       <c r="F23" t="s">
-        <v>19</v>
-      </c>
-      <c r="G23" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G23" t="s"/>
       <c r="H23" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1867,13 +1745,11 @@
         <v>10</v>
       </c>
       <c r="F24" t="s">
-        <v>14</v>
-      </c>
-      <c r="G24" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G24" t="s"/>
       <c r="H24" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1893,13 +1769,11 @@
         <v>10</v>
       </c>
       <c r="F25" t="s">
-        <v>19</v>
-      </c>
-      <c r="G25" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G25" t="s"/>
       <c r="H25" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1919,13 +1793,11 @@
         <v>10</v>
       </c>
       <c r="F26" t="s">
-        <v>14</v>
-      </c>
-      <c r="G26" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G26" t="s"/>
       <c r="H26" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1945,13 +1817,11 @@
         <v>10</v>
       </c>
       <c r="F27" t="s">
-        <v>19</v>
-      </c>
-      <c r="G27" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G27" t="s"/>
       <c r="H27" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1973,11 +1843,9 @@
       <c r="F28" t="s">
         <v>11</v>
       </c>
-      <c r="G28" t="s">
-        <v>12</v>
-      </c>
+      <c r="G28" t="s"/>
       <c r="H28" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1997,13 +1865,11 @@
         <v>10</v>
       </c>
       <c r="F29" t="s">
-        <v>44</v>
-      </c>
-      <c r="G29" t="s">
-        <v>45</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="G29" t="s"/>
       <c r="H29" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -2023,13 +1889,11 @@
         <v>10</v>
       </c>
       <c r="F30" t="s">
-        <v>19</v>
-      </c>
-      <c r="G30" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G30" t="s"/>
       <c r="H30" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -2049,13 +1913,11 @@
         <v>10</v>
       </c>
       <c r="F31" t="s">
+        <v>41</v>
+      </c>
+      <c r="G31" t="s"/>
+      <c r="H31" t="s">
         <v>44</v>
-      </c>
-      <c r="G31" t="s">
-        <v>45</v>
-      </c>
-      <c r="H31" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -2075,13 +1937,11 @@
         <v>10</v>
       </c>
       <c r="F32" t="s">
-        <v>19</v>
-      </c>
-      <c r="G32" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G32" t="s"/>
       <c r="H32" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -2101,13 +1961,11 @@
         <v>10</v>
       </c>
       <c r="F33" t="s">
-        <v>44</v>
-      </c>
-      <c r="G33" t="s">
-        <v>45</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="G33" t="s"/>
       <c r="H33" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -2129,11 +1987,9 @@
       <c r="F34" t="s">
         <v>11</v>
       </c>
-      <c r="G34" t="s">
-        <v>12</v>
-      </c>
+      <c r="G34" t="s"/>
       <c r="H34" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -2153,13 +2009,11 @@
         <v>10</v>
       </c>
       <c r="F35" t="s">
-        <v>52</v>
-      </c>
-      <c r="G35" t="s">
-        <v>53</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="G35" t="s"/>
       <c r="H35" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -2181,11 +2035,9 @@
       <c r="F36" t="s">
         <v>11</v>
       </c>
-      <c r="G36" t="s">
-        <v>12</v>
-      </c>
+      <c r="G36" t="s"/>
       <c r="H36" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -2205,13 +2057,11 @@
         <v>10</v>
       </c>
       <c r="F37" t="s">
-        <v>52</v>
-      </c>
-      <c r="G37" t="s">
-        <v>53</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="G37" t="s"/>
       <c r="H37" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -2231,13 +2081,11 @@
         <v>10</v>
       </c>
       <c r="F38" t="s">
-        <v>19</v>
-      </c>
-      <c r="G38" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G38" t="s"/>
       <c r="H38" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -2257,13 +2105,11 @@
         <v>10</v>
       </c>
       <c r="F39" t="s">
-        <v>52</v>
-      </c>
-      <c r="G39" t="s">
+        <v>48</v>
+      </c>
+      <c r="G39" t="s"/>
+      <c r="H39" t="s">
         <v>53</v>
-      </c>
-      <c r="H39" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -2283,13 +2129,11 @@
         <v>10</v>
       </c>
       <c r="F40" t="s">
-        <v>19</v>
-      </c>
-      <c r="G40" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G40" t="s"/>
       <c r="H40" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -2309,13 +2153,11 @@
         <v>10</v>
       </c>
       <c r="F41" t="s">
-        <v>52</v>
-      </c>
-      <c r="G41" t="s">
-        <v>53</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="G41" t="s"/>
       <c r="H41" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -2335,13 +2177,11 @@
         <v>10</v>
       </c>
       <c r="F42" t="s">
-        <v>19</v>
-      </c>
-      <c r="G42" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G42" t="s"/>
       <c r="H42" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -2361,13 +2201,11 @@
         <v>10</v>
       </c>
       <c r="F43" t="s">
-        <v>52</v>
-      </c>
-      <c r="G43" t="s">
-        <v>53</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="G43" t="s"/>
       <c r="H43" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -2387,13 +2225,11 @@
         <v>10</v>
       </c>
       <c r="F44" t="s">
-        <v>19</v>
-      </c>
-      <c r="G44" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G44" t="s"/>
       <c r="H44" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -2413,13 +2249,11 @@
         <v>10</v>
       </c>
       <c r="F45" t="s">
-        <v>52</v>
-      </c>
-      <c r="G45" t="s">
-        <v>53</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="G45" t="s"/>
       <c r="H45" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -2439,13 +2273,11 @@
         <v>10</v>
       </c>
       <c r="F46" t="s">
-        <v>19</v>
-      </c>
-      <c r="G46" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G46" t="s"/>
       <c r="H46" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -2467,11 +2299,9 @@
       <c r="F47" t="s">
         <v>11</v>
       </c>
-      <c r="G47" t="s">
-        <v>12</v>
-      </c>
+      <c r="G47" t="s"/>
       <c r="H47" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -2491,13 +2321,11 @@
         <v>10</v>
       </c>
       <c r="F48" t="s">
-        <v>67</v>
-      </c>
-      <c r="G48" t="s">
-        <v>68</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="G48" t="s"/>
       <c r="H48" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -2517,13 +2345,11 @@
         <v>10</v>
       </c>
       <c r="F49" t="s">
-        <v>19</v>
-      </c>
-      <c r="G49" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G49" t="s"/>
       <c r="H49" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2543,13 +2369,11 @@
         <v>10</v>
       </c>
       <c r="F50" t="s">
-        <v>67</v>
-      </c>
-      <c r="G50" t="s">
-        <v>68</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="G50" t="s"/>
       <c r="H50" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2569,13 +2393,11 @@
         <v>10</v>
       </c>
       <c r="F51" t="s">
-        <v>19</v>
-      </c>
-      <c r="G51" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G51" t="s"/>
       <c r="H51" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -2595,13 +2417,11 @@
         <v>10</v>
       </c>
       <c r="F52" t="s">
+        <v>62</v>
+      </c>
+      <c r="G52" t="s"/>
+      <c r="H52" t="s">
         <v>67</v>
-      </c>
-      <c r="G52" t="s">
-        <v>68</v>
-      </c>
-      <c r="H52" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2621,13 +2441,11 @@
         <v>10</v>
       </c>
       <c r="F53" t="s">
-        <v>19</v>
-      </c>
-      <c r="G53" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G53" t="s"/>
       <c r="H53" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2647,13 +2465,11 @@
         <v>10</v>
       </c>
       <c r="F54" t="s">
-        <v>67</v>
-      </c>
-      <c r="G54" t="s">
-        <v>68</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="G54" t="s"/>
       <c r="H54" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2673,13 +2489,11 @@
         <v>10</v>
       </c>
       <c r="F55" t="s">
-        <v>19</v>
-      </c>
-      <c r="G55" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G55" t="s"/>
       <c r="H55" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2701,11 +2515,9 @@
       <c r="F56" t="s">
         <v>11</v>
       </c>
-      <c r="G56" t="s">
-        <v>12</v>
-      </c>
+      <c r="G56" t="s"/>
       <c r="H56" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2725,13 +2537,11 @@
         <v>10</v>
       </c>
       <c r="F57" t="s">
-        <v>78</v>
-      </c>
-      <c r="G57" t="s">
-        <v>79</v>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="G57" t="s"/>
       <c r="H57" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -2751,13 +2561,11 @@
         <v>10</v>
       </c>
       <c r="F58" t="s">
-        <v>19</v>
-      </c>
-      <c r="G58" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G58" t="s"/>
       <c r="H58" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -2777,13 +2585,11 @@
         <v>10</v>
       </c>
       <c r="F59" t="s">
-        <v>78</v>
-      </c>
-      <c r="G59" t="s">
-        <v>79</v>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="G59" t="s"/>
       <c r="H59" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -2803,13 +2609,11 @@
         <v>10</v>
       </c>
       <c r="F60" t="s">
-        <v>19</v>
-      </c>
-      <c r="G60" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G60" t="s"/>
       <c r="H60" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2829,13 +2633,11 @@
         <v>10</v>
       </c>
       <c r="F61" t="s">
-        <v>78</v>
-      </c>
-      <c r="G61" t="s">
-        <v>79</v>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="G61" t="s"/>
       <c r="H61" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2855,13 +2657,11 @@
         <v>10</v>
       </c>
       <c r="F62" t="s">
-        <v>19</v>
-      </c>
-      <c r="G62" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G62" t="s"/>
       <c r="H62" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2881,13 +2681,11 @@
         <v>10</v>
       </c>
       <c r="F63" t="s">
-        <v>78</v>
-      </c>
-      <c r="G63" t="s">
+        <v>72</v>
+      </c>
+      <c r="G63" t="s"/>
+      <c r="H63" t="s">
         <v>79</v>
-      </c>
-      <c r="H63" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2909,11 +2707,9 @@
       <c r="F64" t="s">
         <v>11</v>
       </c>
-      <c r="G64" t="s">
-        <v>12</v>
-      </c>
+      <c r="G64" t="s"/>
       <c r="H64" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2933,13 +2729,11 @@
         <v>10</v>
       </c>
       <c r="F65" t="s">
-        <v>88</v>
-      </c>
-      <c r="G65" t="s">
-        <v>89</v>
-      </c>
+        <v>81</v>
+      </c>
+      <c r="G65" t="s"/>
       <c r="H65" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2959,13 +2753,11 @@
         <v>10</v>
       </c>
       <c r="F66" t="s">
-        <v>19</v>
-      </c>
-      <c r="G66" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G66" t="s"/>
       <c r="H66" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2985,13 +2777,11 @@
         <v>10</v>
       </c>
       <c r="F67" t="s">
-        <v>88</v>
-      </c>
-      <c r="G67" t="s">
-        <v>89</v>
-      </c>
+        <v>81</v>
+      </c>
+      <c r="G67" t="s"/>
       <c r="H67" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -3011,13 +2801,11 @@
         <v>10</v>
       </c>
       <c r="F68" t="s">
-        <v>19</v>
-      </c>
-      <c r="G68" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G68" t="s"/>
       <c r="H68" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -3037,13 +2825,11 @@
         <v>10</v>
       </c>
       <c r="F69" t="s">
-        <v>88</v>
-      </c>
-      <c r="G69" t="s">
-        <v>89</v>
-      </c>
+        <v>81</v>
+      </c>
+      <c r="G69" t="s"/>
       <c r="H69" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -3063,13 +2849,11 @@
         <v>10</v>
       </c>
       <c r="F70" t="s">
-        <v>19</v>
-      </c>
-      <c r="G70" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G70" t="s"/>
       <c r="H70" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -3089,13 +2873,11 @@
         <v>10</v>
       </c>
       <c r="F71" t="s">
+        <v>81</v>
+      </c>
+      <c r="G71" t="s"/>
+      <c r="H71" t="s">
         <v>88</v>
-      </c>
-      <c r="G71" t="s">
-        <v>89</v>
-      </c>
-      <c r="H71" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -3117,11 +2899,9 @@
       <c r="F72" t="s">
         <v>11</v>
       </c>
-      <c r="G72" t="s">
-        <v>12</v>
-      </c>
+      <c r="G72" t="s"/>
       <c r="H72" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -3141,13 +2921,11 @@
         <v>10</v>
       </c>
       <c r="F73" t="s">
-        <v>98</v>
-      </c>
-      <c r="G73" t="s">
-        <v>99</v>
-      </c>
+        <v>90</v>
+      </c>
+      <c r="G73" t="s"/>
       <c r="H73" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -3167,13 +2945,11 @@
         <v>10</v>
       </c>
       <c r="F74" t="s">
-        <v>19</v>
-      </c>
-      <c r="G74" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G74" t="s"/>
       <c r="H74" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -3193,13 +2969,11 @@
         <v>10</v>
       </c>
       <c r="F75" t="s">
-        <v>98</v>
-      </c>
-      <c r="G75" t="s">
-        <v>99</v>
-      </c>
+        <v>90</v>
+      </c>
+      <c r="G75" t="s"/>
       <c r="H75" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -3219,13 +2993,11 @@
         <v>10</v>
       </c>
       <c r="F76" t="s">
-        <v>19</v>
-      </c>
-      <c r="G76" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G76" t="s"/>
       <c r="H76" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -3245,13 +3017,11 @@
         <v>10</v>
       </c>
       <c r="F77" t="s">
-        <v>98</v>
-      </c>
-      <c r="G77" t="s">
-        <v>99</v>
-      </c>
+        <v>90</v>
+      </c>
+      <c r="G77" t="s"/>
       <c r="H77" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -3271,13 +3041,11 @@
         <v>10</v>
       </c>
       <c r="F78" t="s">
-        <v>19</v>
-      </c>
-      <c r="G78" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G78" t="s"/>
       <c r="H78" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -3297,13 +3065,11 @@
         <v>10</v>
       </c>
       <c r="F79" t="s">
-        <v>98</v>
-      </c>
-      <c r="G79" t="s">
-        <v>99</v>
-      </c>
+        <v>90</v>
+      </c>
+      <c r="G79" t="s"/>
       <c r="H79" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -3323,13 +3089,11 @@
         <v>10</v>
       </c>
       <c r="F80" t="s">
-        <v>19</v>
-      </c>
-      <c r="G80" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G80" t="s"/>
       <c r="H80" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -3349,13 +3113,11 @@
         <v>10</v>
       </c>
       <c r="F81" t="s">
+        <v>90</v>
+      </c>
+      <c r="G81" t="s"/>
+      <c r="H81" t="s">
         <v>98</v>
-      </c>
-      <c r="G81" t="s">
-        <v>99</v>
-      </c>
-      <c r="H81" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -3377,11 +3139,9 @@
       <c r="F82" t="s">
         <v>11</v>
       </c>
-      <c r="G82" t="s">
-        <v>12</v>
-      </c>
+      <c r="G82" t="s"/>
       <c r="H82" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -3401,13 +3161,11 @@
         <v>10</v>
       </c>
       <c r="F83" t="s">
-        <v>109</v>
-      </c>
-      <c r="G83" t="s">
-        <v>110</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="G83" t="s"/>
       <c r="H83" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -3427,13 +3185,11 @@
         <v>10</v>
       </c>
       <c r="F84" t="s">
-        <v>19</v>
-      </c>
-      <c r="G84" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G84" t="s"/>
       <c r="H84" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -3453,13 +3209,11 @@
         <v>10</v>
       </c>
       <c r="F85" t="s">
-        <v>109</v>
-      </c>
-      <c r="G85" t="s">
-        <v>110</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="G85" t="s"/>
       <c r="H85" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -3481,11 +3235,9 @@
       <c r="F86" t="s">
         <v>11</v>
       </c>
-      <c r="G86" t="s">
-        <v>12</v>
-      </c>
+      <c r="G86" t="s"/>
       <c r="H86" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -3505,13 +3257,11 @@
         <v>10</v>
       </c>
       <c r="F87" t="s">
-        <v>115</v>
-      </c>
-      <c r="G87" t="s">
-        <v>116</v>
-      </c>
+        <v>105</v>
+      </c>
+      <c r="G87" t="s"/>
       <c r="H87" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -3531,13 +3281,11 @@
         <v>10</v>
       </c>
       <c r="F88" t="s">
-        <v>19</v>
-      </c>
-      <c r="G88" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G88" t="s"/>
       <c r="H88" t="s">
-        <v>118</v>
+        <v>107</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -3557,13 +3305,11 @@
         <v>10</v>
       </c>
       <c r="F89" t="s">
-        <v>115</v>
-      </c>
-      <c r="G89" t="s">
-        <v>116</v>
-      </c>
+        <v>105</v>
+      </c>
+      <c r="G89" t="s"/>
       <c r="H89" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -3583,13 +3329,11 @@
         <v>10</v>
       </c>
       <c r="F90" t="s">
-        <v>19</v>
-      </c>
-      <c r="G90" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G90" t="s"/>
       <c r="H90" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -3609,13 +3353,11 @@
         <v>10</v>
       </c>
       <c r="F91" t="s">
-        <v>115</v>
-      </c>
-      <c r="G91" t="s">
-        <v>116</v>
-      </c>
+        <v>105</v>
+      </c>
+      <c r="G91" t="s"/>
       <c r="H91" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -3635,13 +3377,11 @@
         <v>10</v>
       </c>
       <c r="F92" t="s">
-        <v>19</v>
-      </c>
-      <c r="G92" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G92" t="s"/>
       <c r="H92" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -3661,13 +3401,11 @@
         <v>10</v>
       </c>
       <c r="F93" t="s">
-        <v>115</v>
-      </c>
-      <c r="G93" t="s">
-        <v>116</v>
-      </c>
+        <v>105</v>
+      </c>
+      <c r="G93" t="s"/>
       <c r="H93" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -3687,13 +3425,11 @@
         <v>10</v>
       </c>
       <c r="F94" t="s">
-        <v>19</v>
-      </c>
-      <c r="G94" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G94" t="s"/>
       <c r="H94" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -3713,13 +3449,11 @@
         <v>10</v>
       </c>
       <c r="F95" t="s">
-        <v>115</v>
-      </c>
-      <c r="G95" t="s">
-        <v>116</v>
-      </c>
+        <v>105</v>
+      </c>
+      <c r="G95" t="s"/>
       <c r="H95" t="s">
-        <v>125</v>
+        <v>114</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -3739,13 +3473,11 @@
         <v>10</v>
       </c>
       <c r="F96" t="s">
-        <v>19</v>
-      </c>
-      <c r="G96" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G96" t="s"/>
       <c r="H96" t="s">
-        <v>126</v>
+        <v>115</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -3765,13 +3497,11 @@
         <v>10</v>
       </c>
       <c r="F97" t="s">
-        <v>115</v>
-      </c>
-      <c r="G97" t="s">
+        <v>105</v>
+      </c>
+      <c r="G97" t="s"/>
+      <c r="H97" t="s">
         <v>116</v>
-      </c>
-      <c r="H97" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -3791,13 +3521,11 @@
         <v>10</v>
       </c>
       <c r="F98" t="s">
-        <v>19</v>
-      </c>
-      <c r="G98" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G98" t="s"/>
       <c r="H98" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -3817,13 +3545,11 @@
         <v>10</v>
       </c>
       <c r="F99" t="s">
-        <v>115</v>
-      </c>
-      <c r="G99" t="s">
-        <v>116</v>
-      </c>
+        <v>105</v>
+      </c>
+      <c r="G99" t="s"/>
       <c r="H99" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -3845,11 +3571,9 @@
       <c r="F100" t="s">
         <v>11</v>
       </c>
-      <c r="G100" t="s">
-        <v>12</v>
-      </c>
+      <c r="G100" t="s"/>
       <c r="H100" t="s">
-        <v>130</v>
+        <v>119</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3869,13 +3593,11 @@
         <v>10</v>
       </c>
       <c r="F101" t="s">
-        <v>131</v>
-      </c>
-      <c r="G101" t="s">
-        <v>132</v>
-      </c>
+        <v>120</v>
+      </c>
+      <c r="G101" t="s"/>
       <c r="H101" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3895,13 +3617,11 @@
         <v>10</v>
       </c>
       <c r="F102" t="s">
-        <v>19</v>
-      </c>
-      <c r="G102" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G102" t="s"/>
       <c r="H102" t="s">
-        <v>134</v>
+        <v>122</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3921,13 +3641,11 @@
         <v>10</v>
       </c>
       <c r="F103" t="s">
-        <v>131</v>
-      </c>
-      <c r="G103" t="s">
-        <v>132</v>
-      </c>
+        <v>120</v>
+      </c>
+      <c r="G103" t="s"/>
       <c r="H103" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3947,13 +3665,11 @@
         <v>10</v>
       </c>
       <c r="F104" t="s">
-        <v>19</v>
-      </c>
-      <c r="G104" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G104" t="s"/>
       <c r="H104" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3973,13 +3689,11 @@
         <v>10</v>
       </c>
       <c r="F105" t="s">
-        <v>131</v>
-      </c>
-      <c r="G105" t="s">
-        <v>132</v>
-      </c>
+        <v>120</v>
+      </c>
+      <c r="G105" t="s"/>
       <c r="H105" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -4001,11 +3715,9 @@
       <c r="F106" t="s">
         <v>11</v>
       </c>
-      <c r="G106" t="s">
-        <v>12</v>
-      </c>
+      <c r="G106" t="s"/>
       <c r="H106" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -4025,13 +3737,11 @@
         <v>10</v>
       </c>
       <c r="F107" t="s">
-        <v>139</v>
-      </c>
-      <c r="G107" t="s">
-        <v>140</v>
-      </c>
+        <v>127</v>
+      </c>
+      <c r="G107" t="s"/>
       <c r="H107" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -4051,13 +3761,11 @@
         <v>10</v>
       </c>
       <c r="F108" t="s">
-        <v>19</v>
-      </c>
-      <c r="G108" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G108" t="s"/>
       <c r="H108" t="s">
-        <v>142</v>
+        <v>129</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -4077,13 +3785,11 @@
         <v>10</v>
       </c>
       <c r="F109" t="s">
-        <v>139</v>
-      </c>
-      <c r="G109" t="s">
-        <v>140</v>
-      </c>
+        <v>127</v>
+      </c>
+      <c r="G109" t="s"/>
       <c r="H109" t="s">
-        <v>143</v>
+        <v>130</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -4105,11 +3811,9 @@
       <c r="F110" t="s">
         <v>11</v>
       </c>
-      <c r="G110" t="s">
-        <v>12</v>
-      </c>
+      <c r="G110" t="s"/>
       <c r="H110" t="s">
-        <v>144</v>
+        <v>131</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -4129,13 +3833,11 @@
         <v>10</v>
       </c>
       <c r="F111" t="s">
-        <v>145</v>
-      </c>
-      <c r="G111" t="s">
-        <v>146</v>
-      </c>
+        <v>132</v>
+      </c>
+      <c r="G111" t="s"/>
       <c r="H111" t="s">
-        <v>147</v>
+        <v>133</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -4155,13 +3857,11 @@
         <v>10</v>
       </c>
       <c r="F112" t="s">
-        <v>19</v>
-      </c>
-      <c r="G112" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G112" t="s"/>
       <c r="H112" t="s">
-        <v>148</v>
+        <v>134</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -4181,13 +3881,11 @@
         <v>10</v>
       </c>
       <c r="F113" t="s">
-        <v>145</v>
-      </c>
-      <c r="G113" t="s">
-        <v>146</v>
-      </c>
+        <v>132</v>
+      </c>
+      <c r="G113" t="s"/>
       <c r="H113" t="s">
-        <v>149</v>
+        <v>135</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -4207,13 +3905,11 @@
         <v>10</v>
       </c>
       <c r="F114" t="s">
-        <v>19</v>
-      </c>
-      <c r="G114" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G114" t="s"/>
       <c r="H114" t="s">
-        <v>150</v>
+        <v>136</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -4233,13 +3929,11 @@
         <v>10</v>
       </c>
       <c r="F115" t="s">
-        <v>145</v>
-      </c>
-      <c r="G115" t="s">
-        <v>146</v>
-      </c>
+        <v>132</v>
+      </c>
+      <c r="G115" t="s"/>
       <c r="H115" t="s">
-        <v>151</v>
+        <v>137</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -4259,13 +3953,11 @@
         <v>10</v>
       </c>
       <c r="F116" t="s">
-        <v>19</v>
-      </c>
-      <c r="G116" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G116" t="s"/>
       <c r="H116" t="s">
-        <v>152</v>
+        <v>138</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -4285,13 +3977,11 @@
         <v>10</v>
       </c>
       <c r="F117" t="s">
-        <v>145</v>
-      </c>
-      <c r="G117" t="s">
-        <v>146</v>
-      </c>
+        <v>132</v>
+      </c>
+      <c r="G117" t="s"/>
       <c r="H117" t="s">
-        <v>153</v>
+        <v>139</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -4311,13 +4001,11 @@
         <v>10</v>
       </c>
       <c r="F118" t="s">
-        <v>19</v>
-      </c>
-      <c r="G118" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G118" t="s"/>
       <c r="H118" t="s">
-        <v>154</v>
+        <v>140</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -4337,13 +4025,11 @@
         <v>10</v>
       </c>
       <c r="F119" t="s">
-        <v>145</v>
-      </c>
-      <c r="G119" t="s">
-        <v>146</v>
-      </c>
+        <v>132</v>
+      </c>
+      <c r="G119" t="s"/>
       <c r="H119" t="s">
-        <v>155</v>
+        <v>141</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -4365,11 +4051,9 @@
       <c r="F120" t="s">
         <v>11</v>
       </c>
-      <c r="G120" t="s">
-        <v>12</v>
-      </c>
+      <c r="G120" t="s"/>
       <c r="H120" t="s">
-        <v>156</v>
+        <v>142</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -4389,13 +4073,11 @@
         <v>10</v>
       </c>
       <c r="F121" t="s">
-        <v>157</v>
-      </c>
-      <c r="G121" t="s">
-        <v>158</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="G121" t="s"/>
       <c r="H121" t="s">
-        <v>159</v>
+        <v>144</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -4415,13 +4097,11 @@
         <v>10</v>
       </c>
       <c r="F122" t="s">
-        <v>19</v>
-      </c>
-      <c r="G122" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G122" t="s"/>
       <c r="H122" t="s">
-        <v>160</v>
+        <v>145</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -4441,13 +4121,11 @@
         <v>10</v>
       </c>
       <c r="F123" t="s">
-        <v>157</v>
-      </c>
-      <c r="G123" t="s">
-        <v>158</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="G123" t="s"/>
       <c r="H123" t="s">
-        <v>161</v>
+        <v>146</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -4467,13 +4145,11 @@
         <v>10</v>
       </c>
       <c r="F124" t="s">
-        <v>19</v>
-      </c>
-      <c r="G124" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G124" t="s"/>
       <c r="H124" t="s">
-        <v>162</v>
+        <v>147</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -4493,13 +4169,11 @@
         <v>10</v>
       </c>
       <c r="F125" t="s">
-        <v>157</v>
-      </c>
-      <c r="G125" t="s">
-        <v>158</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="G125" t="s"/>
       <c r="H125" t="s">
-        <v>163</v>
+        <v>148</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -4519,13 +4193,11 @@
         <v>10</v>
       </c>
       <c r="F126" t="s">
-        <v>19</v>
-      </c>
-      <c r="G126" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G126" t="s"/>
       <c r="H126" t="s">
-        <v>164</v>
+        <v>149</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -4545,13 +4217,11 @@
         <v>10</v>
       </c>
       <c r="F127" t="s">
-        <v>157</v>
-      </c>
-      <c r="G127" t="s">
-        <v>158</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="G127" t="s"/>
       <c r="H127" t="s">
-        <v>165</v>
+        <v>150</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -4573,11 +4243,9 @@
       <c r="F128" t="s">
         <v>11</v>
       </c>
-      <c r="G128" t="s">
-        <v>12</v>
-      </c>
+      <c r="G128" t="s"/>
       <c r="H128" t="s">
-        <v>166</v>
+        <v>151</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -4597,13 +4265,11 @@
         <v>10</v>
       </c>
       <c r="F129" t="s">
-        <v>167</v>
-      </c>
-      <c r="G129" t="s">
-        <v>168</v>
-      </c>
+        <v>152</v>
+      </c>
+      <c r="G129" t="s"/>
       <c r="H129" t="s">
-        <v>169</v>
+        <v>153</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -4623,13 +4289,11 @@
         <v>10</v>
       </c>
       <c r="F130" t="s">
-        <v>19</v>
-      </c>
-      <c r="G130" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G130" t="s"/>
       <c r="H130" t="s">
-        <v>170</v>
+        <v>154</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -4649,13 +4313,11 @@
         <v>10</v>
       </c>
       <c r="F131" t="s">
-        <v>167</v>
-      </c>
-      <c r="G131" t="s">
-        <v>168</v>
-      </c>
+        <v>152</v>
+      </c>
+      <c r="G131" t="s"/>
       <c r="H131" t="s">
-        <v>171</v>
+        <v>155</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -4675,13 +4337,11 @@
         <v>10</v>
       </c>
       <c r="F132" t="s">
-        <v>19</v>
-      </c>
-      <c r="G132" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G132" t="s"/>
       <c r="H132" t="s">
-        <v>172</v>
+        <v>156</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -4701,13 +4361,11 @@
         <v>10</v>
       </c>
       <c r="F133" t="s">
-        <v>167</v>
-      </c>
-      <c r="G133" t="s">
-        <v>168</v>
-      </c>
+        <v>152</v>
+      </c>
+      <c r="G133" t="s"/>
       <c r="H133" t="s">
-        <v>173</v>
+        <v>157</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -4727,13 +4385,11 @@
         <v>10</v>
       </c>
       <c r="F134" t="s">
-        <v>19</v>
-      </c>
-      <c r="G134" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G134" t="s"/>
       <c r="H134" t="s">
-        <v>174</v>
+        <v>158</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -4753,13 +4409,11 @@
         <v>10</v>
       </c>
       <c r="F135" t="s">
-        <v>167</v>
-      </c>
-      <c r="G135" t="s">
-        <v>168</v>
-      </c>
+        <v>152</v>
+      </c>
+      <c r="G135" t="s"/>
       <c r="H135" t="s">
-        <v>175</v>
+        <v>159</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -4781,11 +4435,9 @@
       <c r="F136" t="s">
         <v>11</v>
       </c>
-      <c r="G136" t="s">
-        <v>12</v>
-      </c>
+      <c r="G136" t="s"/>
       <c r="H136" t="s">
-        <v>176</v>
+        <v>160</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -4805,13 +4457,11 @@
         <v>10</v>
       </c>
       <c r="F137" t="s">
-        <v>177</v>
-      </c>
-      <c r="G137" t="s">
-        <v>178</v>
-      </c>
+        <v>161</v>
+      </c>
+      <c r="G137" t="s"/>
       <c r="H137" t="s">
-        <v>179</v>
+        <v>162</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -4833,11 +4483,9 @@
       <c r="F138" t="s">
         <v>11</v>
       </c>
-      <c r="G138" t="s">
-        <v>12</v>
-      </c>
+      <c r="G138" t="s"/>
       <c r="H138" t="s">
-        <v>180</v>
+        <v>163</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4857,13 +4505,11 @@
         <v>10</v>
       </c>
       <c r="F139" t="s">
-        <v>19</v>
-      </c>
-      <c r="G139" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G139" t="s"/>
       <c r="H139" t="s">
-        <v>181</v>
+        <v>164</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4883,13 +4529,11 @@
         <v>10</v>
       </c>
       <c r="F140" t="s">
-        <v>177</v>
-      </c>
-      <c r="G140" t="s">
-        <v>178</v>
-      </c>
+        <v>161</v>
+      </c>
+      <c r="G140" t="s"/>
       <c r="H140" t="s">
-        <v>182</v>
+        <v>165</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4909,13 +4553,11 @@
         <v>10</v>
       </c>
       <c r="F141" t="s">
-        <v>19</v>
-      </c>
-      <c r="G141" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G141" t="s"/>
       <c r="H141" t="s">
-        <v>183</v>
+        <v>166</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4935,13 +4577,11 @@
         <v>10</v>
       </c>
       <c r="F142" t="s">
-        <v>177</v>
-      </c>
-      <c r="G142" t="s">
-        <v>178</v>
-      </c>
+        <v>161</v>
+      </c>
+      <c r="G142" t="s"/>
       <c r="H142" t="s">
-        <v>184</v>
+        <v>167</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4961,13 +4601,11 @@
         <v>10</v>
       </c>
       <c r="F143" t="s">
-        <v>19</v>
-      </c>
-      <c r="G143" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G143" t="s"/>
       <c r="H143" t="s">
-        <v>185</v>
+        <v>168</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4987,13 +4625,11 @@
         <v>10</v>
       </c>
       <c r="F144" t="s">
-        <v>177</v>
-      </c>
-      <c r="G144" t="s">
-        <v>178</v>
-      </c>
+        <v>161</v>
+      </c>
+      <c r="G144" t="s"/>
       <c r="H144" t="s">
-        <v>186</v>
+        <v>169</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -5013,13 +4649,11 @@
         <v>10</v>
       </c>
       <c r="F145" t="s">
-        <v>19</v>
-      </c>
-      <c r="G145" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G145" t="s"/>
       <c r="H145" t="s">
-        <v>187</v>
+        <v>170</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -5039,13 +4673,11 @@
         <v>10</v>
       </c>
       <c r="F146" t="s">
-        <v>177</v>
-      </c>
-      <c r="G146" t="s">
-        <v>178</v>
-      </c>
+        <v>161</v>
+      </c>
+      <c r="G146" t="s"/>
       <c r="H146" t="s">
-        <v>188</v>
+        <v>171</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -5067,11 +4699,9 @@
       <c r="F147" t="s">
         <v>11</v>
       </c>
-      <c r="G147" t="s">
-        <v>12</v>
-      </c>
+      <c r="G147" t="s"/>
       <c r="H147" t="s">
-        <v>189</v>
+        <v>172</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -5091,13 +4721,11 @@
         <v>10</v>
       </c>
       <c r="F148" t="s">
-        <v>190</v>
-      </c>
-      <c r="G148" t="s">
-        <v>191</v>
-      </c>
+        <v>173</v>
+      </c>
+      <c r="G148" t="s"/>
       <c r="H148" t="s">
-        <v>192</v>
+        <v>174</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -5117,13 +4745,11 @@
         <v>10</v>
       </c>
       <c r="F149" t="s">
-        <v>19</v>
-      </c>
-      <c r="G149" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G149" t="s"/>
       <c r="H149" t="s">
-        <v>193</v>
+        <v>175</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -5143,13 +4769,11 @@
         <v>10</v>
       </c>
       <c r="F150" t="s">
-        <v>190</v>
-      </c>
-      <c r="G150" t="s">
-        <v>191</v>
-      </c>
+        <v>173</v>
+      </c>
+      <c r="G150" t="s"/>
       <c r="H150" t="s">
-        <v>194</v>
+        <v>176</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -5169,13 +4793,11 @@
         <v>10</v>
       </c>
       <c r="F151" t="s">
-        <v>19</v>
-      </c>
-      <c r="G151" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G151" t="s"/>
       <c r="H151" t="s">
-        <v>195</v>
+        <v>177</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -5195,13 +4817,11 @@
         <v>10</v>
       </c>
       <c r="F152" t="s">
-        <v>190</v>
-      </c>
-      <c r="G152" t="s">
-        <v>191</v>
-      </c>
+        <v>173</v>
+      </c>
+      <c r="G152" t="s"/>
       <c r="H152" t="s">
-        <v>196</v>
+        <v>178</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -5223,11 +4843,9 @@
       <c r="F153" t="s">
         <v>11</v>
       </c>
-      <c r="G153" t="s">
-        <v>12</v>
-      </c>
+      <c r="G153" t="s"/>
       <c r="H153" t="s">
-        <v>197</v>
+        <v>179</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -5247,13 +4865,11 @@
         <v>10</v>
       </c>
       <c r="F154" t="s">
-        <v>198</v>
-      </c>
-      <c r="G154" t="s">
-        <v>199</v>
-      </c>
+        <v>180</v>
+      </c>
+      <c r="G154" t="s"/>
       <c r="H154" t="s">
-        <v>200</v>
+        <v>181</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -5273,13 +4889,11 @@
         <v>10</v>
       </c>
       <c r="F155" t="s">
-        <v>19</v>
-      </c>
-      <c r="G155" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G155" t="s"/>
       <c r="H155" t="s">
-        <v>201</v>
+        <v>182</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -5299,13 +4913,11 @@
         <v>10</v>
       </c>
       <c r="F156" t="s">
-        <v>198</v>
-      </c>
-      <c r="G156" t="s">
-        <v>199</v>
-      </c>
+        <v>180</v>
+      </c>
+      <c r="G156" t="s"/>
       <c r="H156" t="s">
-        <v>202</v>
+        <v>183</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -5325,13 +4937,11 @@
         <v>10</v>
       </c>
       <c r="F157" t="s">
-        <v>19</v>
-      </c>
-      <c r="G157" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G157" t="s"/>
       <c r="H157" t="s">
-        <v>203</v>
+        <v>184</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -5351,13 +4961,11 @@
         <v>10</v>
       </c>
       <c r="F158" t="s">
-        <v>198</v>
-      </c>
-      <c r="G158" t="s">
-        <v>199</v>
-      </c>
+        <v>180</v>
+      </c>
+      <c r="G158" t="s"/>
       <c r="H158" t="s">
-        <v>204</v>
+        <v>185</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -5377,13 +4985,11 @@
         <v>10</v>
       </c>
       <c r="F159" t="s">
-        <v>19</v>
-      </c>
-      <c r="G159" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G159" t="s"/>
       <c r="H159" t="s">
-        <v>205</v>
+        <v>186</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -5403,13 +5009,11 @@
         <v>10</v>
       </c>
       <c r="F160" t="s">
-        <v>198</v>
-      </c>
-      <c r="G160" t="s">
-        <v>199</v>
-      </c>
+        <v>180</v>
+      </c>
+      <c r="G160" t="s"/>
       <c r="H160" t="s">
-        <v>206</v>
+        <v>187</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -5431,11 +5035,9 @@
       <c r="F161" t="s">
         <v>11</v>
       </c>
-      <c r="G161" t="s">
-        <v>12</v>
-      </c>
+      <c r="G161" t="s"/>
       <c r="H161" t="s">
-        <v>207</v>
+        <v>188</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -5455,13 +5057,11 @@
         <v>10</v>
       </c>
       <c r="F162" t="s">
-        <v>19</v>
-      </c>
-      <c r="G162" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G162" t="s"/>
       <c r="H162" t="s">
-        <v>208</v>
+        <v>189</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -5481,13 +5081,11 @@
         <v>10</v>
       </c>
       <c r="F163" t="s">
-        <v>209</v>
-      </c>
-      <c r="G163" t="s">
-        <v>210</v>
-      </c>
+        <v>190</v>
+      </c>
+      <c r="G163" t="s"/>
       <c r="H163" t="s">
-        <v>211</v>
+        <v>191</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -5507,13 +5105,11 @@
         <v>10</v>
       </c>
       <c r="F164" t="s">
-        <v>19</v>
-      </c>
-      <c r="G164" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G164" t="s"/>
       <c r="H164" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -5533,13 +5129,11 @@
         <v>10</v>
       </c>
       <c r="F165" t="s">
-        <v>209</v>
-      </c>
-      <c r="G165" t="s">
-        <v>210</v>
-      </c>
+        <v>190</v>
+      </c>
+      <c r="G165" t="s"/>
       <c r="H165" t="s">
-        <v>212</v>
+        <v>192</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -5559,13 +5153,11 @@
         <v>10</v>
       </c>
       <c r="F166" t="s">
-        <v>19</v>
-      </c>
-      <c r="G166" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G166" t="s"/>
       <c r="H166" t="s">
-        <v>213</v>
+        <v>193</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -5585,13 +5177,11 @@
         <v>10</v>
       </c>
       <c r="F167" t="s">
-        <v>209</v>
-      </c>
-      <c r="G167" t="s">
-        <v>210</v>
-      </c>
+        <v>190</v>
+      </c>
+      <c r="G167" t="s"/>
       <c r="H167" t="s">
-        <v>214</v>
+        <v>194</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -5611,13 +5201,11 @@
         <v>10</v>
       </c>
       <c r="F168" t="s">
-        <v>19</v>
-      </c>
-      <c r="G168" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G168" t="s"/>
       <c r="H168" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -5637,13 +5225,11 @@
         <v>10</v>
       </c>
       <c r="F169" t="s">
-        <v>209</v>
-      </c>
-      <c r="G169" t="s">
-        <v>210</v>
-      </c>
+        <v>190</v>
+      </c>
+      <c r="G169" t="s"/>
       <c r="H169" t="s">
-        <v>215</v>
+        <v>195</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -5663,13 +5249,11 @@
         <v>10</v>
       </c>
       <c r="F170" t="s">
-        <v>19</v>
-      </c>
-      <c r="G170" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G170" t="s"/>
       <c r="H170" t="s">
-        <v>216</v>
+        <v>196</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -5689,13 +5273,11 @@
         <v>10</v>
       </c>
       <c r="F171" t="s">
-        <v>209</v>
-      </c>
-      <c r="G171" t="s">
-        <v>210</v>
-      </c>
+        <v>190</v>
+      </c>
+      <c r="G171" t="s"/>
       <c r="H171" t="s">
-        <v>217</v>
+        <v>197</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -5715,13 +5297,11 @@
         <v>10</v>
       </c>
       <c r="F172" t="s">
-        <v>19</v>
-      </c>
-      <c r="G172" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G172" t="s"/>
       <c r="H172" t="s">
-        <v>218</v>
+        <v>198</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -5741,13 +5321,11 @@
         <v>10</v>
       </c>
       <c r="F173" t="s">
-        <v>209</v>
-      </c>
-      <c r="G173" t="s">
-        <v>210</v>
-      </c>
+        <v>190</v>
+      </c>
+      <c r="G173" t="s"/>
       <c r="H173" t="s">
-        <v>219</v>
+        <v>199</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -5767,13 +5345,11 @@
         <v>10</v>
       </c>
       <c r="F174" t="s">
-        <v>19</v>
-      </c>
-      <c r="G174" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G174" t="s"/>
       <c r="H174" t="s">
-        <v>220</v>
+        <v>200</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -5793,13 +5369,11 @@
         <v>10</v>
       </c>
       <c r="F175" t="s">
-        <v>209</v>
-      </c>
-      <c r="G175" t="s">
-        <v>210</v>
-      </c>
+        <v>190</v>
+      </c>
+      <c r="G175" t="s"/>
       <c r="H175" t="s">
-        <v>221</v>
+        <v>201</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -5819,13 +5393,11 @@
         <v>10</v>
       </c>
       <c r="F176" t="s">
-        <v>19</v>
-      </c>
-      <c r="G176" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G176" t="s"/>
       <c r="H176" t="s">
-        <v>222</v>
+        <v>202</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -5845,13 +5417,11 @@
         <v>10</v>
       </c>
       <c r="F177" t="s">
-        <v>209</v>
-      </c>
-      <c r="G177" t="s">
-        <v>210</v>
-      </c>
+        <v>190</v>
+      </c>
+      <c r="G177" t="s"/>
       <c r="H177" t="s">
-        <v>223</v>
+        <v>203</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -5871,13 +5441,11 @@
         <v>10</v>
       </c>
       <c r="F178" t="s">
-        <v>19</v>
-      </c>
-      <c r="G178" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G178" t="s"/>
       <c r="H178" t="s">
-        <v>224</v>
+        <v>204</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5897,13 +5465,11 @@
         <v>10</v>
       </c>
       <c r="F179" t="s">
-        <v>209</v>
-      </c>
-      <c r="G179" t="s">
-        <v>210</v>
-      </c>
+        <v>190</v>
+      </c>
+      <c r="G179" t="s"/>
       <c r="H179" t="s">
-        <v>225</v>
+        <v>205</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -5923,13 +5489,11 @@
         <v>10</v>
       </c>
       <c r="F180" t="s">
-        <v>19</v>
-      </c>
-      <c r="G180" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G180" t="s"/>
       <c r="H180" t="s">
-        <v>226</v>
+        <v>206</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -5949,13 +5513,11 @@
         <v>10</v>
       </c>
       <c r="F181" t="s">
-        <v>209</v>
-      </c>
-      <c r="G181" t="s">
-        <v>210</v>
-      </c>
+        <v>190</v>
+      </c>
+      <c r="G181" t="s"/>
       <c r="H181" t="s">
-        <v>227</v>
+        <v>207</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -5975,13 +5537,11 @@
         <v>10</v>
       </c>
       <c r="F182" t="s">
-        <v>19</v>
-      </c>
-      <c r="G182" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G182" t="s"/>
       <c r="H182" t="s">
-        <v>228</v>
+        <v>208</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -6001,13 +5561,11 @@
         <v>10</v>
       </c>
       <c r="F183" t="s">
+        <v>190</v>
+      </c>
+      <c r="G183" t="s"/>
+      <c r="H183" t="s">
         <v>209</v>
-      </c>
-      <c r="G183" t="s">
-        <v>210</v>
-      </c>
-      <c r="H183" t="s">
-        <v>229</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -6027,13 +5585,11 @@
         <v>10</v>
       </c>
       <c r="F184" t="s">
-        <v>19</v>
-      </c>
-      <c r="G184" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G184" t="s"/>
       <c r="H184" t="s">
-        <v>230</v>
+        <v>210</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -6053,13 +5609,11 @@
         <v>10</v>
       </c>
       <c r="F185" t="s">
-        <v>209</v>
-      </c>
-      <c r="G185" t="s">
-        <v>210</v>
-      </c>
+        <v>190</v>
+      </c>
+      <c r="G185" t="s"/>
       <c r="H185" t="s">
-        <v>231</v>
+        <v>211</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -6079,13 +5633,11 @@
         <v>10</v>
       </c>
       <c r="F186" t="s">
-        <v>19</v>
-      </c>
-      <c r="G186" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G186" t="s"/>
       <c r="H186" t="s">
-        <v>232</v>
+        <v>212</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -6107,11 +5659,9 @@
       <c r="F187" t="s">
         <v>11</v>
       </c>
-      <c r="G187" t="s">
-        <v>12</v>
-      </c>
+      <c r="G187" t="s"/>
       <c r="H187" t="s">
-        <v>233</v>
+        <v>213</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -6131,13 +5681,11 @@
         <v>10</v>
       </c>
       <c r="F188" t="s">
-        <v>234</v>
-      </c>
-      <c r="G188" t="s">
-        <v>235</v>
-      </c>
+        <v>214</v>
+      </c>
+      <c r="G188" t="s"/>
       <c r="H188" t="s">
-        <v>236</v>
+        <v>215</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -6157,13 +5705,11 @@
         <v>10</v>
       </c>
       <c r="F189" t="s">
-        <v>19</v>
-      </c>
-      <c r="G189" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G189" t="s"/>
       <c r="H189" t="s">
-        <v>237</v>
+        <v>216</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -6183,13 +5729,11 @@
         <v>10</v>
       </c>
       <c r="F190" t="s">
-        <v>234</v>
-      </c>
-      <c r="G190" t="s">
-        <v>235</v>
-      </c>
+        <v>214</v>
+      </c>
+      <c r="G190" t="s"/>
       <c r="H190" t="s">
-        <v>238</v>
+        <v>217</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -6209,13 +5753,11 @@
         <v>10</v>
       </c>
       <c r="F191" t="s">
-        <v>19</v>
-      </c>
-      <c r="G191" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G191" t="s"/>
       <c r="H191" t="s">
-        <v>239</v>
+        <v>218</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -6235,13 +5777,11 @@
         <v>10</v>
       </c>
       <c r="F192" t="s">
-        <v>234</v>
-      </c>
-      <c r="G192" t="s">
-        <v>235</v>
-      </c>
+        <v>214</v>
+      </c>
+      <c r="G192" t="s"/>
       <c r="H192" t="s">
-        <v>240</v>
+        <v>219</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -6263,11 +5803,9 @@
       <c r="F193" t="s">
         <v>11</v>
       </c>
-      <c r="G193" t="s">
-        <v>12</v>
-      </c>
+      <c r="G193" t="s"/>
       <c r="H193" t="s">
-        <v>241</v>
+        <v>220</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -6287,13 +5825,11 @@
         <v>10</v>
       </c>
       <c r="F194" t="s">
-        <v>242</v>
-      </c>
-      <c r="G194" t="s">
-        <v>243</v>
-      </c>
+        <v>221</v>
+      </c>
+      <c r="G194" t="s"/>
       <c r="H194" t="s">
-        <v>244</v>
+        <v>222</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -6313,13 +5849,11 @@
         <v>10</v>
       </c>
       <c r="F195" t="s">
-        <v>19</v>
-      </c>
-      <c r="G195" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G195" t="s"/>
       <c r="H195" t="s">
-        <v>245</v>
+        <v>223</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -6339,13 +5873,11 @@
         <v>10</v>
       </c>
       <c r="F196" t="s">
-        <v>242</v>
-      </c>
-      <c r="G196" t="s">
-        <v>243</v>
-      </c>
+        <v>221</v>
+      </c>
+      <c r="G196" t="s"/>
       <c r="H196" t="s">
-        <v>246</v>
+        <v>224</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -6365,13 +5897,11 @@
         <v>10</v>
       </c>
       <c r="F197" t="s">
-        <v>19</v>
-      </c>
-      <c r="G197" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G197" t="s"/>
       <c r="H197" t="s">
-        <v>247</v>
+        <v>225</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -6391,13 +5921,11 @@
         <v>10</v>
       </c>
       <c r="F198" t="s">
-        <v>242</v>
-      </c>
-      <c r="G198" t="s">
-        <v>243</v>
-      </c>
+        <v>221</v>
+      </c>
+      <c r="G198" t="s"/>
       <c r="H198" t="s">
-        <v>248</v>
+        <v>226</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -6417,13 +5945,11 @@
         <v>10</v>
       </c>
       <c r="F199" t="s">
-        <v>19</v>
-      </c>
-      <c r="G199" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G199" t="s"/>
       <c r="H199" t="s">
-        <v>249</v>
+        <v>227</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -6443,13 +5969,11 @@
         <v>10</v>
       </c>
       <c r="F200" t="s">
-        <v>242</v>
-      </c>
-      <c r="G200" t="s">
-        <v>243</v>
-      </c>
+        <v>221</v>
+      </c>
+      <c r="G200" t="s"/>
       <c r="H200" t="s">
-        <v>250</v>
+        <v>228</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -6471,11 +5995,9 @@
       <c r="F201" t="s">
         <v>11</v>
       </c>
-      <c r="G201" t="s">
-        <v>12</v>
-      </c>
+      <c r="G201" t="s"/>
       <c r="H201" t="s">
-        <v>251</v>
+        <v>229</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -6495,13 +6017,11 @@
         <v>10</v>
       </c>
       <c r="F202" t="s">
-        <v>252</v>
-      </c>
-      <c r="G202" t="s">
-        <v>253</v>
-      </c>
+        <v>230</v>
+      </c>
+      <c r="G202" t="s"/>
       <c r="H202" t="s">
-        <v>254</v>
+        <v>231</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -6521,13 +6041,11 @@
         <v>10</v>
       </c>
       <c r="F203" t="s">
-        <v>19</v>
-      </c>
-      <c r="G203" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G203" t="s"/>
       <c r="H203" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -6547,13 +6065,11 @@
         <v>10</v>
       </c>
       <c r="F204" t="s">
-        <v>252</v>
-      </c>
-      <c r="G204" t="s">
-        <v>253</v>
-      </c>
+        <v>230</v>
+      </c>
+      <c r="G204" t="s"/>
       <c r="H204" t="s">
-        <v>255</v>
+        <v>232</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -6573,13 +6089,11 @@
         <v>10</v>
       </c>
       <c r="F205" t="s">
-        <v>19</v>
-      </c>
-      <c r="G205" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G205" t="s"/>
       <c r="H205" t="s">
-        <v>256</v>
+        <v>233</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -6599,13 +6113,11 @@
         <v>10</v>
       </c>
       <c r="F206" t="s">
-        <v>252</v>
-      </c>
-      <c r="G206" t="s">
-        <v>253</v>
-      </c>
+        <v>230</v>
+      </c>
+      <c r="G206" t="s"/>
       <c r="H206" t="s">
-        <v>257</v>
+        <v>234</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -6625,13 +6137,11 @@
         <v>10</v>
       </c>
       <c r="F207" t="s">
-        <v>19</v>
-      </c>
-      <c r="G207" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G207" t="s"/>
       <c r="H207" t="s">
-        <v>258</v>
+        <v>235</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -6651,13 +6161,11 @@
         <v>10</v>
       </c>
       <c r="F208" t="s">
-        <v>252</v>
-      </c>
-      <c r="G208" t="s">
-        <v>253</v>
-      </c>
+        <v>230</v>
+      </c>
+      <c r="G208" t="s"/>
       <c r="H208" t="s">
-        <v>259</v>
+        <v>236</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -6677,13 +6185,11 @@
         <v>10</v>
       </c>
       <c r="F209" t="s">
-        <v>19</v>
-      </c>
-      <c r="G209" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G209" t="s"/>
       <c r="H209" t="s">
-        <v>260</v>
+        <v>237</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -6703,13 +6209,11 @@
         <v>10</v>
       </c>
       <c r="F210" t="s">
-        <v>252</v>
-      </c>
-      <c r="G210" t="s">
-        <v>253</v>
-      </c>
+        <v>230</v>
+      </c>
+      <c r="G210" t="s"/>
       <c r="H210" t="s">
-        <v>261</v>
+        <v>238</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -6731,11 +6235,9 @@
       <c r="F211" t="s">
         <v>11</v>
       </c>
-      <c r="G211" t="s">
-        <v>12</v>
-      </c>
+      <c r="G211" t="s"/>
       <c r="H211" t="s">
-        <v>262</v>
+        <v>239</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -6755,13 +6257,11 @@
         <v>10</v>
       </c>
       <c r="F212" t="s">
-        <v>263</v>
-      </c>
-      <c r="G212" t="s">
-        <v>264</v>
-      </c>
+        <v>240</v>
+      </c>
+      <c r="G212" t="s"/>
       <c r="H212" t="s">
-        <v>265</v>
+        <v>241</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -6781,13 +6281,11 @@
         <v>10</v>
       </c>
       <c r="F213" t="s">
-        <v>19</v>
-      </c>
-      <c r="G213" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G213" t="s"/>
       <c r="H213" t="s">
-        <v>266</v>
+        <v>242</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -6807,13 +6305,11 @@
         <v>10</v>
       </c>
       <c r="F214" t="s">
-        <v>263</v>
-      </c>
-      <c r="G214" t="s">
-        <v>264</v>
-      </c>
+        <v>240</v>
+      </c>
+      <c r="G214" t="s"/>
       <c r="H214" t="s">
-        <v>267</v>
+        <v>243</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -6833,13 +6329,11 @@
         <v>10</v>
       </c>
       <c r="F215" t="s">
-        <v>19</v>
-      </c>
-      <c r="G215" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G215" t="s"/>
       <c r="H215" t="s">
-        <v>268</v>
+        <v>244</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -6859,13 +6353,11 @@
         <v>10</v>
       </c>
       <c r="F216" t="s">
-        <v>263</v>
-      </c>
-      <c r="G216" t="s">
-        <v>264</v>
-      </c>
+        <v>240</v>
+      </c>
+      <c r="G216" t="s"/>
       <c r="H216" t="s">
-        <v>269</v>
+        <v>245</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -6885,13 +6377,11 @@
         <v>10</v>
       </c>
       <c r="F217" t="s">
-        <v>19</v>
-      </c>
-      <c r="G217" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G217" t="s"/>
       <c r="H217" t="s">
-        <v>270</v>
+        <v>246</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -6911,13 +6401,11 @@
         <v>10</v>
       </c>
       <c r="F218" t="s">
-        <v>263</v>
-      </c>
-      <c r="G218" t="s">
-        <v>264</v>
-      </c>
+        <v>240</v>
+      </c>
+      <c r="G218" t="s"/>
       <c r="H218" t="s">
-        <v>271</v>
+        <v>247</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -6937,13 +6425,11 @@
         <v>10</v>
       </c>
       <c r="F219" t="s">
-        <v>19</v>
-      </c>
-      <c r="G219" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G219" t="s"/>
       <c r="H219" t="s">
-        <v>272</v>
+        <v>248</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -6963,13 +6449,11 @@
         <v>10</v>
       </c>
       <c r="F220" t="s">
-        <v>263</v>
-      </c>
-      <c r="G220" t="s">
-        <v>264</v>
-      </c>
+        <v>240</v>
+      </c>
+      <c r="G220" t="s"/>
       <c r="H220" t="s">
-        <v>273</v>
+        <v>249</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -6989,13 +6473,11 @@
         <v>10</v>
       </c>
       <c r="F221" t="s">
-        <v>19</v>
-      </c>
-      <c r="G221" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G221" t="s"/>
       <c r="H221" t="s">
-        <v>274</v>
+        <v>250</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -7015,13 +6497,11 @@
         <v>10</v>
       </c>
       <c r="F222" t="s">
-        <v>263</v>
-      </c>
-      <c r="G222" t="s">
-        <v>264</v>
-      </c>
+        <v>240</v>
+      </c>
+      <c r="G222" t="s"/>
       <c r="H222" t="s">
-        <v>275</v>
+        <v>251</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -7041,13 +6521,11 @@
         <v>10</v>
       </c>
       <c r="F223" t="s">
-        <v>19</v>
-      </c>
-      <c r="G223" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G223" t="s"/>
       <c r="H223" t="s">
-        <v>276</v>
+        <v>252</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -7067,13 +6545,11 @@
         <v>10</v>
       </c>
       <c r="F224" t="s">
-        <v>263</v>
-      </c>
-      <c r="G224" t="s">
-        <v>264</v>
-      </c>
+        <v>240</v>
+      </c>
+      <c r="G224" t="s"/>
       <c r="H224" t="s">
-        <v>277</v>
+        <v>253</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -7095,11 +6571,9 @@
       <c r="F225" t="s">
         <v>11</v>
       </c>
-      <c r="G225" t="s">
-        <v>12</v>
-      </c>
+      <c r="G225" t="s"/>
       <c r="H225" t="s">
-        <v>278</v>
+        <v>254</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -7119,13 +6593,11 @@
         <v>10</v>
       </c>
       <c r="F226" t="s">
-        <v>279</v>
-      </c>
-      <c r="G226" t="s">
-        <v>280</v>
-      </c>
+        <v>255</v>
+      </c>
+      <c r="G226" t="s"/>
       <c r="H226" t="s">
-        <v>281</v>
+        <v>256</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -7145,13 +6617,11 @@
         <v>10</v>
       </c>
       <c r="F227" t="s">
-        <v>19</v>
-      </c>
-      <c r="G227" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G227" t="s"/>
       <c r="H227" t="s">
-        <v>282</v>
+        <v>257</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -7171,13 +6641,11 @@
         <v>10</v>
       </c>
       <c r="F228" t="s">
-        <v>279</v>
-      </c>
-      <c r="G228" t="s">
-        <v>280</v>
-      </c>
+        <v>255</v>
+      </c>
+      <c r="G228" t="s"/>
       <c r="H228" t="s">
-        <v>283</v>
+        <v>258</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -7197,13 +6665,11 @@
         <v>10</v>
       </c>
       <c r="F229" t="s">
-        <v>19</v>
-      </c>
-      <c r="G229" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G229" t="s"/>
       <c r="H229" t="s">
-        <v>284</v>
+        <v>259</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -7223,13 +6689,11 @@
         <v>10</v>
       </c>
       <c r="F230" t="s">
-        <v>279</v>
-      </c>
-      <c r="G230" t="s">
-        <v>280</v>
-      </c>
+        <v>255</v>
+      </c>
+      <c r="G230" t="s"/>
       <c r="H230" t="s">
-        <v>285</v>
+        <v>260</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -7251,11 +6715,9 @@
       <c r="F231" t="s">
         <v>11</v>
       </c>
-      <c r="G231" t="s">
-        <v>12</v>
-      </c>
+      <c r="G231" t="s"/>
       <c r="H231" t="s">
-        <v>286</v>
+        <v>261</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -7275,13 +6737,11 @@
         <v>10</v>
       </c>
       <c r="F232" t="s">
-        <v>287</v>
-      </c>
-      <c r="G232" t="s">
-        <v>288</v>
-      </c>
+        <v>262</v>
+      </c>
+      <c r="G232" t="s"/>
       <c r="H232" t="s">
-        <v>289</v>
+        <v>263</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -7301,13 +6761,11 @@
         <v>10</v>
       </c>
       <c r="F233" t="s">
-        <v>19</v>
-      </c>
-      <c r="G233" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G233" t="s"/>
       <c r="H233" t="s">
-        <v>290</v>
+        <v>264</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -7327,13 +6785,11 @@
         <v>10</v>
       </c>
       <c r="F234" t="s">
-        <v>287</v>
-      </c>
-      <c r="G234" t="s">
-        <v>288</v>
-      </c>
+        <v>262</v>
+      </c>
+      <c r="G234" t="s"/>
       <c r="H234" t="s">
-        <v>291</v>
+        <v>265</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -7355,11 +6811,9 @@
       <c r="F235" t="s">
         <v>11</v>
       </c>
-      <c r="G235" t="s">
-        <v>12</v>
-      </c>
+      <c r="G235" t="s"/>
       <c r="H235" t="s">
-        <v>292</v>
+        <v>266</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -7379,13 +6833,11 @@
         <v>10</v>
       </c>
       <c r="F236" t="s">
-        <v>14</v>
-      </c>
-      <c r="G236" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G236" t="s"/>
       <c r="H236" t="s">
-        <v>293</v>
+        <v>267</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -7407,11 +6859,9 @@
       <c r="F237" t="s">
         <v>11</v>
       </c>
-      <c r="G237" t="s">
-        <v>12</v>
-      </c>
+      <c r="G237" t="s"/>
       <c r="H237" t="s">
-        <v>294</v>
+        <v>268</v>
       </c>
     </row>
   </sheetData>

--- a/500all/speech_level/speeches_CHRG-114hhrg99443.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg99443.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="269">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="319">
   <si>
     <t>committee_name</t>
   </si>
@@ -31,7 +31,10 @@
     <t>govtrack</t>
   </si>
   <si>
-    <t>speaker</t>
+    <t>speaker_last</t>
+  </si>
+  <si>
+    <t>speaker_first</t>
   </si>
   <si>
     <t>speech</t>
@@ -52,12 +55,24 @@
     <t>400224</t>
   </si>
   <si>
+    <t>Kline</t>
+  </si>
+  <si>
+    <t>John</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Chairman Kline. A quorum being present, the Committee on Education and the Workforce will come to order. Good morning, everyone, and welcome, Secretary Burwell. We appreciate you joining us to discuss the policies and priorities of the Department of Health and Human Services.    From welfare and health care to early childhood development and support services for older Americans, the policies your department oversees affect the lives of millions of Americans.    Conversations like this one are vitally important as we work to ensure that the Department is acting in the best interest of the taxpayers and those in need.    As we examine what programs and policies are working and which ones are in need of improvement, I hope there are a number of areas where we can find common ground.    Of course, there are also areas where we will ultimately agree to disagree, and perhaps the most prominent example is the President's health care law. As has been the case for nearly six years, this flawed law continues to hurt working families, students, and small businesses. It is still depressing hours and wages for low-income workers, still making it harder for individuals to receive the care they need, and still driving up health care costs.    One Emory University professor recently wrote that his family's health insurance premium is now their biggest expense, even greater than their mortgage. Before the health care law went into effect, this man was able to cover his entire family of four for less than $13,000. Now, the cost of insuring just him and his wife is nearly $28,000. Twice the cost to cover half as many people. In fact, paying more for less is becoming a hallmark of the health care law.    Over the years, Republicans have put forward a number of health care reform ideas, ones that would expand access to affordable care and lead to a more patient-centered health care system. We will continue to do so, because we firmly believe the President's health care law is fatally flawed and unsustainable, and more importantly, because we believe the American people deserve better.    Again, I suspect we will have to agree to disagree, but as I mentioned, there are areas where I am hopeful we can find common ground.    Head Start, for example, currently supports nearly 1 million children at a cost of more than $9 billion annually. It is an important program for many low-income families. However, concerns persist that it is not providing children with long-term results.    We both agree, I am sure, changes need to be made, but so far we have different ideas of what reform should look like. The Department is in the process of fundamentally transforming Head Start through regulations that will have serious consequences for the vulnerable families this important program serves.    We, on the other hand, have outlined a number of key principles that we believe will strengthen the program based on feedback we collected from parents and providers.    I look forward to discussing where we might be able to find middle ground and work together so that these children can have the solid foundation they need to succeed in school and in life.    I am also hopeful that we can work together to ensure changes to the Preschool Development Grants program are implemented as Congress intended. The Every Student Succeeds Act reformed the program to help States streamline and strengthen early learning efforts.    To accomplish this goal, Congress moved the program from the Department of Education to HHS, which already oversees the bulk of early learning programs. As you take on this responsibility, Madam Secretary, please know we intend to stay engaged with the Department to ensure a successful transition.    Finally, the Department is also responsible for helping States to prevent and respond to child abuse and neglect, specifically those outlined in the Child Abuse Prevention and Treatment Act or CAPTA. As I am sure you are aware, this law provides States with resources to improve their child protective service systems, if they make a number of assurances concerning their child welfare policies.    It has come to our attention that some States are making these assurances without putting the necessary policies in place. Yet, not a single State is being denied Federal funds.    A Reuters' investigation recently revealed the shocking and deadly consequences of this neglect and cast serious doubts as to whether basic requirements of the law are being met and enforced.    In light of this tragic report, we wrote to you to better understand the Department's process in reviewing and approving State plans under CAPTA, and I would like to continue that discussion here today.    It is clear that the current system is failing some of our country's most vulnerable children and families, and something has to change.    As you can see, we have quite a bit to cover today. These and other issues are vitally important to the men and women we serve, and we have a responsibility to ensure that we are serving those individuals in the best way possible.    With that, I will now recognize the ranking member, Mr. Scott, for his opening remarks.</t>
   </si>
   <si>
     <t>400364</t>
   </si>
   <si>
+    <t>Scott</t>
+  </si>
+  <si>
+    <t>Robert</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Scott. Thank you, Chairman Kline, and welcome, Secretary Burwell. Thank you for being with us. We look forward to your testimony.    Today, we will hear about the President's Fiscal Year 2017 Health and Human Services' budget proposal and the Department's policy priorities. Once again, I commend the Secretary for her work to ensure that the budget reflects the priorities of this committee, protecting access to health care for all Americans, giving all children the chance to succeed, and making sure that we meet the needs of families and children affected by public health threats when they occur.    In many areas, I believe we have made great progress on these priorities. In the not so distant past, many families were left without affordable health care options and many more could not have access to basic consumer protections in their insurance.    Double digit increases in prices were routine every year. Women routinely charged more for insurance than men. If you lost you lost your job and wanted to start a new business and you had a preexisting condition, you were essentially out of luck. If you were a senior and fell into the Part D doughnut hole, you did not get any help, and when we consider the Affordable Care Act, thousands of people every day were losing their insurance.    Passage of the Affordable Care Act has given millions of Americans access to health care coverage, many for the first time in their lives. The ACA has helped slow the growth in health care costs, it is closing the doughnut hole for seniors, and has encouraged and improved access to mental health services and preventive care. Instead of thousands losing their insurance, millions more have gained insurance.    So, I thank Secretary Burwell for her efforts and her Department's hard work in implementing the Affordable Care Act. I recognize the challenge your department faces in implementing this law with limited resources and unlimited attacks.    Despite these challenges, the ACA has expanded coverage to millions and given millions more robust consumer protections in their health coverage. The ACA has provided a historic foundation for which we are going to accomplish our ultimate goal, making sure that all Americans have the opportunity to succeed.    I do not believe that we have reached the finish line yet, but I look forward to working with the Department and my congressional colleagues to make meaningful improvements as we strengthen the law.    I also pleased that the President's budget has placed a priority on giving all children a chance to succeed by ensuring robust funding to increase both access to and quality of early learning and child care programs. We must invest in high quality early learning programs because all children deserve to enter kindergarten with the building blocks to success.    Decades of research have shown that properly nurturing children in the first five years of life is essential to supporting enhanced brain development, cognitive functioning, and emotional and physical health.    All too often, low-income working families lack access to high quality affordable child care in their early childhood education, and these children tend to fall behind. Beyond the achievement gap, children that do not participate in high quality early learning programs are more likely to have weaker educational outcomes, lower earnings, increased involvement in the criminal justice system, and affordable high quality child care is, therefore, not just critical for children, it is also critical for working parents.    Child care is a two generation program. Parents of young children need child care to work and go to school, and lack of stable child care is associated with job interruptions and job loss for working parents. Child care ought to be a national priority for America's children and working families.    Just two programs survived the bulk of the Federal role in early education, the Head Start program and the Child Care and Development Block Grant. Unfortunately, because of limited Federal funding, too few children have appropriate access. This unmet need continues to grow. Only four of 10 eligible children have access to a Head Start program, and fewer than one out of six eligible children receive Federal child care assistance.    We have decades of evidence that investing in programs like Head Start and the Child Care and Development Block Grant works. This is the time to invest in these programs and ensure that we are giving all children the chance to succeed.    I also want to commend the Secretary and her department for their efforts in response to some of the most troubling health crises of our time, the Ebola outbreak, Zika and opioid crisis. The Department has been in the forefront of responding and keeping Americans safe and healthy, particularly when you talk about budgeting, some do not always see the value of investing in prevention or readiness activities so that we are equipped to deal with a public health crisis.    Like many Federal programs, in fact, like health care insurance itself, you often do not miss it until it is gone. It is important now more than ever that we invest in our Nation's current and future health and well-being. The President's proposal does this with the Cancer Moonshot and other long-term investments.    Lastly, I would like to thank the Department and the Secretary for their efforts to respond to the catastrophic situation in Flint, Michigan. The research is clear on the impact of exposure to lead on young children, the adverse effects of lead exposure range from decreased academic attainment to increased needs for special education, and a higher likelihood of behavioral challenges. These impacts can result in a significant decline in earnings, loss of tax revenue, additional burdens to the criminal justice system, and increased stress on our hospital systems.    The opportunity for a strong start to a successful life will be stunted for Flint's children if they are not given the necessary resources, including early intervention and access to high quality early learning programs, such as Head Start, to help them overcome the lifelong effects of exposure to lead.    We need to come up with the money to make that possible, and make no mistake, we should not expect to fix this crisis easy or on the cheap. In fact, it will cost approximately $1.2 billion to provide long-term comprehensive services to all Flint children exposed to lead just in the areas that cover programs under this committee's jurisdiction.    Furthermore, it is imperative that this committee and the Department continue to examine how Federal programs can be responsive and ensure that every Flint youth is receiving the necessary services to mitigate the effects of lead exposure.    The Department's response so far has been commendable. Additional funding for health centers in Flint, Medicaid expansion to provide vital health coverage and important health screenings, $3.6 million onetime emergency funding to help Head Start grantees expand early childhood education, health care and nutritional services.    These are examples of targeted Federal solutions, but this committee and this Congress has to do more. The impact of lead exposure on young children is long-lasting, and a response must have a long-term approach.    We must use all of the tools available to us, starting with prenatal care and screenings of pregnant moms, early literacy resources, early interventions to identify special education needs, Title I and Title II funding from the Elementary and Secondary Education Act, after school programs, at-risk youth prevention programs, even investments in college access efforts.    I know with all the Department's leadership, we can continue to respond to this crisis, and I am hopeful that together we can put forward real solutions and help mitigate the damage from the water crisis in Flint, and make sure young children there get back on track to a prosperous fulfilling life.    So, thank you, Mr. Chairman, and thank you, Secretary Burwell. I look forward to your testimony.</t>
   </si>
   <si>
@@ -70,6 +85,9 @@
     <t>N/A</t>
   </si>
   <si>
+    <t>Burwell</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Secretary Burwell. Chairman Kline, Ranking Member Scott, and members of the Committee, thank you for the opportunity to discuss the President's budget for the Department of Health and Human Services today.    As many of you know, I believe all of us share common interests and that we can find common ground. In recent legislative sessions, this committee took important steps to strengthen our workforce and open the doors to new early learning opportunities. Thank you for your leadership in passing the Workforce Innovation and Opportunity Act and the Child Care and Development Block Grant Act of 2014. We look forward to working with you on both of these in the year ahead.    The budget before you today is the final budget for this administration and my final budget as Secretary. It makes critical investments to protect the health and well-being of the American people. It helps ensure that we can do our job to keep people safe and healthy, accelerates our progress in scientific research and medical innovation, expands and strengthens our health care system, and helps us continue to be responsible stewards of the taxpayers' dollars.    For HHS, the budget proposal is $82.8 billion in discretionary budget authority. Our request recognizes the constraints in our budget environment and includes targeted reforms to Medicare, Medicaid, and other programs. Over the next 10 years, these reforms to Medicare would result in net savings of $419 billion.    Let me start with an issue we have been working on here at home and abroad, and as we work aggressively to combat the spread of Zika. The administration is requesting $1.9 billion in emergency funding, including $1.5 billion for the Department of Health and Human Services. We appreciate Congress' consideration of this important request. This funding will help us implement the essential strategies to prevent, detect, and respond to this virus, with a focus on reducing the risks to pregnant woman.    I know the rise of opioid misuse, abuse, and overdose has affected many of your constituents. Every day in America, 78 people die of opioid related deaths, and that is why this budget proposes significant funding, over $1 billion, to combat the opioid epidemic.    Research shows that early learning programs, as the Chairman mentioned, can set a course for a child's success throughout their life. That is why over the course of this administration, together with congressional support, we have more than doubled access to early Head Start services for infants and toddlers.    Our budget proposes a total of $9.6 billion to the Head Start program and an investment in child care services that would allow us to serve over 2.6 million children. Beyond this budget, for the children in Flint, Michigan, we have already announced $3.6 million, as Mr. Scott mentioned, in one-time emergency for Head Start money.    With these funds, they can expand early childhood education, behavioral health services, and other vital nutrition services. Today, too many of our Nation's children and adults with diagnosable mental health disorders do not receive the treatment they need. So, this budget proposes $780 million in new mandatory and discretionary resources over the next two years to close that gap.    While we invest in the safety and health of Americans today, we must also relentlessly push forward on the frontiers of science and medicine. This budget invests in the Vice President's cancer initiative. Today, we are entering a new era in medical science. With proposed increases of $107 million for the precision medicine initiative and $45 million for the administration's BRAIN initiative; we can continue this progress.    In order for Americans to benefit from our recent breakthroughs in medical science, we need to ensure that all Americans have access to quality affordable health care. The Affordable Care Act has helped us make historic progress. Today, more than 90 percent of Americans have health coverage--the first time in our Nation's history that has been true.    The budget seeks to build on that progress by improving the quality of care that patients receive and spending dollars more wisely. It proposes investments to improve the access to care for underserved groups across the United States, including many in rural communities, with $5.1 billion in health center funding and nearly $14 billion over the next decade for our Nation's health care workforce.    By advancing and improving the way we pay doctors, coordinate care, and use health data and information, we build a better, smarter system.    Finally, I want to thank the employees of HHS. In the past year, they fought Ebola in West Africa, helped millions gain health coverage, and have done the quiet day-to-day work that makes our Nation healthier and stronger. I am honored to be a part of the team, and as members of this committee know, I am personally committed to working closely with you and your staff to find common ground to deliver for the American people.    Thank you.</t>
   </si>
   <si>
@@ -142,6 +160,12 @@
     <t>412310</t>
   </si>
   <si>
+    <t>Roe</t>
+  </si>
+  <si>
+    <t>David</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Roe. Thank you, Mr. Chairman. Thank you, Madam Secretary, for your pushing the rule for the end of life counseling. That is a huge thing. I have heard a lot of positives about that. I want to thank you for that.    Just a couple of quick questions.    Stop-loss insurance regulation, as you know, in the private sector, a majority of those plans are basically self-insured plans, like we had in the City of Johnson City when I was the mayor. We used stop-loss insurance to protect our losses if they went above what we calculated they might be.    Would you commit to the Committee not to regulate stop-loss insurance as health insurance because it is clearly not, in the future as Secretary of HHS?</t>
   </si>
   <si>
@@ -163,6 +187,12 @@
     <t>400179</t>
   </si>
   <si>
+    <t>Hinojosa</t>
+  </si>
+  <si>
+    <t>Rubén</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Hinojosa. Thank you, Chairman Kline and Ranking Member Scott. I support President Obama's Fiscal Year 2017 budget for the Department of Health and Human Services because the administration's priorities for HHS support the well-being of all Americans, and are closely aligned with the needs of my congressional district.    Madam Secretary, it is a pleasure to have you testify before this committee, and I want to ask the chairman as a member of this committee for unanimous consent that the three pages of my opening remarks be included in today's report.</t>
   </si>
   <si>
@@ -205,6 +235,12 @@
     <t>412601</t>
   </si>
   <si>
+    <t>Byrne</t>
+  </si>
+  <si>
+    <t>Bradley</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Byrne. Thank you. Madam Secretary, I want to talk to you about the transitional reinsurance program and some current concerns that I and others have about the legality of the way these funds have been used.    We are going to put on the screen the actual text of the law, that you see there now. I also have here the same legal memorandum that my colleague, Chairman Pitts, showed you two weeks ago when you testified before the Energy and Commerce Committee.    The nonpartisan Congressional Research Service, which put out this memo, analyzed this issue and stated, and I am going to quote them, ``Insofar as CMS' interpretation allows the entire contribution of an issue in any given year to be used only for reinsurance payments such that no part of it is allocated for the U.S. Treasury contribution, and that would appear to be a conflict with a plain reading of Section 1341(b)4,'' that is the language up there.    ``Because the statute unambiguously states that each issuer's contribution contain an amount that reflects its proportionate share of the U.S. Treasury contribution, and that these amounts should be deposited in the General Fund of the U.S. Treasury, a contrary agency interpretation would not be entitled to deference under the Chevron decision.''    We have that second piece of language up there now. So, you have had two weeks since Chairman Pitts brought this to your attention. You had the legal memorandum. I assume you have had a chance to go over this with your staff and your counsel.</t>
   </si>
   <si>
@@ -235,6 +271,12 @@
     <t>400097</t>
   </si>
   <si>
+    <t>Davis</t>
+  </si>
+  <si>
+    <t>Susan</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mrs. Davis. Thank you, Mr. Chairman, and good to have you with us, Madam Secretary. I wanted to really go to one of the areas where as you said we are trying to create a smarter system.    In that regard, I think there has been some early success of the diabetes prevention program. We have seen evidence that really is common sense, I think, that if you speak to the need for providing better nutrition, exercise training, that you are going to see a reduce on the onset of diabetes. We have seen that particularly in seniors.    I just wanted to mention that there is bipartisan legislation to expand the diabetes prevention program to Medicare. There have been numerous pilots to demonstrate that really can have a demonstrable effect on saving lives, as well as cutting costs.    I am hoping that you can take a look at that as well, how can we work to expand that. I would love to see all my colleagues come together on that legislation, but there may be some other tools that we have as well. I hope you will take a look at that.    I want to shift quickly to early childhood, because that is an area that you are going to be working heavily in as we go forward, and certainly reflected in the legislation, the transition is in 2017.    I know that within that legislation, there is a call to expand the length of the school day among other requirements. I am wondering what you are doing, what the staff is looking at now, how are we going to move forward with that while at the same time being certain we are keeping the quality the same or at least better, maintaining quality, and certainly finding ways that we hit the bar of lengthening but we are not losing some of the other ingredients that make up such a successful program.</t>
   </si>
   <si>
@@ -262,6 +304,12 @@
     <t>412621</t>
   </si>
   <si>
+    <t>Curbelo</t>
+  </si>
+  <si>
+    <t>Carlos</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Curbelo. Thank you, Mr. Chairman. Madam Secretary, more than 4,000 foreign children and adolescents have resettled in Miami, Dade County, in Fiscal Year 2015, and 937 more in the first quarter of Fiscal Year 2016. Foreign born students add an average of $2,720 in extraordinary costs to local school districts, above and beyond the per pupil State reimbursements.    The numbers of refugees, especially Cuban refugees, has increased substantially in our community. The estimated number was over 4,000 last year and is expected to be on a similar pace in the current year. However, this could be an understated number because many parents are immigrating without their children, and their children join them later once they have adjusted their status.    This presents a problem because the later arriving children of refugee parents do not count under refugee data, but they still represent major costs to local communities.    Since school districts are barred from inquiring into immigration status, is there a proxy measure for school-wide services that can be used to determine the actual impact of the significant influx on affected school districts?</t>
   </si>
   <si>
@@ -289,6 +337,12 @@
     <t>412193</t>
   </si>
   <si>
+    <t>Courtney</t>
+  </si>
+  <si>
+    <t>Joe</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Courtney. Thank you, Mr. Chairman, and thank you, Madam Secretary, for your outstanding service. Your portfolio is about as complex and broad as any in government, and I think you are doing an outstanding job. Thank you.</t>
   </si>
   <si>
@@ -319,6 +373,12 @@
     <t>412648</t>
   </si>
   <si>
+    <t>Stefanik</t>
+  </si>
+  <si>
+    <t>Elise</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Ms. Stefanik. Thank you, Mr. Chairman. First, I want to echo my friend and colleague, Mr. Courtney's, statements that the heroin and opioid epidemic is an issue that I have been focused on in my district, and I look forward to working with you on that issue.    Thank you, Madam Secretary, for being here today. Shifting gears, I think we can all agree here that we need to make sure that our seniors receive the best care possible, and in order to do that, we must accept there are differing needs across this country.    The Older Americans Act is an important law that helps seniors remain in their homes and out of expensive institutional care. As you know, what may work for seniors receiving meals or care in urban areas is likely to be inadequate to the unique challenges facing rural areas such as the district I represent in New York's North country, where we have one of the highest concentrations of seniors in New York State.    One of the hallmarks of the Older Americans Act is the State and local control provided through the structure of the aging network. This is a great example of legislation that understands one-size-fits-all does not always work.    Can you speak to how this structure is important to meeting the needs of this Nation's elderly and what we will do to continue the successful model?</t>
   </si>
   <si>
@@ -334,6 +394,12 @@
     <t>412308</t>
   </si>
   <si>
+    <t>Polis</t>
+  </si>
+  <si>
+    <t>Jared</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Polis. Thank you, Mr. Chairman. I want to thank the Secretary for joining the committee today, and I want to thank her and the administration for putting forward a budget that reduces our deficit, makes important investments in health and education that our country needs.    I applaud the work of the Department of Health and Human Services for working to implement the Affordable Care Act. I congratulate on the especially successful 2016 third quarter enrollment period and 4.9 million new customers in the Federal Exchange.    Madam Secretary, you have seen firsthand, of course, the positive effects of the Affordable Care Act. I know in my home State of Colorado, 16.5 percent of people lacked health care insurance before the Affordable Care Act, and last year, the number fell to 6.7 percent, a historic low.    I am concerned, however, about how the geographic rating areas for each State can skew the cost of health care. My constituents in Grand County, for example, face among the very highest premium increases in the country. Their premiums went up at least 25 percent this year. They pay, by the way, nearly twice as much as other Coloradoans for insurance.    How is the Department helping States to guarantee that families and individuals who live in rural mountain communities are able to access high quality care at a reasonable cost the way the Affordable Care Act intended?</t>
   </si>
   <si>
@@ -379,6 +445,12 @@
     <t>412650</t>
   </si>
   <si>
+    <t>Russell</t>
+  </si>
+  <si>
+    <t>Steve</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Russell. Thank you, Mr. Chairman, and thank you, Madam Secretary, for being here today.    As a returning combat veteran, I had some firsthand experience with prescription pain killers. In my case, Percocet, but, while it did reduce the pain, it left me with a clouded mind. I became concerned about that. I did not like not having my faculties, so I quit taking them.    However, pain management, and not just among our veterans, has resulted in perhaps a lot of what is categorized as suicides, it might have been accidental death. On a broader scale nationally, at least 18 States now have more deaths due to prescription opioids than car fatalities.</t>
   </si>
   <si>
@@ -400,6 +472,12 @@
     <t>412312</t>
   </si>
   <si>
+    <t>Sablan</t>
+  </si>
+  <si>
+    <t>Gregorio</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Sablan. Thank you very much, Mr. Chairman. Madam Secretary, you mentioned this would be your last budget hearing. I think you should be proud. There are so many things in the proposal that would serve Americans greatly.    I am the only member here who is not representing a State. I am going to limit my conversation to one issue. The President proposed in his fiscal 2017 budget that the National Medicaid program be available to the 4 million Americans who live in the insular areas, including my constituents, in the Northern Mariana Islands, and thank you, this is a very welcomed proposal.    The people of the Mariana Islands are not as well off as the rest of Americans. Our median household income is about $20,000, and the national median income is $50,000. Because we have so many who are poor, we have many who qualify for Medicaid, 15,036 of our total population of 53,000 receive medical care through the Medicaid program.    As you know, Medicaid in the Mariana Islands and the other insular areas is not the same as Medicaid elsewhere. There is a cap on the amount of Federal Medicaid money that goes to our islands, only about $5 million per year to the Marianas.    The local cost-share of Medicaid is not computed on overall income as it is with the rest of America. So our Commonwealth, our local government has to pay 45 percent of the cost more like one of the richer US states would pay. We are not rich, however.    So, we welcome the additional Medicaid money provided by the Affordable Care Act beginning in 2011, about $13 million per year. That new money kept our only hospital open when the local government had to stop its annual funding for our hospital because of the Great Recession and loss of tax revenues.    That Affordable Care Act money is only available through 2019. What happens then? Does our hospital close? What about those now on Medicaid, do they lose coverage? I would like to give you the time to please explain to the committee about the President's proposal and how we are going to make sure that Americans in my district get the same access to health care as Americans elsewhere, everywhere else in our Nation?</t>
   </si>
   <si>
@@ -415,6 +493,12 @@
     <t>412469</t>
   </si>
   <si>
+    <t>Barletta</t>
+  </si>
+  <si>
+    <t>Lou</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Barletta. Thank you, Mr. Chairman, and thank you, Secretary Burwell, for being here today.    I was deeply disturbed by a recent Senate report that found the Centers for Medicare and Medicaid Services, which is part of your department, had billed out roughly $750 million in Obamacare subsidies to half a million people who were unable to prove their citizenship or lawful presence in our country.    These tax credits are solely to be used to purchase health insurance by United States citizens and those lawfully residing here. Instead, they were improperly distributed, and the Federal Government will likely never see a cent returned.    This report was just one of many reports that have recently come to light detailing the rapid fraud and waste under Obamacare mismanagement that hard working Americans have had to foot the bill for.    I have been working to fight illegal immigration for more than a decade now, and I find it extremely troubling that, at a time when our national debt is $19 trillion and counting, the Federal Government continues to throw money away with no regard for the consequences.    I would have a hard time explaining to families in my district, many of whom are struggling to put food on the table, as to why they should be helping to pay for the health expenses of someone who broke the law to get here and has no right to those Federal dollars.    Secretary Burwell, whose decision was it to prioritize illegal immigrants over American citizens?</t>
   </si>
   <si>
@@ -448,6 +532,12 @@
     <t>412501</t>
   </si>
   <si>
+    <t>Bonamici</t>
+  </si>
+  <si>
+    <t>Suzanne</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Ms. Bonamici. Thank you, Mr. Chairman. Thank you, Secretary Burwell. Your work covers so many areas that affect the daily lives of Oregonians and Americans. I appreciate that.    I want to thank my colleague and friend, Representative Stefanik, for bringing up the Older Americans Act. I want to ask you about the Home &amp; Community-Based Supportive Services program that funds services like legal assistance, elder abuse and prevention, transportation and meal sites, medical appointments, referral assistance for seniors and their caregivers.    Now, I am supporting the additional $10 million in the President's request as well as many of my colleagues. Why is it important to increase funding for the Older Americans Act programs, especially the Home &amp; Community-Based Supportive Services, given the rapidly rising population of older Americans? I do want to save time for another.</t>
   </si>
   <si>
@@ -475,6 +565,12 @@
     <t>400643</t>
   </si>
   <si>
+    <t>Foxx</t>
+  </si>
+  <si>
+    <t>Virginia</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Ms. Foxx. Thank you, Mr. Chairman. Secretary Burwell, I want to follow up somewhat on what my colleague, Mr. Byrne, was talking about in his line of questioning, but first I want to say I have heard from employers who self-insure that this transitional reinsurance fee is particularly burdensome to them, depriving them of resources that could be used instead to create jobs.    You asserted that HHS interpreted the law accurately and appropriately. You claim that the comment period for the NPRM resulted in no objections to the Department's interpretation of the law.    However, most of us believe that the NPRM was drafted in such a complicated way that no one could interpret it in the way your department did, where you used convoluted language to create a loophole to justify your reasoning. Given your dubious interpretation of the law thus far--you have heard members of this committee, and you will hear us say we think you have interpreted it wrong. I agree with Mr. Byrne, you have interpreted it wrong. You are hearing directly from members of Congress that you have interpreted it wrong.    I am now concerned that you are going to find a way to extend the transitional reinsurance program even though the law clearly states that it expires this year. So, could you expand in greater detail your legal interpretation of implementing the transitional reinsurance program contrary to the letter of the law?    Can you commit to this committee that you will follow the letter of the law which states the program must cease collections for the program at the end of this year? Do you plan to distribute funds after 2016?</t>
   </si>
   <si>
@@ -502,6 +598,12 @@
     <t>412585</t>
   </si>
   <si>
+    <t>Pocan</t>
+  </si>
+  <si>
+    <t>Mark</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Pocan. Thank you, Mr. Chairman. Thank you, Madam Secretary, for being here today. I am trying to get to three subjects in four minutes. I am going to try to go fast.    Does the name Brent Brown from Wisconsin ring a bell to you? This is a gentleman who wrote a letter to the President, and I would like to ask unanimous consent to enter this letter into the record.</t>
   </si>
   <si>
@@ -538,6 +640,12 @@
     <t>412635</t>
   </si>
   <si>
+    <t>Bishop</t>
+  </si>
+  <si>
+    <t>Mike</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Bishop. Thank you, Mr. Chairman. Thank you, Madam Secretary, for your testimony this morning.    On February 19, as part of the Fiscal Year 2017 Medicare Advantage Rate Notice, CMS proposed a cut to Medicare Advantage employer group waiver plans, otherwise known as Medicare Advantage retiree coverage, 3.3 million seniors received their Medicare Advantage coverage through this plan.    In fact, in Michigan alone, there are more than 300,000 retirees, including labor unions, State and local government, and private employer retirees who rely on Medicare Advantage retiree coverage.    These proposed cuts would jeopardize the high quality care that they depend on for their health and financial security. That is why, last week, my colleague, Representative Debbie Dingell, and I, led a bipartisan Michigan delegation letter that included 11 of our colleagues in Michigan, to raise concerns with regard to the impact these proposed cuts would have on our constituents, and we also urged the agency to remove the cut to the Medicare Advantage retiree coverage from the final rate notice.    Earlier this month, the UAW Retiree Medical Benefits Trust, which provides health coverage to retirees and their dependents of the United Auto Workers Union, who formerly worked for the Michigan Big Three (GM, Ford, and Chrysler) submitted comments to CMS expressing concerns with CMS' proposed cuts to Medicare Advantage retiree coverage and the impact these cuts would have on their retirees.    The Trust currently provides coverage to 719,000 people. Of this population, 534,000 are covered by Medicare. The Trust offers their retirees a choice of plans in which they can enroll. At the present time, 161,000 of these retirees have selected and are covered by Medicare Advantage plans.    In comments submitted to CMS, the UAW Retiree Medical Benefits Trust expressed concerns that the proposed cuts to Medicare Advantage retiree coverage might result in diminishing the quality of care available to retirees and the proposal would lead to substantial reduction in payment to employer group waiver plans, thereby resulting in premium increases and/or benefit reductions.    This leads me to my question. I did send you this letter, and I appreciate the fact that you have acknowledged receipt of that letter. Thank you very much for that.    Having said what I just said, and the grave concerns they represent to in particular my constituents in the State of Michigan, can you tell me whether or not CMS considered the impact the cuts to the Medicare Advantage retiree coverage would have on the 3.3 million seniors who depend on this form of coverage when developing the Advanced Notice?</t>
   </si>
   <si>
@@ -559,6 +667,9 @@
     <t>412520</t>
   </si>
   <si>
+    <t>Takano</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Takano. Thank you, Mr. Chairman. Madam Secretary, it is truly a pleasure to hear from you this morning about your department's priorities. I am glad to hear about the administration's continuing commitment to programs that support working families, educate our children, and keep Americans healthy.    First, I would like to ask you about the Department's work to support LGBT seniors. As you may know, the Congressional LGBT Equality Caucus, of which I am co-chair, has formed an LGBT Aging Issues Task Force. We sent a letter to Administrator Greenlee asking for ACL to require each State plan to assess whether State units on aging are meeting the needs of the LGBT community in their area.    As you know, LGBT elders have poorer physical health, worse mental health, lower income, and fewer close ties on average than other seniors.    Can you speak to whether ACL will be rolling out a guidance focused on LGBT older Americans, and if not, what will they be doing to assist this aging population?</t>
   </si>
   <si>
@@ -589,6 +700,12 @@
     <t>412426</t>
   </si>
   <si>
+    <t>Rokita</t>
+  </si>
+  <si>
+    <t>Todd</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Rokita. I thank the Chairman. Thank you for coming, it is good to see you. On behalf of the Governor of the State of Indiana, Mike Pence, and many of us in the State, thanks for working with us on what we call ``HIP 2.0,'' consumer driven health care, that I think will be a model to help the Department and others around the country really get at cost constraints while serving more people. Thank you for your cooperation and leadership in that regard.</t>
   </si>
   <si>
@@ -661,6 +778,12 @@
     <t>412600</t>
   </si>
   <si>
+    <t>Clark</t>
+  </si>
+  <si>
+    <t>Katherine</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Ms. Clark. Thank you, Mr. Chairman, and thank you, Secretary Burwell, for not only your testimony today but the incredible work that you are doing. I especially want to highlight your commitment to addressing the opioid crisis, coming from a State like Massachusetts where it has just been a devastating effect, we so appreciate your partnership and your commitment.    I specifically want to ask you about adolescents and young adults. I have spoken with many experts who treat this population. They have been clear that this population needs special protocols to be able to tailor the treatment to their unique social and biological needs. They are also clear there has not been enough emphasis on programming or research in this area.    Can you discuss any efforts that are underway to target action towards young adults and adolescents, and if you see this as an important area for fighting the opioid crisis?</t>
   </si>
   <si>
@@ -682,6 +805,12 @@
     <t>412625</t>
   </si>
   <si>
+    <t>Allen</t>
+  </si>
+  <si>
+    <t>Rick</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Allen. Thank you, Mr. Chairman, and thank you, Madam Secretary, and thanks for your call, by the way. I am sorry I did not get back to you.    I wanted to just comment on a couple of things. One is you mentioned you have lowered the taxpayer growth in Medicare. I need some background on that, because I am not seeing that, so if you could get that to me.    The other number that I am seeing is ``totally insured.'' I am not seeing that in my district. In fact, a very small percentage of my district is insured. In fact, doctors tell me at the emergency room that nothing has changed, many people are showing up without insurance as before.    Also, on your comment about you do not pay more for preexisting conditions, I met a lady yesterday that told me about her son and his condition, and she wanted to know why his premiums had gotten so high and his deductible was like $10,000. I said well, I will get an answer for you. I need you to get that to me.    Last but not least, the President signed into law, and I voted for, the Hyde Amendment, which was an attachment to the appropriations bill. How are you monitoring your funding of these various claims that no taxpayer funds are being used for abortions? How do you monitor that, and what are you doing to oversee that?</t>
   </si>
   <si>
@@ -709,6 +838,9 @@
     <t>400433</t>
   </si>
   <si>
+    <t>Wilson</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Ms. Wilson. Thank you, Mr. Chair. Welcome, Madam Secretary.</t>
   </si>
   <si>
@@ -739,6 +871,12 @@
     <t>412622</t>
   </si>
   <si>
+    <t>Carter</t>
+  </si>
+  <si>
+    <t>Buddy</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Carter. Thank you, Mr. Chairman. Thank you, Madam Secretary, for being here. Madam Secretary, as you know, I am a pharmacist, so I am very concerned about issues, obviously, dealing with patients and dealing with them getting their medications.    Specifically, I wanted to ask you about compounding, compounding for office use only. I am very concerned about the FDA interpreting legislative intent, and certainly this is something that comes into play when we are talking about for office use only.    I know the FDA continues to prevent medications to be compounded for office use only, and what this causes is for the patients to have to go back to the pharmacy, get a specific prescription, compound it for them, then go back to the doctor to have it applied.    I am wondering where you are at in that process? Many States have already allowed for this to take place. Many States have already had regulations and laws in place that allow for office use only, for compounds to be made, and for the physician to have them there in the office where the physician has the ability to apply and use that medication instead of the patient having to go get a specific prescription filled for them as opposed to having it for office use only.    I just want to know where we are at in that process.</t>
   </si>
   <si>
@@ -784,6 +922,12 @@
     <t>412607</t>
   </si>
   <si>
+    <t>Adams</t>
+  </si>
+  <si>
+    <t>Alma</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Ms. Adams. Thank you, Mr. Chair, and thank you, Madam Secretary, for being here. I am going to move along quickly. I just want to give a shout out to my police department in High Point for the work they are doing in opioid abuse, and I thank you for your work.    Let me ask you about the health of our Nation's most marginalized young people as it relates to sexual health services. A lot of data and research performed by CDC, American Academy of Pediatrics, and even your Office of Adolescent Health show that far too many young people in the U.S. face barriers accessing and receiving adequate health care services regarding sexual health education.    So, can you please speak to existing efforts that HHS is leading to ensure that our Nation's youth, especially those most vulnerable, have the education, skills, and access to sexual education services?</t>
   </si>
   <si>
@@ -803,6 +947,12 @@
   </si>
   <si>
     <t>412317</t>
+  </si>
+  <si>
+    <t>Thompson</t>
+  </si>
+  <si>
+    <t>Glenn</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Thompson. Thank you, Mr. Chairman. Secretary Burwell, thank you so much for the phone call, very much appreciate you reaching out.    I just want to note the current crisis with the opioids, there is obviously some impact from infants to the elderly. We need to approach this from a broader perspective, this is symptomatic. I view it as a broader epidemic of substance abuse. It does not matter how large or how small the community is, it is present.    This is kind of an all hands on deck for the Executive Branch, Legislative Branch, and all of the partners, we need to be working together.    My question though is regarding access to health care. In your testimony, you state that through targeted investments, the administration's budget expands access to health care, particularly for rural and underserved areas. I represent Pennsylvania's Fifth Congressional District. It is the State's most rural, largest congressional district, about 24 percent of the land mass. I know rural. I know it well.    As a former health care provider for almost 30 years, access requires the presence of providers in our communities, first. I do not care how you pay for it or all the other moving parts of it. You have to have that access. There has to be a presence.    Really, a tremendous concern considering the fact that more than 45 rural hospitals have closed since 2010, and approximately 300 others are in danger of closing. I struggle to understand how these facts support your conclusion that the Affordable Care Act is having a positive effect on the well-being of employers, employees, providers, health care professionals, and most importantly, patients in rural areas.    Can you expand on your statement in regard to those facts? That is a trend line that is not good and it scares me.</t>
@@ -1169,7 +1319,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H237"/>
+  <dimension ref="A1:I237"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1177,7 +1327,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1199,5669 +1349,6668 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G2" t="s">
+        <v>13</v>
+      </c>
       <c r="H2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G3" t="s">
+        <v>17</v>
+      </c>
       <c r="H3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G4" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G4" t="s">
+        <v>13</v>
+      </c>
       <c r="H4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F5" t="s">
-        <v>11</v>
-      </c>
-      <c r="G5" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G5" t="s">
+        <v>13</v>
+      </c>
       <c r="H5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F6" t="s">
-        <v>17</v>
-      </c>
-      <c r="G6" t="s"/>
-      <c r="H6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G6" t="s">
+        <v>23</v>
+      </c>
+      <c r="H6" t="s"/>
+      <c r="I6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G7" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G7" t="s">
+        <v>13</v>
+      </c>
       <c r="H7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F8" t="s">
-        <v>17</v>
-      </c>
-      <c r="G8" t="s"/>
-      <c r="H8" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G8" t="s">
+        <v>23</v>
+      </c>
+      <c r="H8" t="s"/>
+      <c r="I8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F9" t="s">
-        <v>11</v>
-      </c>
-      <c r="G9" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G9" t="s">
+        <v>13</v>
+      </c>
       <c r="H9" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F10" t="s">
-        <v>17</v>
-      </c>
-      <c r="G10" t="s"/>
-      <c r="H10" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G10" t="s">
+        <v>23</v>
+      </c>
+      <c r="H10" t="s"/>
+      <c r="I10" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F11" t="s">
-        <v>11</v>
-      </c>
-      <c r="G11" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G11" t="s">
+        <v>13</v>
+      </c>
       <c r="H11" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I11" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C12" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D12" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E12" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F12" t="s">
-        <v>17</v>
-      </c>
-      <c r="G12" t="s"/>
-      <c r="H12" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G12" t="s">
+        <v>23</v>
+      </c>
+      <c r="H12" t="s"/>
+      <c r="I12" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C13" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E13" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F13" t="s">
-        <v>11</v>
-      </c>
-      <c r="G13" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G13" t="s">
+        <v>13</v>
+      </c>
       <c r="H13" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I13" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C14" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D14" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E14" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F14" t="s">
-        <v>17</v>
-      </c>
-      <c r="G14" t="s"/>
-      <c r="H14" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G14" t="s">
+        <v>23</v>
+      </c>
+      <c r="H14" t="s"/>
+      <c r="I14" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F15" t="s">
-        <v>11</v>
-      </c>
-      <c r="G15" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G15" t="s">
+        <v>13</v>
+      </c>
       <c r="H15" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I15" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F16" t="s">
-        <v>13</v>
-      </c>
-      <c r="G16" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G16" t="s">
+        <v>17</v>
+      </c>
       <c r="H16" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I16" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F17" t="s">
-        <v>17</v>
-      </c>
-      <c r="G17" t="s"/>
-      <c r="H17" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G17" t="s">
+        <v>23</v>
+      </c>
+      <c r="H17" t="s"/>
+      <c r="I17" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C18" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F18" t="s">
-        <v>13</v>
-      </c>
-      <c r="G18" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G18" t="s">
+        <v>17</v>
+      </c>
       <c r="H18" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I18" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F19" t="s">
-        <v>17</v>
-      </c>
-      <c r="G19" t="s"/>
-      <c r="H19" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G19" t="s">
+        <v>23</v>
+      </c>
+      <c r="H19" t="s"/>
+      <c r="I19" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D20" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F20" t="s">
-        <v>13</v>
-      </c>
-      <c r="G20" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G20" t="s">
+        <v>17</v>
+      </c>
       <c r="H20" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I20" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C21" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F21" t="s">
-        <v>17</v>
-      </c>
-      <c r="G21" t="s"/>
-      <c r="H21" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G21" t="s">
+        <v>23</v>
+      </c>
+      <c r="H21" t="s"/>
+      <c r="I21" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C22" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D22" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F22" t="s">
-        <v>13</v>
-      </c>
-      <c r="G22" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G22" t="s">
+        <v>17</v>
+      </c>
       <c r="H22" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I22" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D23" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F23" t="s">
+        <v>22</v>
+      </c>
+      <c r="G23" t="s">
+        <v>23</v>
+      </c>
+      <c r="H23" t="s"/>
+      <c r="I23" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>8</v>
+      </c>
+      <c r="C24" t="s">
+        <v>9</v>
+      </c>
+      <c r="D24" t="s">
+        <v>10</v>
+      </c>
+      <c r="E24" t="s">
+        <v>11</v>
+      </c>
+      <c r="F24" t="s">
+        <v>16</v>
+      </c>
+      <c r="G24" t="s">
         <v>17</v>
       </c>
-      <c r="G23" t="s"/>
-      <c r="H23" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
-      <c r="A24" s="1" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="s">
-        <v>7</v>
-      </c>
-      <c r="C24" t="s">
-        <v>8</v>
-      </c>
-      <c r="D24" t="s">
-        <v>9</v>
-      </c>
-      <c r="E24" t="s">
-        <v>10</v>
-      </c>
-      <c r="F24" t="s">
-        <v>13</v>
-      </c>
-      <c r="G24" t="s"/>
       <c r="H24" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I24" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C25" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E25" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F25" t="s">
-        <v>17</v>
-      </c>
-      <c r="G25" t="s"/>
-      <c r="H25" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G25" t="s">
+        <v>23</v>
+      </c>
+      <c r="H25" t="s"/>
+      <c r="I25" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C26" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D26" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F26" t="s">
-        <v>13</v>
-      </c>
-      <c r="G26" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G26" t="s">
+        <v>17</v>
+      </c>
       <c r="H26" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I26" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D27" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E27" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F27" t="s">
-        <v>17</v>
-      </c>
-      <c r="G27" t="s"/>
-      <c r="H27" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G27" t="s">
+        <v>23</v>
+      </c>
+      <c r="H27" t="s"/>
+      <c r="I27" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C28" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D28" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E28" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F28" t="s">
-        <v>11</v>
-      </c>
-      <c r="G28" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G28" t="s">
+        <v>13</v>
+      </c>
       <c r="H28" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I28" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D29" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E29" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F29" t="s">
-        <v>41</v>
-      </c>
-      <c r="G29" t="s"/>
+        <v>47</v>
+      </c>
+      <c r="G29" t="s">
+        <v>48</v>
+      </c>
       <c r="H29" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
+        <v>49</v>
+      </c>
+      <c r="I29" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C30" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D30" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E30" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F30" t="s">
-        <v>17</v>
-      </c>
-      <c r="G30" t="s"/>
-      <c r="H30" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G30" t="s">
+        <v>23</v>
+      </c>
+      <c r="H30" t="s"/>
+      <c r="I30" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C31" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D31" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E31" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F31" t="s">
-        <v>41</v>
-      </c>
-      <c r="G31" t="s"/>
+        <v>47</v>
+      </c>
+      <c r="G31" t="s">
+        <v>48</v>
+      </c>
       <c r="H31" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
+        <v>49</v>
+      </c>
+      <c r="I31" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C32" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D32" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E32" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F32" t="s">
-        <v>17</v>
-      </c>
-      <c r="G32" t="s"/>
-      <c r="H32" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G32" t="s">
+        <v>23</v>
+      </c>
+      <c r="H32" t="s"/>
+      <c r="I32" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C33" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D33" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E33" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F33" t="s">
-        <v>41</v>
-      </c>
-      <c r="G33" t="s"/>
+        <v>47</v>
+      </c>
+      <c r="G33" t="s">
+        <v>48</v>
+      </c>
       <c r="H33" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
+        <v>49</v>
+      </c>
+      <c r="I33" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C34" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D34" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E34" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F34" t="s">
-        <v>11</v>
-      </c>
-      <c r="G34" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G34" t="s">
+        <v>13</v>
+      </c>
       <c r="H34" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I34" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C35" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D35" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E35" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F35" t="s">
-        <v>48</v>
-      </c>
-      <c r="G35" t="s"/>
+        <v>56</v>
+      </c>
+      <c r="G35" t="s">
+        <v>57</v>
+      </c>
       <c r="H35" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8">
+        <v>58</v>
+      </c>
+      <c r="I35" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C36" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D36" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E36" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F36" t="s">
-        <v>11</v>
-      </c>
-      <c r="G36" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G36" t="s">
+        <v>13</v>
+      </c>
       <c r="H36" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I36" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C37" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D37" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E37" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F37" t="s">
-        <v>48</v>
-      </c>
-      <c r="G37" t="s"/>
+        <v>56</v>
+      </c>
+      <c r="G37" t="s">
+        <v>57</v>
+      </c>
       <c r="H37" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8">
+        <v>58</v>
+      </c>
+      <c r="I37" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C38" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D38" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E38" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F38" t="s">
-        <v>17</v>
-      </c>
-      <c r="G38" t="s"/>
-      <c r="H38" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G38" t="s">
+        <v>23</v>
+      </c>
+      <c r="H38" t="s"/>
+      <c r="I38" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C39" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D39" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E39" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F39" t="s">
-        <v>48</v>
-      </c>
-      <c r="G39" t="s"/>
+        <v>56</v>
+      </c>
+      <c r="G39" t="s">
+        <v>57</v>
+      </c>
       <c r="H39" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8">
+        <v>58</v>
+      </c>
+      <c r="I39" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C40" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D40" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E40" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F40" t="s">
-        <v>17</v>
-      </c>
-      <c r="G40" t="s"/>
-      <c r="H40" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G40" t="s">
+        <v>23</v>
+      </c>
+      <c r="H40" t="s"/>
+      <c r="I40" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C41" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D41" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E41" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F41" t="s">
-        <v>48</v>
-      </c>
-      <c r="G41" t="s"/>
+        <v>56</v>
+      </c>
+      <c r="G41" t="s">
+        <v>57</v>
+      </c>
       <c r="H41" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8">
+        <v>58</v>
+      </c>
+      <c r="I41" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C42" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D42" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E42" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F42" t="s">
-        <v>17</v>
-      </c>
-      <c r="G42" t="s"/>
-      <c r="H42" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G42" t="s">
+        <v>23</v>
+      </c>
+      <c r="H42" t="s"/>
+      <c r="I42" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C43" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D43" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E43" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F43" t="s">
-        <v>48</v>
-      </c>
-      <c r="G43" t="s"/>
+        <v>56</v>
+      </c>
+      <c r="G43" t="s">
+        <v>57</v>
+      </c>
       <c r="H43" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8">
+        <v>58</v>
+      </c>
+      <c r="I43" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C44" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D44" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E44" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F44" t="s">
-        <v>17</v>
-      </c>
-      <c r="G44" t="s"/>
-      <c r="H44" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G44" t="s">
+        <v>23</v>
+      </c>
+      <c r="H44" t="s"/>
+      <c r="I44" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C45" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D45" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E45" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F45" t="s">
-        <v>48</v>
-      </c>
-      <c r="G45" t="s"/>
+        <v>56</v>
+      </c>
+      <c r="G45" t="s">
+        <v>57</v>
+      </c>
       <c r="H45" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8">
+        <v>58</v>
+      </c>
+      <c r="I45" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C46" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D46" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E46" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F46" t="s">
-        <v>17</v>
-      </c>
-      <c r="G46" t="s"/>
-      <c r="H46" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G46" t="s">
+        <v>23</v>
+      </c>
+      <c r="H46" t="s"/>
+      <c r="I46" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C47" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D47" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E47" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F47" t="s">
-        <v>11</v>
-      </c>
-      <c r="G47" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G47" t="s">
+        <v>13</v>
+      </c>
       <c r="H47" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I47" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C48" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D48" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E48" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F48" t="s">
-        <v>62</v>
-      </c>
-      <c r="G48" t="s"/>
+        <v>72</v>
+      </c>
+      <c r="G48" t="s">
+        <v>73</v>
+      </c>
       <c r="H48" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8">
+        <v>74</v>
+      </c>
+      <c r="I48" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C49" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D49" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E49" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F49" t="s">
-        <v>17</v>
-      </c>
-      <c r="G49" t="s"/>
-      <c r="H49" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G49" t="s">
+        <v>23</v>
+      </c>
+      <c r="H49" t="s"/>
+      <c r="I49" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C50" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D50" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E50" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F50" t="s">
-        <v>62</v>
-      </c>
-      <c r="G50" t="s"/>
+        <v>72</v>
+      </c>
+      <c r="G50" t="s">
+        <v>73</v>
+      </c>
       <c r="H50" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8">
+        <v>74</v>
+      </c>
+      <c r="I50" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C51" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D51" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E51" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F51" t="s">
-        <v>17</v>
-      </c>
-      <c r="G51" t="s"/>
-      <c r="H51" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G51" t="s">
+        <v>23</v>
+      </c>
+      <c r="H51" t="s"/>
+      <c r="I51" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C52" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D52" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E52" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F52" t="s">
-        <v>62</v>
-      </c>
-      <c r="G52" t="s"/>
+        <v>72</v>
+      </c>
+      <c r="G52" t="s">
+        <v>73</v>
+      </c>
       <c r="H52" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8">
+        <v>74</v>
+      </c>
+      <c r="I52" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C53" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D53" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E53" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F53" t="s">
-        <v>17</v>
-      </c>
-      <c r="G53" t="s"/>
-      <c r="H53" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G53" t="s">
+        <v>23</v>
+      </c>
+      <c r="H53" t="s"/>
+      <c r="I53" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C54" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D54" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E54" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F54" t="s">
-        <v>62</v>
-      </c>
-      <c r="G54" t="s"/>
+        <v>72</v>
+      </c>
+      <c r="G54" t="s">
+        <v>73</v>
+      </c>
       <c r="H54" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8">
+        <v>74</v>
+      </c>
+      <c r="I54" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C55" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D55" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E55" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F55" t="s">
-        <v>17</v>
-      </c>
-      <c r="G55" t="s"/>
-      <c r="H55" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G55" t="s">
+        <v>23</v>
+      </c>
+      <c r="H55" t="s"/>
+      <c r="I55" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C56" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D56" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E56" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F56" t="s">
-        <v>11</v>
-      </c>
-      <c r="G56" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G56" t="s">
+        <v>13</v>
+      </c>
       <c r="H56" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I56" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C57" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D57" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E57" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F57" t="s">
-        <v>72</v>
-      </c>
-      <c r="G57" t="s"/>
+        <v>84</v>
+      </c>
+      <c r="G57" t="s">
+        <v>85</v>
+      </c>
       <c r="H57" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8">
+        <v>86</v>
+      </c>
+      <c r="I57" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C58" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D58" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E58" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F58" t="s">
-        <v>17</v>
-      </c>
-      <c r="G58" t="s"/>
-      <c r="H58" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G58" t="s">
+        <v>23</v>
+      </c>
+      <c r="H58" t="s"/>
+      <c r="I58" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C59" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D59" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E59" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F59" t="s">
-        <v>72</v>
-      </c>
-      <c r="G59" t="s"/>
+        <v>84</v>
+      </c>
+      <c r="G59" t="s">
+        <v>85</v>
+      </c>
       <c r="H59" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8">
+        <v>86</v>
+      </c>
+      <c r="I59" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C60" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D60" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E60" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F60" t="s">
-        <v>17</v>
-      </c>
-      <c r="G60" t="s"/>
-      <c r="H60" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G60" t="s">
+        <v>23</v>
+      </c>
+      <c r="H60" t="s"/>
+      <c r="I60" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C61" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D61" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E61" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F61" t="s">
-        <v>72</v>
-      </c>
-      <c r="G61" t="s"/>
+        <v>84</v>
+      </c>
+      <c r="G61" t="s">
+        <v>85</v>
+      </c>
       <c r="H61" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8">
+        <v>86</v>
+      </c>
+      <c r="I61" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C62" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D62" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E62" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F62" t="s">
-        <v>17</v>
-      </c>
-      <c r="G62" t="s"/>
-      <c r="H62" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G62" t="s">
+        <v>23</v>
+      </c>
+      <c r="H62" t="s"/>
+      <c r="I62" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C63" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D63" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E63" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F63" t="s">
-        <v>72</v>
-      </c>
-      <c r="G63" t="s"/>
+        <v>84</v>
+      </c>
+      <c r="G63" t="s">
+        <v>85</v>
+      </c>
       <c r="H63" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8">
+        <v>86</v>
+      </c>
+      <c r="I63" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C64" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D64" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E64" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F64" t="s">
-        <v>11</v>
-      </c>
-      <c r="G64" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G64" t="s">
+        <v>13</v>
+      </c>
       <c r="H64" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I64" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C65" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D65" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E65" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F65" t="s">
-        <v>81</v>
-      </c>
-      <c r="G65" t="s"/>
+        <v>95</v>
+      </c>
+      <c r="G65" t="s">
+        <v>96</v>
+      </c>
       <c r="H65" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8">
+        <v>97</v>
+      </c>
+      <c r="I65" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C66" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D66" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E66" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F66" t="s">
-        <v>17</v>
-      </c>
-      <c r="G66" t="s"/>
-      <c r="H66" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G66" t="s">
+        <v>23</v>
+      </c>
+      <c r="H66" t="s"/>
+      <c r="I66" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C67" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D67" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E67" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F67" t="s">
-        <v>81</v>
-      </c>
-      <c r="G67" t="s"/>
+        <v>95</v>
+      </c>
+      <c r="G67" t="s">
+        <v>96</v>
+      </c>
       <c r="H67" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8">
+        <v>97</v>
+      </c>
+      <c r="I67" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C68" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D68" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E68" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F68" t="s">
-        <v>17</v>
-      </c>
-      <c r="G68" t="s"/>
-      <c r="H68" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G68" t="s">
+        <v>23</v>
+      </c>
+      <c r="H68" t="s"/>
+      <c r="I68" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C69" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D69" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E69" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F69" t="s">
-        <v>81</v>
-      </c>
-      <c r="G69" t="s"/>
+        <v>95</v>
+      </c>
+      <c r="G69" t="s">
+        <v>96</v>
+      </c>
       <c r="H69" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8">
+        <v>97</v>
+      </c>
+      <c r="I69" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C70" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D70" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E70" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F70" t="s">
-        <v>17</v>
-      </c>
-      <c r="G70" t="s"/>
-      <c r="H70" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G70" t="s">
+        <v>23</v>
+      </c>
+      <c r="H70" t="s"/>
+      <c r="I70" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C71" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D71" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E71" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F71" t="s">
-        <v>81</v>
-      </c>
-      <c r="G71" t="s"/>
+        <v>95</v>
+      </c>
+      <c r="G71" t="s">
+        <v>96</v>
+      </c>
       <c r="H71" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8">
+        <v>97</v>
+      </c>
+      <c r="I71" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C72" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D72" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E72" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F72" t="s">
-        <v>11</v>
-      </c>
-      <c r="G72" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G72" t="s">
+        <v>13</v>
+      </c>
       <c r="H72" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I72" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C73" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D73" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E73" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F73" t="s">
-        <v>90</v>
-      </c>
-      <c r="G73" t="s"/>
+        <v>106</v>
+      </c>
+      <c r="G73" t="s">
+        <v>107</v>
+      </c>
       <c r="H73" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8">
+        <v>108</v>
+      </c>
+      <c r="I73" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C74" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D74" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E74" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F74" t="s">
-        <v>17</v>
-      </c>
-      <c r="G74" t="s"/>
-      <c r="H74" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G74" t="s">
+        <v>23</v>
+      </c>
+      <c r="H74" t="s"/>
+      <c r="I74" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C75" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D75" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E75" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F75" t="s">
-        <v>90</v>
-      </c>
-      <c r="G75" t="s"/>
+        <v>106</v>
+      </c>
+      <c r="G75" t="s">
+        <v>107</v>
+      </c>
       <c r="H75" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8">
+        <v>108</v>
+      </c>
+      <c r="I75" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C76" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D76" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E76" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F76" t="s">
-        <v>17</v>
-      </c>
-      <c r="G76" t="s"/>
-      <c r="H76" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G76" t="s">
+        <v>23</v>
+      </c>
+      <c r="H76" t="s"/>
+      <c r="I76" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C77" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D77" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E77" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F77" t="s">
-        <v>90</v>
-      </c>
-      <c r="G77" t="s"/>
+        <v>106</v>
+      </c>
+      <c r="G77" t="s">
+        <v>107</v>
+      </c>
       <c r="H77" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8">
+        <v>108</v>
+      </c>
+      <c r="I77" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C78" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D78" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E78" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F78" t="s">
-        <v>17</v>
-      </c>
-      <c r="G78" t="s"/>
-      <c r="H78" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G78" t="s">
+        <v>23</v>
+      </c>
+      <c r="H78" t="s"/>
+      <c r="I78" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C79" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D79" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E79" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F79" t="s">
-        <v>90</v>
-      </c>
-      <c r="G79" t="s"/>
+        <v>106</v>
+      </c>
+      <c r="G79" t="s">
+        <v>107</v>
+      </c>
       <c r="H79" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8">
+        <v>108</v>
+      </c>
+      <c r="I79" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C80" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D80" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E80" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F80" t="s">
-        <v>17</v>
-      </c>
-      <c r="G80" t="s"/>
-      <c r="H80" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G80" t="s">
+        <v>23</v>
+      </c>
+      <c r="H80" t="s"/>
+      <c r="I80" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C81" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D81" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E81" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F81" t="s">
-        <v>90</v>
-      </c>
-      <c r="G81" t="s"/>
+        <v>106</v>
+      </c>
+      <c r="G81" t="s">
+        <v>107</v>
+      </c>
       <c r="H81" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8">
+        <v>108</v>
+      </c>
+      <c r="I81" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C82" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D82" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E82" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F82" t="s">
-        <v>11</v>
-      </c>
-      <c r="G82" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G82" t="s">
+        <v>13</v>
+      </c>
       <c r="H82" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I82" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C83" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D83" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E83" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F83" t="s">
-        <v>100</v>
-      </c>
-      <c r="G83" t="s"/>
+        <v>118</v>
+      </c>
+      <c r="G83" t="s">
+        <v>119</v>
+      </c>
       <c r="H83" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8">
+        <v>120</v>
+      </c>
+      <c r="I83" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C84" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D84" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E84" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F84" t="s">
-        <v>17</v>
-      </c>
-      <c r="G84" t="s"/>
-      <c r="H84" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G84" t="s">
+        <v>23</v>
+      </c>
+      <c r="H84" t="s"/>
+      <c r="I84" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C85" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D85" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E85" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F85" t="s">
-        <v>100</v>
-      </c>
-      <c r="G85" t="s"/>
+        <v>118</v>
+      </c>
+      <c r="G85" t="s">
+        <v>119</v>
+      </c>
       <c r="H85" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8">
+        <v>120</v>
+      </c>
+      <c r="I85" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C86" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D86" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E86" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F86" t="s">
-        <v>11</v>
-      </c>
-      <c r="G86" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G86" t="s">
+        <v>13</v>
+      </c>
       <c r="H86" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I86" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C87" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D87" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E87" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F87" t="s">
-        <v>105</v>
-      </c>
-      <c r="G87" t="s"/>
+        <v>125</v>
+      </c>
+      <c r="G87" t="s">
+        <v>126</v>
+      </c>
       <c r="H87" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8">
+        <v>127</v>
+      </c>
+      <c r="I87" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C88" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D88" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E88" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F88" t="s">
-        <v>17</v>
-      </c>
-      <c r="G88" t="s"/>
-      <c r="H88" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G88" t="s">
+        <v>23</v>
+      </c>
+      <c r="H88" t="s"/>
+      <c r="I88" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C89" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D89" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E89" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F89" t="s">
-        <v>105</v>
-      </c>
-      <c r="G89" t="s"/>
+        <v>125</v>
+      </c>
+      <c r="G89" t="s">
+        <v>126</v>
+      </c>
       <c r="H89" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8">
+        <v>127</v>
+      </c>
+      <c r="I89" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C90" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D90" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E90" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F90" t="s">
-        <v>17</v>
-      </c>
-      <c r="G90" t="s"/>
-      <c r="H90" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G90" t="s">
+        <v>23</v>
+      </c>
+      <c r="H90" t="s"/>
+      <c r="I90" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C91" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D91" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E91" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F91" t="s">
-        <v>105</v>
-      </c>
-      <c r="G91" t="s"/>
+        <v>125</v>
+      </c>
+      <c r="G91" t="s">
+        <v>126</v>
+      </c>
       <c r="H91" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8">
+        <v>127</v>
+      </c>
+      <c r="I91" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C92" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D92" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E92" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F92" t="s">
-        <v>17</v>
-      </c>
-      <c r="G92" t="s"/>
-      <c r="H92" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G92" t="s">
+        <v>23</v>
+      </c>
+      <c r="H92" t="s"/>
+      <c r="I92" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C93" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D93" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E93" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F93" t="s">
-        <v>105</v>
-      </c>
-      <c r="G93" t="s"/>
+        <v>125</v>
+      </c>
+      <c r="G93" t="s">
+        <v>126</v>
+      </c>
       <c r="H93" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8">
+        <v>127</v>
+      </c>
+      <c r="I93" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C94" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D94" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E94" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F94" t="s">
-        <v>17</v>
-      </c>
-      <c r="G94" t="s"/>
-      <c r="H94" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G94" t="s">
+        <v>23</v>
+      </c>
+      <c r="H94" t="s"/>
+      <c r="I94" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C95" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D95" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E95" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F95" t="s">
-        <v>105</v>
-      </c>
-      <c r="G95" t="s"/>
+        <v>125</v>
+      </c>
+      <c r="G95" t="s">
+        <v>126</v>
+      </c>
       <c r="H95" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8">
+        <v>127</v>
+      </c>
+      <c r="I95" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C96" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D96" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E96" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F96" t="s">
-        <v>17</v>
-      </c>
-      <c r="G96" t="s"/>
-      <c r="H96" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G96" t="s">
+        <v>23</v>
+      </c>
+      <c r="H96" t="s"/>
+      <c r="I96" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C97" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D97" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E97" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F97" t="s">
-        <v>105</v>
-      </c>
-      <c r="G97" t="s"/>
+        <v>125</v>
+      </c>
+      <c r="G97" t="s">
+        <v>126</v>
+      </c>
       <c r="H97" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8">
+        <v>127</v>
+      </c>
+      <c r="I97" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C98" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D98" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E98" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F98" t="s">
-        <v>17</v>
-      </c>
-      <c r="G98" t="s"/>
-      <c r="H98" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G98" t="s">
+        <v>23</v>
+      </c>
+      <c r="H98" t="s"/>
+      <c r="I98" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9">
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C99" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D99" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E99" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F99" t="s">
-        <v>105</v>
-      </c>
-      <c r="G99" t="s"/>
+        <v>125</v>
+      </c>
+      <c r="G99" t="s">
+        <v>126</v>
+      </c>
       <c r="H99" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8">
+        <v>127</v>
+      </c>
+      <c r="I99" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
       <c r="B100" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C100" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D100" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E100" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F100" t="s">
-        <v>11</v>
-      </c>
-      <c r="G100" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G100" t="s">
+        <v>13</v>
+      </c>
       <c r="H100" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I100" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9">
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
       <c r="B101" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C101" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D101" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E101" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F101" t="s">
-        <v>120</v>
-      </c>
-      <c r="G101" t="s"/>
+        <v>142</v>
+      </c>
+      <c r="G101" t="s">
+        <v>143</v>
+      </c>
       <c r="H101" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8">
+        <v>144</v>
+      </c>
+      <c r="I101" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9">
       <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
       <c r="B102" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C102" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D102" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E102" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F102" t="s">
-        <v>17</v>
-      </c>
-      <c r="G102" t="s"/>
-      <c r="H102" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="103" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G102" t="s">
+        <v>23</v>
+      </c>
+      <c r="H102" t="s"/>
+      <c r="I102" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9">
       <c r="A103" s="1" t="n">
         <v>101</v>
       </c>
       <c r="B103" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C103" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D103" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E103" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F103" t="s">
-        <v>120</v>
-      </c>
-      <c r="G103" t="s"/>
+        <v>142</v>
+      </c>
+      <c r="G103" t="s">
+        <v>143</v>
+      </c>
       <c r="H103" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="104" spans="1:8">
+        <v>144</v>
+      </c>
+      <c r="I103" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9">
       <c r="A104" s="1" t="n">
         <v>102</v>
       </c>
       <c r="B104" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C104" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D104" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E104" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F104" t="s">
-        <v>17</v>
-      </c>
-      <c r="G104" t="s"/>
-      <c r="H104" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="105" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G104" t="s">
+        <v>23</v>
+      </c>
+      <c r="H104" t="s"/>
+      <c r="I104" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9">
       <c r="A105" s="1" t="n">
         <v>103</v>
       </c>
       <c r="B105" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C105" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D105" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E105" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F105" t="s">
-        <v>120</v>
-      </c>
-      <c r="G105" t="s"/>
+        <v>142</v>
+      </c>
+      <c r="G105" t="s">
+        <v>143</v>
+      </c>
       <c r="H105" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="106" spans="1:8">
+        <v>144</v>
+      </c>
+      <c r="I105" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9">
       <c r="A106" s="1" t="n">
         <v>104</v>
       </c>
       <c r="B106" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C106" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D106" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E106" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F106" t="s">
-        <v>11</v>
-      </c>
-      <c r="G106" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G106" t="s">
+        <v>13</v>
+      </c>
       <c r="H106" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="107" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I106" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9">
       <c r="A107" s="1" t="n">
         <v>105</v>
       </c>
       <c r="B107" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C107" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D107" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E107" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F107" t="s">
-        <v>127</v>
-      </c>
-      <c r="G107" t="s"/>
+        <v>151</v>
+      </c>
+      <c r="G107" t="s">
+        <v>152</v>
+      </c>
       <c r="H107" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="108" spans="1:8">
+        <v>153</v>
+      </c>
+      <c r="I107" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9">
       <c r="A108" s="1" t="n">
         <v>106</v>
       </c>
       <c r="B108" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C108" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D108" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E108" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F108" t="s">
-        <v>17</v>
-      </c>
-      <c r="G108" t="s"/>
-      <c r="H108" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="109" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G108" t="s">
+        <v>23</v>
+      </c>
+      <c r="H108" t="s"/>
+      <c r="I108" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9">
       <c r="A109" s="1" t="n">
         <v>107</v>
       </c>
       <c r="B109" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C109" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D109" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E109" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F109" t="s">
-        <v>127</v>
-      </c>
-      <c r="G109" t="s"/>
+        <v>151</v>
+      </c>
+      <c r="G109" t="s">
+        <v>152</v>
+      </c>
       <c r="H109" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="110" spans="1:8">
+        <v>153</v>
+      </c>
+      <c r="I109" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9">
       <c r="A110" s="1" t="n">
         <v>108</v>
       </c>
       <c r="B110" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C110" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D110" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E110" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F110" t="s">
-        <v>11</v>
-      </c>
-      <c r="G110" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G110" t="s">
+        <v>13</v>
+      </c>
       <c r="H110" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="111" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I110" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9">
       <c r="A111" s="1" t="n">
         <v>109</v>
       </c>
       <c r="B111" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C111" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D111" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E111" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F111" t="s">
-        <v>132</v>
-      </c>
-      <c r="G111" t="s"/>
+        <v>158</v>
+      </c>
+      <c r="G111" t="s">
+        <v>159</v>
+      </c>
       <c r="H111" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="112" spans="1:8">
+        <v>160</v>
+      </c>
+      <c r="I111" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9">
       <c r="A112" s="1" t="n">
         <v>110</v>
       </c>
       <c r="B112" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C112" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D112" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E112" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F112" t="s">
-        <v>17</v>
-      </c>
-      <c r="G112" t="s"/>
-      <c r="H112" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="113" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G112" t="s">
+        <v>23</v>
+      </c>
+      <c r="H112" t="s"/>
+      <c r="I112" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9">
       <c r="A113" s="1" t="n">
         <v>111</v>
       </c>
       <c r="B113" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C113" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D113" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E113" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F113" t="s">
-        <v>132</v>
-      </c>
-      <c r="G113" t="s"/>
+        <v>158</v>
+      </c>
+      <c r="G113" t="s">
+        <v>159</v>
+      </c>
       <c r="H113" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="114" spans="1:8">
+        <v>160</v>
+      </c>
+      <c r="I113" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9">
       <c r="A114" s="1" t="n">
         <v>112</v>
       </c>
       <c r="B114" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C114" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D114" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E114" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F114" t="s">
-        <v>17</v>
-      </c>
-      <c r="G114" t="s"/>
-      <c r="H114" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="115" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G114" t="s">
+        <v>23</v>
+      </c>
+      <c r="H114" t="s"/>
+      <c r="I114" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9">
       <c r="A115" s="1" t="n">
         <v>113</v>
       </c>
       <c r="B115" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C115" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D115" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E115" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F115" t="s">
-        <v>132</v>
-      </c>
-      <c r="G115" t="s"/>
+        <v>158</v>
+      </c>
+      <c r="G115" t="s">
+        <v>159</v>
+      </c>
       <c r="H115" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="116" spans="1:8">
+        <v>160</v>
+      </c>
+      <c r="I115" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9">
       <c r="A116" s="1" t="n">
         <v>114</v>
       </c>
       <c r="B116" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C116" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D116" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E116" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F116" t="s">
-        <v>17</v>
-      </c>
-      <c r="G116" t="s"/>
-      <c r="H116" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="117" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G116" t="s">
+        <v>23</v>
+      </c>
+      <c r="H116" t="s"/>
+      <c r="I116" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9">
       <c r="A117" s="1" t="n">
         <v>115</v>
       </c>
       <c r="B117" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C117" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D117" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E117" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F117" t="s">
-        <v>132</v>
-      </c>
-      <c r="G117" t="s"/>
+        <v>158</v>
+      </c>
+      <c r="G117" t="s">
+        <v>159</v>
+      </c>
       <c r="H117" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="118" spans="1:8">
+        <v>160</v>
+      </c>
+      <c r="I117" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9">
       <c r="A118" s="1" t="n">
         <v>116</v>
       </c>
       <c r="B118" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C118" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D118" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E118" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F118" t="s">
-        <v>17</v>
-      </c>
-      <c r="G118" t="s"/>
-      <c r="H118" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="119" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G118" t="s">
+        <v>23</v>
+      </c>
+      <c r="H118" t="s"/>
+      <c r="I118" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9">
       <c r="A119" s="1" t="n">
         <v>117</v>
       </c>
       <c r="B119" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C119" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D119" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E119" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F119" t="s">
-        <v>132</v>
-      </c>
-      <c r="G119" t="s"/>
+        <v>158</v>
+      </c>
+      <c r="G119" t="s">
+        <v>159</v>
+      </c>
       <c r="H119" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="120" spans="1:8">
+        <v>160</v>
+      </c>
+      <c r="I119" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9">
       <c r="A120" s="1" t="n">
         <v>118</v>
       </c>
       <c r="B120" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C120" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D120" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E120" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F120" t="s">
-        <v>11</v>
-      </c>
-      <c r="G120" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G120" t="s">
+        <v>13</v>
+      </c>
       <c r="H120" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="121" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I120" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9">
       <c r="A121" s="1" t="n">
         <v>119</v>
       </c>
       <c r="B121" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C121" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D121" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E121" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F121" t="s">
-        <v>143</v>
-      </c>
-      <c r="G121" t="s"/>
+        <v>171</v>
+      </c>
+      <c r="G121" t="s">
+        <v>172</v>
+      </c>
       <c r="H121" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="122" spans="1:8">
+        <v>173</v>
+      </c>
+      <c r="I121" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9">
       <c r="A122" s="1" t="n">
         <v>120</v>
       </c>
       <c r="B122" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C122" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D122" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E122" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F122" t="s">
-        <v>17</v>
-      </c>
-      <c r="G122" t="s"/>
-      <c r="H122" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="123" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G122" t="s">
+        <v>23</v>
+      </c>
+      <c r="H122" t="s"/>
+      <c r="I122" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9">
       <c r="A123" s="1" t="n">
         <v>121</v>
       </c>
       <c r="B123" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C123" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D123" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E123" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F123" t="s">
-        <v>143</v>
-      </c>
-      <c r="G123" t="s"/>
+        <v>171</v>
+      </c>
+      <c r="G123" t="s">
+        <v>172</v>
+      </c>
       <c r="H123" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="124" spans="1:8">
+        <v>173</v>
+      </c>
+      <c r="I123" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9">
       <c r="A124" s="1" t="n">
         <v>122</v>
       </c>
       <c r="B124" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C124" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D124" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E124" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F124" t="s">
-        <v>17</v>
-      </c>
-      <c r="G124" t="s"/>
-      <c r="H124" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="125" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G124" t="s">
+        <v>23</v>
+      </c>
+      <c r="H124" t="s"/>
+      <c r="I124" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9">
       <c r="A125" s="1" t="n">
         <v>123</v>
       </c>
       <c r="B125" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C125" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D125" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E125" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F125" t="s">
-        <v>143</v>
-      </c>
-      <c r="G125" t="s"/>
+        <v>171</v>
+      </c>
+      <c r="G125" t="s">
+        <v>172</v>
+      </c>
       <c r="H125" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="126" spans="1:8">
+        <v>173</v>
+      </c>
+      <c r="I125" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9">
       <c r="A126" s="1" t="n">
         <v>124</v>
       </c>
       <c r="B126" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C126" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D126" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E126" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F126" t="s">
-        <v>17</v>
-      </c>
-      <c r="G126" t="s"/>
-      <c r="H126" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="127" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G126" t="s">
+        <v>23</v>
+      </c>
+      <c r="H126" t="s"/>
+      <c r="I126" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9">
       <c r="A127" s="1" t="n">
         <v>125</v>
       </c>
       <c r="B127" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C127" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D127" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E127" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F127" t="s">
-        <v>143</v>
-      </c>
-      <c r="G127" t="s"/>
+        <v>171</v>
+      </c>
+      <c r="G127" t="s">
+        <v>172</v>
+      </c>
       <c r="H127" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="128" spans="1:8">
+        <v>173</v>
+      </c>
+      <c r="I127" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9">
       <c r="A128" s="1" t="n">
         <v>126</v>
       </c>
       <c r="B128" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C128" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D128" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E128" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F128" t="s">
-        <v>11</v>
-      </c>
-      <c r="G128" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G128" t="s">
+        <v>13</v>
+      </c>
       <c r="H128" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="129" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I128" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9">
       <c r="A129" s="1" t="n">
         <v>127</v>
       </c>
       <c r="B129" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C129" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D129" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E129" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F129" t="s">
-        <v>152</v>
-      </c>
-      <c r="G129" t="s"/>
+        <v>182</v>
+      </c>
+      <c r="G129" t="s">
+        <v>183</v>
+      </c>
       <c r="H129" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="130" spans="1:8">
+        <v>184</v>
+      </c>
+      <c r="I129" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9">
       <c r="A130" s="1" t="n">
         <v>128</v>
       </c>
       <c r="B130" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C130" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D130" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E130" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F130" t="s">
-        <v>17</v>
-      </c>
-      <c r="G130" t="s"/>
-      <c r="H130" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="131" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G130" t="s">
+        <v>23</v>
+      </c>
+      <c r="H130" t="s"/>
+      <c r="I130" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9">
       <c r="A131" s="1" t="n">
         <v>129</v>
       </c>
       <c r="B131" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C131" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D131" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E131" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F131" t="s">
-        <v>152</v>
-      </c>
-      <c r="G131" t="s"/>
+        <v>182</v>
+      </c>
+      <c r="G131" t="s">
+        <v>183</v>
+      </c>
       <c r="H131" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="132" spans="1:8">
+        <v>184</v>
+      </c>
+      <c r="I131" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9">
       <c r="A132" s="1" t="n">
         <v>130</v>
       </c>
       <c r="B132" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C132" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D132" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E132" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F132" t="s">
-        <v>17</v>
-      </c>
-      <c r="G132" t="s"/>
-      <c r="H132" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="133" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G132" t="s">
+        <v>23</v>
+      </c>
+      <c r="H132" t="s"/>
+      <c r="I132" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9">
       <c r="A133" s="1" t="n">
         <v>131</v>
       </c>
       <c r="B133" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C133" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D133" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E133" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F133" t="s">
-        <v>152</v>
-      </c>
-      <c r="G133" t="s"/>
+        <v>182</v>
+      </c>
+      <c r="G133" t="s">
+        <v>183</v>
+      </c>
       <c r="H133" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="134" spans="1:8">
+        <v>184</v>
+      </c>
+      <c r="I133" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9">
       <c r="A134" s="1" t="n">
         <v>132</v>
       </c>
       <c r="B134" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C134" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D134" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E134" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F134" t="s">
-        <v>17</v>
-      </c>
-      <c r="G134" t="s"/>
-      <c r="H134" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="135" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G134" t="s">
+        <v>23</v>
+      </c>
+      <c r="H134" t="s"/>
+      <c r="I134" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9">
       <c r="A135" s="1" t="n">
         <v>133</v>
       </c>
       <c r="B135" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C135" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D135" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E135" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F135" t="s">
-        <v>152</v>
-      </c>
-      <c r="G135" t="s"/>
+        <v>182</v>
+      </c>
+      <c r="G135" t="s">
+        <v>183</v>
+      </c>
       <c r="H135" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="136" spans="1:8">
+        <v>184</v>
+      </c>
+      <c r="I135" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9">
       <c r="A136" s="1" t="n">
         <v>134</v>
       </c>
       <c r="B136" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C136" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D136" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E136" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F136" t="s">
-        <v>11</v>
-      </c>
-      <c r="G136" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G136" t="s">
+        <v>13</v>
+      </c>
       <c r="H136" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="137" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I136" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9">
       <c r="A137" s="1" t="n">
         <v>135</v>
       </c>
       <c r="B137" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C137" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D137" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E137" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F137" t="s">
-        <v>161</v>
-      </c>
-      <c r="G137" t="s"/>
+        <v>193</v>
+      </c>
+      <c r="G137" t="s">
+        <v>194</v>
+      </c>
       <c r="H137" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="138" spans="1:8">
+        <v>195</v>
+      </c>
+      <c r="I137" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9">
       <c r="A138" s="1" t="n">
         <v>136</v>
       </c>
       <c r="B138" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C138" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D138" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E138" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F138" t="s">
-        <v>11</v>
-      </c>
-      <c r="G138" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G138" t="s">
+        <v>13</v>
+      </c>
       <c r="H138" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="139" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I138" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9">
       <c r="A139" s="1" t="n">
         <v>137</v>
       </c>
       <c r="B139" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C139" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D139" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E139" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F139" t="s">
-        <v>17</v>
-      </c>
-      <c r="G139" t="s"/>
-      <c r="H139" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="140" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G139" t="s">
+        <v>23</v>
+      </c>
+      <c r="H139" t="s"/>
+      <c r="I139" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9">
       <c r="A140" s="1" t="n">
         <v>138</v>
       </c>
       <c r="B140" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C140" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D140" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E140" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F140" t="s">
-        <v>161</v>
-      </c>
-      <c r="G140" t="s"/>
+        <v>193</v>
+      </c>
+      <c r="G140" t="s">
+        <v>194</v>
+      </c>
       <c r="H140" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="141" spans="1:8">
+        <v>195</v>
+      </c>
+      <c r="I140" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9">
       <c r="A141" s="1" t="n">
         <v>139</v>
       </c>
       <c r="B141" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C141" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D141" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E141" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F141" t="s">
-        <v>17</v>
-      </c>
-      <c r="G141" t="s"/>
-      <c r="H141" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="142" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G141" t="s">
+        <v>23</v>
+      </c>
+      <c r="H141" t="s"/>
+      <c r="I141" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9">
       <c r="A142" s="1" t="n">
         <v>140</v>
       </c>
       <c r="B142" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C142" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D142" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E142" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F142" t="s">
-        <v>161</v>
-      </c>
-      <c r="G142" t="s"/>
+        <v>193</v>
+      </c>
+      <c r="G142" t="s">
+        <v>194</v>
+      </c>
       <c r="H142" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="143" spans="1:8">
+        <v>195</v>
+      </c>
+      <c r="I142" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9">
       <c r="A143" s="1" t="n">
         <v>141</v>
       </c>
       <c r="B143" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C143" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D143" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E143" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F143" t="s">
-        <v>17</v>
-      </c>
-      <c r="G143" t="s"/>
-      <c r="H143" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="144" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G143" t="s">
+        <v>23</v>
+      </c>
+      <c r="H143" t="s"/>
+      <c r="I143" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9">
       <c r="A144" s="1" t="n">
         <v>142</v>
       </c>
       <c r="B144" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C144" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D144" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E144" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F144" t="s">
-        <v>161</v>
-      </c>
-      <c r="G144" t="s"/>
+        <v>193</v>
+      </c>
+      <c r="G144" t="s">
+        <v>194</v>
+      </c>
       <c r="H144" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="145" spans="1:8">
+        <v>195</v>
+      </c>
+      <c r="I144" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9">
       <c r="A145" s="1" t="n">
         <v>143</v>
       </c>
       <c r="B145" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C145" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D145" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E145" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F145" t="s">
-        <v>17</v>
-      </c>
-      <c r="G145" t="s"/>
-      <c r="H145" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="146" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G145" t="s">
+        <v>23</v>
+      </c>
+      <c r="H145" t="s"/>
+      <c r="I145" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9">
       <c r="A146" s="1" t="n">
         <v>144</v>
       </c>
       <c r="B146" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C146" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D146" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E146" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F146" t="s">
-        <v>161</v>
-      </c>
-      <c r="G146" t="s"/>
+        <v>193</v>
+      </c>
+      <c r="G146" t="s">
+        <v>194</v>
+      </c>
       <c r="H146" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="147" spans="1:8">
+        <v>195</v>
+      </c>
+      <c r="I146" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9">
       <c r="A147" s="1" t="n">
         <v>145</v>
       </c>
       <c r="B147" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C147" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D147" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E147" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F147" t="s">
-        <v>11</v>
-      </c>
-      <c r="G147" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G147" t="s">
+        <v>13</v>
+      </c>
       <c r="H147" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="148" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I147" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9">
       <c r="A148" s="1" t="n">
         <v>146</v>
       </c>
       <c r="B148" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C148" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D148" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E148" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F148" t="s">
-        <v>173</v>
-      </c>
-      <c r="G148" t="s"/>
+        <v>207</v>
+      </c>
+      <c r="G148" t="s">
+        <v>208</v>
+      </c>
       <c r="H148" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="149" spans="1:8">
+        <v>209</v>
+      </c>
+      <c r="I148" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9">
       <c r="A149" s="1" t="n">
         <v>147</v>
       </c>
       <c r="B149" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C149" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D149" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E149" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F149" t="s">
-        <v>17</v>
-      </c>
-      <c r="G149" t="s"/>
-      <c r="H149" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="150" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G149" t="s">
+        <v>23</v>
+      </c>
+      <c r="H149" t="s"/>
+      <c r="I149" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9">
       <c r="A150" s="1" t="n">
         <v>148</v>
       </c>
       <c r="B150" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C150" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D150" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E150" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F150" t="s">
-        <v>173</v>
-      </c>
-      <c r="G150" t="s"/>
+        <v>207</v>
+      </c>
+      <c r="G150" t="s">
+        <v>208</v>
+      </c>
       <c r="H150" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="151" spans="1:8">
+        <v>209</v>
+      </c>
+      <c r="I150" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9">
       <c r="A151" s="1" t="n">
         <v>149</v>
       </c>
       <c r="B151" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C151" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D151" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E151" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F151" t="s">
-        <v>17</v>
-      </c>
-      <c r="G151" t="s"/>
-      <c r="H151" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="152" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G151" t="s">
+        <v>23</v>
+      </c>
+      <c r="H151" t="s"/>
+      <c r="I151" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9">
       <c r="A152" s="1" t="n">
         <v>150</v>
       </c>
       <c r="B152" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C152" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D152" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E152" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F152" t="s">
-        <v>173</v>
-      </c>
-      <c r="G152" t="s"/>
+        <v>207</v>
+      </c>
+      <c r="G152" t="s">
+        <v>208</v>
+      </c>
       <c r="H152" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="153" spans="1:8">
+        <v>209</v>
+      </c>
+      <c r="I152" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9">
       <c r="A153" s="1" t="n">
         <v>151</v>
       </c>
       <c r="B153" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C153" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D153" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E153" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F153" t="s">
-        <v>11</v>
-      </c>
-      <c r="G153" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G153" t="s">
+        <v>13</v>
+      </c>
       <c r="H153" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="154" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I153" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="154" spans="1:9">
       <c r="A154" s="1" t="n">
         <v>152</v>
       </c>
       <c r="B154" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C154" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D154" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E154" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F154" t="s">
-        <v>180</v>
-      </c>
-      <c r="G154" t="s"/>
+        <v>216</v>
+      </c>
+      <c r="G154" t="s">
+        <v>217</v>
+      </c>
       <c r="H154" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="155" spans="1:8">
+        <v>195</v>
+      </c>
+      <c r="I154" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="155" spans="1:9">
       <c r="A155" s="1" t="n">
         <v>153</v>
       </c>
       <c r="B155" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C155" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D155" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E155" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F155" t="s">
-        <v>17</v>
-      </c>
-      <c r="G155" t="s"/>
-      <c r="H155" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="156" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G155" t="s">
+        <v>23</v>
+      </c>
+      <c r="H155" t="s"/>
+      <c r="I155" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="156" spans="1:9">
       <c r="A156" s="1" t="n">
         <v>154</v>
       </c>
       <c r="B156" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C156" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D156" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E156" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F156" t="s">
-        <v>180</v>
-      </c>
-      <c r="G156" t="s"/>
+        <v>216</v>
+      </c>
+      <c r="G156" t="s">
+        <v>217</v>
+      </c>
       <c r="H156" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="157" spans="1:8">
+        <v>195</v>
+      </c>
+      <c r="I156" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="157" spans="1:9">
       <c r="A157" s="1" t="n">
         <v>155</v>
       </c>
       <c r="B157" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C157" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D157" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E157" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F157" t="s">
-        <v>17</v>
-      </c>
-      <c r="G157" t="s"/>
-      <c r="H157" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="158" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G157" t="s">
+        <v>23</v>
+      </c>
+      <c r="H157" t="s"/>
+      <c r="I157" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="158" spans="1:9">
       <c r="A158" s="1" t="n">
         <v>156</v>
       </c>
       <c r="B158" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C158" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D158" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E158" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F158" t="s">
-        <v>180</v>
-      </c>
-      <c r="G158" t="s"/>
+        <v>216</v>
+      </c>
+      <c r="G158" t="s">
+        <v>217</v>
+      </c>
       <c r="H158" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="159" spans="1:8">
+        <v>195</v>
+      </c>
+      <c r="I158" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="159" spans="1:9">
       <c r="A159" s="1" t="n">
         <v>157</v>
       </c>
       <c r="B159" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C159" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D159" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E159" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F159" t="s">
-        <v>17</v>
-      </c>
-      <c r="G159" t="s"/>
-      <c r="H159" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="160" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G159" t="s">
+        <v>23</v>
+      </c>
+      <c r="H159" t="s"/>
+      <c r="I159" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="160" spans="1:9">
       <c r="A160" s="1" t="n">
         <v>158</v>
       </c>
       <c r="B160" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C160" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D160" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E160" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F160" t="s">
-        <v>180</v>
-      </c>
-      <c r="G160" t="s"/>
+        <v>216</v>
+      </c>
+      <c r="G160" t="s">
+        <v>217</v>
+      </c>
       <c r="H160" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="161" spans="1:8">
+        <v>195</v>
+      </c>
+      <c r="I160" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="161" spans="1:9">
       <c r="A161" s="1" t="n">
         <v>159</v>
       </c>
       <c r="B161" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C161" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D161" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E161" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F161" t="s">
-        <v>11</v>
-      </c>
-      <c r="G161" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G161" t="s">
+        <v>13</v>
+      </c>
       <c r="H161" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="162" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I161" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="162" spans="1:9">
       <c r="A162" s="1" t="n">
         <v>160</v>
       </c>
       <c r="B162" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C162" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D162" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E162" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F162" t="s">
-        <v>17</v>
-      </c>
-      <c r="G162" t="s"/>
-      <c r="H162" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="163" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G162" t="s">
+        <v>23</v>
+      </c>
+      <c r="H162" t="s"/>
+      <c r="I162" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="163" spans="1:9">
       <c r="A163" s="1" t="n">
         <v>161</v>
       </c>
       <c r="B163" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C163" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D163" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E163" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F163" t="s">
-        <v>190</v>
-      </c>
-      <c r="G163" t="s"/>
+        <v>227</v>
+      </c>
+      <c r="G163" t="s">
+        <v>228</v>
+      </c>
       <c r="H163" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="164" spans="1:8">
+        <v>229</v>
+      </c>
+      <c r="I163" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="164" spans="1:9">
       <c r="A164" s="1" t="n">
         <v>162</v>
       </c>
       <c r="B164" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C164" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D164" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E164" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F164" t="s">
-        <v>17</v>
-      </c>
-      <c r="G164" t="s"/>
-      <c r="H164" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="165" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G164" t="s">
+        <v>23</v>
+      </c>
+      <c r="H164" t="s"/>
+      <c r="I164" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="165" spans="1:9">
       <c r="A165" s="1" t="n">
         <v>163</v>
       </c>
       <c r="B165" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C165" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D165" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E165" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F165" t="s">
-        <v>190</v>
-      </c>
-      <c r="G165" t="s"/>
+        <v>227</v>
+      </c>
+      <c r="G165" t="s">
+        <v>228</v>
+      </c>
       <c r="H165" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="166" spans="1:8">
+        <v>229</v>
+      </c>
+      <c r="I165" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="166" spans="1:9">
       <c r="A166" s="1" t="n">
         <v>164</v>
       </c>
       <c r="B166" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C166" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D166" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E166" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F166" t="s">
-        <v>17</v>
-      </c>
-      <c r="G166" t="s"/>
-      <c r="H166" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="167" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G166" t="s">
+        <v>23</v>
+      </c>
+      <c r="H166" t="s"/>
+      <c r="I166" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="167" spans="1:9">
       <c r="A167" s="1" t="n">
         <v>165</v>
       </c>
       <c r="B167" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C167" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D167" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E167" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F167" t="s">
-        <v>190</v>
-      </c>
-      <c r="G167" t="s"/>
+        <v>227</v>
+      </c>
+      <c r="G167" t="s">
+        <v>228</v>
+      </c>
       <c r="H167" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="168" spans="1:8">
+        <v>229</v>
+      </c>
+      <c r="I167" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="168" spans="1:9">
       <c r="A168" s="1" t="n">
         <v>166</v>
       </c>
       <c r="B168" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C168" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D168" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E168" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F168" t="s">
-        <v>17</v>
-      </c>
-      <c r="G168" t="s"/>
-      <c r="H168" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="169" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G168" t="s">
+        <v>23</v>
+      </c>
+      <c r="H168" t="s"/>
+      <c r="I168" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="169" spans="1:9">
       <c r="A169" s="1" t="n">
         <v>167</v>
       </c>
       <c r="B169" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C169" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D169" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E169" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F169" t="s">
-        <v>190</v>
-      </c>
-      <c r="G169" t="s"/>
+        <v>227</v>
+      </c>
+      <c r="G169" t="s">
+        <v>228</v>
+      </c>
       <c r="H169" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="170" spans="1:8">
+        <v>229</v>
+      </c>
+      <c r="I169" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="170" spans="1:9">
       <c r="A170" s="1" t="n">
         <v>168</v>
       </c>
       <c r="B170" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C170" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D170" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E170" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F170" t="s">
-        <v>17</v>
-      </c>
-      <c r="G170" t="s"/>
-      <c r="H170" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="171" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G170" t="s">
+        <v>23</v>
+      </c>
+      <c r="H170" t="s"/>
+      <c r="I170" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="171" spans="1:9">
       <c r="A171" s="1" t="n">
         <v>169</v>
       </c>
       <c r="B171" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C171" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D171" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E171" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F171" t="s">
-        <v>190</v>
-      </c>
-      <c r="G171" t="s"/>
+        <v>227</v>
+      </c>
+      <c r="G171" t="s">
+        <v>228</v>
+      </c>
       <c r="H171" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="172" spans="1:8">
+        <v>229</v>
+      </c>
+      <c r="I171" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="172" spans="1:9">
       <c r="A172" s="1" t="n">
         <v>170</v>
       </c>
       <c r="B172" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C172" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D172" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E172" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F172" t="s">
-        <v>17</v>
-      </c>
-      <c r="G172" t="s"/>
-      <c r="H172" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="173" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G172" t="s">
+        <v>23</v>
+      </c>
+      <c r="H172" t="s"/>
+      <c r="I172" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="173" spans="1:9">
       <c r="A173" s="1" t="n">
         <v>171</v>
       </c>
       <c r="B173" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C173" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D173" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E173" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F173" t="s">
-        <v>190</v>
-      </c>
-      <c r="G173" t="s"/>
+        <v>227</v>
+      </c>
+      <c r="G173" t="s">
+        <v>228</v>
+      </c>
       <c r="H173" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="174" spans="1:8">
+        <v>229</v>
+      </c>
+      <c r="I173" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="174" spans="1:9">
       <c r="A174" s="1" t="n">
         <v>172</v>
       </c>
       <c r="B174" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C174" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D174" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E174" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F174" t="s">
-        <v>17</v>
-      </c>
-      <c r="G174" t="s"/>
-      <c r="H174" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="175" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G174" t="s">
+        <v>23</v>
+      </c>
+      <c r="H174" t="s"/>
+      <c r="I174" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="175" spans="1:9">
       <c r="A175" s="1" t="n">
         <v>173</v>
       </c>
       <c r="B175" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C175" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D175" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E175" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F175" t="s">
-        <v>190</v>
-      </c>
-      <c r="G175" t="s"/>
+        <v>227</v>
+      </c>
+      <c r="G175" t="s">
+        <v>228</v>
+      </c>
       <c r="H175" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="176" spans="1:8">
+        <v>229</v>
+      </c>
+      <c r="I175" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="176" spans="1:9">
       <c r="A176" s="1" t="n">
         <v>174</v>
       </c>
       <c r="B176" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C176" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D176" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E176" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F176" t="s">
-        <v>17</v>
-      </c>
-      <c r="G176" t="s"/>
-      <c r="H176" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="177" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G176" t="s">
+        <v>23</v>
+      </c>
+      <c r="H176" t="s"/>
+      <c r="I176" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="177" spans="1:9">
       <c r="A177" s="1" t="n">
         <v>175</v>
       </c>
       <c r="B177" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C177" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D177" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E177" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F177" t="s">
-        <v>190</v>
-      </c>
-      <c r="G177" t="s"/>
+        <v>227</v>
+      </c>
+      <c r="G177" t="s">
+        <v>228</v>
+      </c>
       <c r="H177" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="178" spans="1:8">
+        <v>229</v>
+      </c>
+      <c r="I177" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="178" spans="1:9">
       <c r="A178" s="1" t="n">
         <v>176</v>
       </c>
       <c r="B178" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C178" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D178" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E178" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F178" t="s">
-        <v>17</v>
-      </c>
-      <c r="G178" t="s"/>
-      <c r="H178" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="179" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G178" t="s">
+        <v>23</v>
+      </c>
+      <c r="H178" t="s"/>
+      <c r="I178" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="179" spans="1:9">
       <c r="A179" s="1" t="n">
         <v>177</v>
       </c>
       <c r="B179" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C179" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D179" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E179" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F179" t="s">
-        <v>190</v>
-      </c>
-      <c r="G179" t="s"/>
+        <v>227</v>
+      </c>
+      <c r="G179" t="s">
+        <v>228</v>
+      </c>
       <c r="H179" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="180" spans="1:8">
+        <v>229</v>
+      </c>
+      <c r="I179" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="180" spans="1:9">
       <c r="A180" s="1" t="n">
         <v>178</v>
       </c>
       <c r="B180" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C180" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D180" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E180" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F180" t="s">
-        <v>17</v>
-      </c>
-      <c r="G180" t="s"/>
-      <c r="H180" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="181" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G180" t="s">
+        <v>23</v>
+      </c>
+      <c r="H180" t="s"/>
+      <c r="I180" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="181" spans="1:9">
       <c r="A181" s="1" t="n">
         <v>179</v>
       </c>
       <c r="B181" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C181" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D181" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E181" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F181" t="s">
-        <v>190</v>
-      </c>
-      <c r="G181" t="s"/>
+        <v>227</v>
+      </c>
+      <c r="G181" t="s">
+        <v>228</v>
+      </c>
       <c r="H181" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="182" spans="1:8">
+        <v>229</v>
+      </c>
+      <c r="I181" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="182" spans="1:9">
       <c r="A182" s="1" t="n">
         <v>180</v>
       </c>
       <c r="B182" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C182" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D182" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E182" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F182" t="s">
-        <v>17</v>
-      </c>
-      <c r="G182" t="s"/>
-      <c r="H182" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="183" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G182" t="s">
+        <v>23</v>
+      </c>
+      <c r="H182" t="s"/>
+      <c r="I182" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="183" spans="1:9">
       <c r="A183" s="1" t="n">
         <v>181</v>
       </c>
       <c r="B183" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C183" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D183" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E183" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F183" t="s">
-        <v>190</v>
-      </c>
-      <c r="G183" t="s"/>
+        <v>227</v>
+      </c>
+      <c r="G183" t="s">
+        <v>228</v>
+      </c>
       <c r="H183" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="184" spans="1:8">
+        <v>229</v>
+      </c>
+      <c r="I183" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="184" spans="1:9">
       <c r="A184" s="1" t="n">
         <v>182</v>
       </c>
       <c r="B184" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C184" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D184" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E184" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F184" t="s">
-        <v>17</v>
-      </c>
-      <c r="G184" t="s"/>
-      <c r="H184" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="185" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G184" t="s">
+        <v>23</v>
+      </c>
+      <c r="H184" t="s"/>
+      <c r="I184" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="185" spans="1:9">
       <c r="A185" s="1" t="n">
         <v>183</v>
       </c>
       <c r="B185" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C185" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D185" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E185" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F185" t="s">
-        <v>190</v>
-      </c>
-      <c r="G185" t="s"/>
+        <v>227</v>
+      </c>
+      <c r="G185" t="s">
+        <v>228</v>
+      </c>
       <c r="H185" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="186" spans="1:8">
+        <v>229</v>
+      </c>
+      <c r="I185" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="186" spans="1:9">
       <c r="A186" s="1" t="n">
         <v>184</v>
       </c>
       <c r="B186" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C186" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D186" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E186" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F186" t="s">
-        <v>17</v>
-      </c>
-      <c r="G186" t="s"/>
-      <c r="H186" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="187" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G186" t="s">
+        <v>23</v>
+      </c>
+      <c r="H186" t="s"/>
+      <c r="I186" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="187" spans="1:9">
       <c r="A187" s="1" t="n">
         <v>185</v>
       </c>
       <c r="B187" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C187" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D187" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E187" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F187" t="s">
-        <v>11</v>
-      </c>
-      <c r="G187" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G187" t="s">
+        <v>13</v>
+      </c>
       <c r="H187" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="188" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I187" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="188" spans="1:9">
       <c r="A188" s="1" t="n">
         <v>186</v>
       </c>
       <c r="B188" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C188" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D188" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E188" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F188" t="s">
-        <v>214</v>
-      </c>
-      <c r="G188" t="s"/>
+        <v>253</v>
+      </c>
+      <c r="G188" t="s">
+        <v>254</v>
+      </c>
       <c r="H188" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="189" spans="1:8">
+        <v>255</v>
+      </c>
+      <c r="I188" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="189" spans="1:9">
       <c r="A189" s="1" t="n">
         <v>187</v>
       </c>
       <c r="B189" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C189" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D189" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E189" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F189" t="s">
-        <v>17</v>
-      </c>
-      <c r="G189" t="s"/>
-      <c r="H189" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="190" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G189" t="s">
+        <v>23</v>
+      </c>
+      <c r="H189" t="s"/>
+      <c r="I189" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="190" spans="1:9">
       <c r="A190" s="1" t="n">
         <v>188</v>
       </c>
       <c r="B190" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C190" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D190" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E190" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F190" t="s">
-        <v>214</v>
-      </c>
-      <c r="G190" t="s"/>
+        <v>253</v>
+      </c>
+      <c r="G190" t="s">
+        <v>254</v>
+      </c>
       <c r="H190" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="191" spans="1:8">
+        <v>255</v>
+      </c>
+      <c r="I190" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="191" spans="1:9">
       <c r="A191" s="1" t="n">
         <v>189</v>
       </c>
       <c r="B191" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C191" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D191" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E191" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F191" t="s">
-        <v>17</v>
-      </c>
-      <c r="G191" t="s"/>
-      <c r="H191" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="192" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G191" t="s">
+        <v>23</v>
+      </c>
+      <c r="H191" t="s"/>
+      <c r="I191" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="192" spans="1:9">
       <c r="A192" s="1" t="n">
         <v>190</v>
       </c>
       <c r="B192" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C192" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D192" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E192" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F192" t="s">
-        <v>214</v>
-      </c>
-      <c r="G192" t="s"/>
+        <v>253</v>
+      </c>
+      <c r="G192" t="s">
+        <v>254</v>
+      </c>
       <c r="H192" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="193" spans="1:8">
+        <v>255</v>
+      </c>
+      <c r="I192" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="193" spans="1:9">
       <c r="A193" s="1" t="n">
         <v>191</v>
       </c>
       <c r="B193" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C193" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D193" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E193" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F193" t="s">
-        <v>11</v>
-      </c>
-      <c r="G193" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G193" t="s">
+        <v>13</v>
+      </c>
       <c r="H193" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="194" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I193" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="194" spans="1:9">
       <c r="A194" s="1" t="n">
         <v>192</v>
       </c>
       <c r="B194" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C194" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D194" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E194" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F194" t="s">
-        <v>221</v>
-      </c>
-      <c r="G194" t="s"/>
+        <v>262</v>
+      </c>
+      <c r="G194" t="s">
+        <v>263</v>
+      </c>
       <c r="H194" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="195" spans="1:8">
+        <v>264</v>
+      </c>
+      <c r="I194" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="195" spans="1:9">
       <c r="A195" s="1" t="n">
         <v>193</v>
       </c>
       <c r="B195" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C195" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D195" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E195" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F195" t="s">
-        <v>17</v>
-      </c>
-      <c r="G195" t="s"/>
-      <c r="H195" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="196" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G195" t="s">
+        <v>23</v>
+      </c>
+      <c r="H195" t="s"/>
+      <c r="I195" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="196" spans="1:9">
       <c r="A196" s="1" t="n">
         <v>194</v>
       </c>
       <c r="B196" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C196" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D196" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E196" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F196" t="s">
-        <v>221</v>
-      </c>
-      <c r="G196" t="s"/>
+        <v>262</v>
+      </c>
+      <c r="G196" t="s">
+        <v>263</v>
+      </c>
       <c r="H196" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="197" spans="1:8">
+        <v>264</v>
+      </c>
+      <c r="I196" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="197" spans="1:9">
       <c r="A197" s="1" t="n">
         <v>195</v>
       </c>
       <c r="B197" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C197" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D197" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E197" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F197" t="s">
-        <v>17</v>
-      </c>
-      <c r="G197" t="s"/>
-      <c r="H197" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="198" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G197" t="s">
+        <v>23</v>
+      </c>
+      <c r="H197" t="s"/>
+      <c r="I197" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="198" spans="1:9">
       <c r="A198" s="1" t="n">
         <v>196</v>
       </c>
       <c r="B198" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C198" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D198" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E198" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F198" t="s">
-        <v>221</v>
-      </c>
-      <c r="G198" t="s"/>
+        <v>262</v>
+      </c>
+      <c r="G198" t="s">
+        <v>263</v>
+      </c>
       <c r="H198" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="199" spans="1:8">
+        <v>264</v>
+      </c>
+      <c r="I198" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="199" spans="1:9">
       <c r="A199" s="1" t="n">
         <v>197</v>
       </c>
       <c r="B199" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C199" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D199" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E199" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F199" t="s">
-        <v>17</v>
-      </c>
-      <c r="G199" t="s"/>
-      <c r="H199" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="200" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G199" t="s">
+        <v>23</v>
+      </c>
+      <c r="H199" t="s"/>
+      <c r="I199" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="200" spans="1:9">
       <c r="A200" s="1" t="n">
         <v>198</v>
       </c>
       <c r="B200" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C200" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D200" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E200" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F200" t="s">
-        <v>221</v>
-      </c>
-      <c r="G200" t="s"/>
+        <v>262</v>
+      </c>
+      <c r="G200" t="s">
+        <v>263</v>
+      </c>
       <c r="H200" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="201" spans="1:8">
+        <v>264</v>
+      </c>
+      <c r="I200" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="201" spans="1:9">
       <c r="A201" s="1" t="n">
         <v>199</v>
       </c>
       <c r="B201" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C201" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D201" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E201" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F201" t="s">
-        <v>11</v>
-      </c>
-      <c r="G201" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G201" t="s">
+        <v>13</v>
+      </c>
       <c r="H201" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="202" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I201" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="202" spans="1:9">
       <c r="A202" s="1" t="n">
         <v>200</v>
       </c>
       <c r="B202" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C202" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D202" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E202" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F202" t="s">
-        <v>230</v>
-      </c>
-      <c r="G202" t="s"/>
+        <v>273</v>
+      </c>
+      <c r="G202" t="s">
+        <v>274</v>
+      </c>
       <c r="H202" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="203" spans="1:8">
+        <v>108</v>
+      </c>
+      <c r="I202" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="203" spans="1:9">
       <c r="A203" s="1" t="n">
         <v>201</v>
       </c>
       <c r="B203" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C203" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D203" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E203" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F203" t="s">
-        <v>17</v>
-      </c>
-      <c r="G203" t="s"/>
-      <c r="H203" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="204" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G203" t="s">
+        <v>23</v>
+      </c>
+      <c r="H203" t="s"/>
+      <c r="I203" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="204" spans="1:9">
       <c r="A204" s="1" t="n">
         <v>202</v>
       </c>
       <c r="B204" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C204" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D204" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E204" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F204" t="s">
-        <v>230</v>
-      </c>
-      <c r="G204" t="s"/>
+        <v>273</v>
+      </c>
+      <c r="G204" t="s">
+        <v>274</v>
+      </c>
       <c r="H204" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="205" spans="1:8">
+        <v>108</v>
+      </c>
+      <c r="I204" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="205" spans="1:9">
       <c r="A205" s="1" t="n">
         <v>203</v>
       </c>
       <c r="B205" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C205" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D205" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E205" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F205" t="s">
-        <v>17</v>
-      </c>
-      <c r="G205" t="s"/>
-      <c r="H205" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="206" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G205" t="s">
+        <v>23</v>
+      </c>
+      <c r="H205" t="s"/>
+      <c r="I205" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="206" spans="1:9">
       <c r="A206" s="1" t="n">
         <v>204</v>
       </c>
       <c r="B206" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C206" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D206" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E206" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F206" t="s">
-        <v>230</v>
-      </c>
-      <c r="G206" t="s"/>
+        <v>273</v>
+      </c>
+      <c r="G206" t="s">
+        <v>274</v>
+      </c>
       <c r="H206" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="207" spans="1:8">
+        <v>108</v>
+      </c>
+      <c r="I206" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="207" spans="1:9">
       <c r="A207" s="1" t="n">
         <v>205</v>
       </c>
       <c r="B207" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C207" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D207" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E207" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F207" t="s">
-        <v>17</v>
-      </c>
-      <c r="G207" t="s"/>
-      <c r="H207" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="208" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G207" t="s">
+        <v>23</v>
+      </c>
+      <c r="H207" t="s"/>
+      <c r="I207" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="208" spans="1:9">
       <c r="A208" s="1" t="n">
         <v>206</v>
       </c>
       <c r="B208" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C208" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D208" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E208" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F208" t="s">
-        <v>230</v>
-      </c>
-      <c r="G208" t="s"/>
+        <v>273</v>
+      </c>
+      <c r="G208" t="s">
+        <v>274</v>
+      </c>
       <c r="H208" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="209" spans="1:8">
+        <v>108</v>
+      </c>
+      <c r="I208" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="209" spans="1:9">
       <c r="A209" s="1" t="n">
         <v>207</v>
       </c>
       <c r="B209" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C209" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D209" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E209" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F209" t="s">
-        <v>17</v>
-      </c>
-      <c r="G209" t="s"/>
-      <c r="H209" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="210" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G209" t="s">
+        <v>23</v>
+      </c>
+      <c r="H209" t="s"/>
+      <c r="I209" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="210" spans="1:9">
       <c r="A210" s="1" t="n">
         <v>208</v>
       </c>
       <c r="B210" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C210" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D210" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E210" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F210" t="s">
-        <v>230</v>
-      </c>
-      <c r="G210" t="s"/>
+        <v>273</v>
+      </c>
+      <c r="G210" t="s">
+        <v>274</v>
+      </c>
       <c r="H210" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="211" spans="1:8">
+        <v>108</v>
+      </c>
+      <c r="I210" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="211" spans="1:9">
       <c r="A211" s="1" t="n">
         <v>209</v>
       </c>
       <c r="B211" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C211" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D211" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E211" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F211" t="s">
-        <v>11</v>
-      </c>
-      <c r="G211" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G211" t="s">
+        <v>13</v>
+      </c>
       <c r="H211" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="212" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I211" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="212" spans="1:9">
       <c r="A212" s="1" t="n">
         <v>210</v>
       </c>
       <c r="B212" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C212" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D212" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E212" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F212" t="s">
-        <v>240</v>
-      </c>
-      <c r="G212" t="s"/>
+        <v>284</v>
+      </c>
+      <c r="G212" t="s">
+        <v>285</v>
+      </c>
       <c r="H212" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="213" spans="1:8">
+        <v>286</v>
+      </c>
+      <c r="I212" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="213" spans="1:9">
       <c r="A213" s="1" t="n">
         <v>211</v>
       </c>
       <c r="B213" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C213" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D213" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E213" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F213" t="s">
-        <v>17</v>
-      </c>
-      <c r="G213" t="s"/>
-      <c r="H213" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="214" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G213" t="s">
+        <v>23</v>
+      </c>
+      <c r="H213" t="s"/>
+      <c r="I213" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="214" spans="1:9">
       <c r="A214" s="1" t="n">
         <v>212</v>
       </c>
       <c r="B214" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C214" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D214" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E214" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F214" t="s">
-        <v>240</v>
-      </c>
-      <c r="G214" t="s"/>
+        <v>284</v>
+      </c>
+      <c r="G214" t="s">
+        <v>285</v>
+      </c>
       <c r="H214" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="215" spans="1:8">
+        <v>286</v>
+      </c>
+      <c r="I214" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="215" spans="1:9">
       <c r="A215" s="1" t="n">
         <v>213</v>
       </c>
       <c r="B215" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C215" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D215" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E215" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F215" t="s">
-        <v>17</v>
-      </c>
-      <c r="G215" t="s"/>
-      <c r="H215" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="216" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G215" t="s">
+        <v>23</v>
+      </c>
+      <c r="H215" t="s"/>
+      <c r="I215" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="216" spans="1:9">
       <c r="A216" s="1" t="n">
         <v>214</v>
       </c>
       <c r="B216" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C216" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D216" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E216" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F216" t="s">
-        <v>240</v>
-      </c>
-      <c r="G216" t="s"/>
+        <v>284</v>
+      </c>
+      <c r="G216" t="s">
+        <v>285</v>
+      </c>
       <c r="H216" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="217" spans="1:8">
+        <v>286</v>
+      </c>
+      <c r="I216" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="217" spans="1:9">
       <c r="A217" s="1" t="n">
         <v>215</v>
       </c>
       <c r="B217" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C217" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D217" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E217" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F217" t="s">
-        <v>17</v>
-      </c>
-      <c r="G217" t="s"/>
-      <c r="H217" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="218" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G217" t="s">
+        <v>23</v>
+      </c>
+      <c r="H217" t="s"/>
+      <c r="I217" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="218" spans="1:9">
       <c r="A218" s="1" t="n">
         <v>216</v>
       </c>
       <c r="B218" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C218" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D218" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E218" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F218" t="s">
-        <v>240</v>
-      </c>
-      <c r="G218" t="s"/>
+        <v>284</v>
+      </c>
+      <c r="G218" t="s">
+        <v>285</v>
+      </c>
       <c r="H218" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="219" spans="1:8">
+        <v>286</v>
+      </c>
+      <c r="I218" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="219" spans="1:9">
       <c r="A219" s="1" t="n">
         <v>217</v>
       </c>
       <c r="B219" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C219" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D219" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E219" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F219" t="s">
-        <v>17</v>
-      </c>
-      <c r="G219" t="s"/>
-      <c r="H219" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="220" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G219" t="s">
+        <v>23</v>
+      </c>
+      <c r="H219" t="s"/>
+      <c r="I219" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="220" spans="1:9">
       <c r="A220" s="1" t="n">
         <v>218</v>
       </c>
       <c r="B220" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C220" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D220" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E220" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F220" t="s">
-        <v>240</v>
-      </c>
-      <c r="G220" t="s"/>
+        <v>284</v>
+      </c>
+      <c r="G220" t="s">
+        <v>285</v>
+      </c>
       <c r="H220" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="221" spans="1:8">
+        <v>286</v>
+      </c>
+      <c r="I220" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="221" spans="1:9">
       <c r="A221" s="1" t="n">
         <v>219</v>
       </c>
       <c r="B221" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C221" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D221" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E221" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F221" t="s">
-        <v>17</v>
-      </c>
-      <c r="G221" t="s"/>
-      <c r="H221" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="222" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G221" t="s">
+        <v>23</v>
+      </c>
+      <c r="H221" t="s"/>
+      <c r="I221" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="222" spans="1:9">
       <c r="A222" s="1" t="n">
         <v>220</v>
       </c>
       <c r="B222" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C222" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D222" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E222" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F222" t="s">
-        <v>240</v>
-      </c>
-      <c r="G222" t="s"/>
+        <v>284</v>
+      </c>
+      <c r="G222" t="s">
+        <v>285</v>
+      </c>
       <c r="H222" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="223" spans="1:8">
+        <v>286</v>
+      </c>
+      <c r="I222" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="223" spans="1:9">
       <c r="A223" s="1" t="n">
         <v>221</v>
       </c>
       <c r="B223" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C223" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D223" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E223" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F223" t="s">
-        <v>17</v>
-      </c>
-      <c r="G223" t="s"/>
-      <c r="H223" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="224" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G223" t="s">
+        <v>23</v>
+      </c>
+      <c r="H223" t="s"/>
+      <c r="I223" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="224" spans="1:9">
       <c r="A224" s="1" t="n">
         <v>222</v>
       </c>
       <c r="B224" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C224" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D224" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E224" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F224" t="s">
-        <v>240</v>
-      </c>
-      <c r="G224" t="s"/>
+        <v>284</v>
+      </c>
+      <c r="G224" t="s">
+        <v>285</v>
+      </c>
       <c r="H224" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="225" spans="1:8">
+        <v>286</v>
+      </c>
+      <c r="I224" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="225" spans="1:9">
       <c r="A225" s="1" t="n">
         <v>223</v>
       </c>
       <c r="B225" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C225" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D225" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E225" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F225" t="s">
-        <v>11</v>
-      </c>
-      <c r="G225" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G225" t="s">
+        <v>13</v>
+      </c>
       <c r="H225" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="226" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I225" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="226" spans="1:9">
       <c r="A226" s="1" t="n">
         <v>224</v>
       </c>
       <c r="B226" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C226" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D226" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E226" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F226" t="s">
-        <v>255</v>
-      </c>
-      <c r="G226" t="s"/>
+        <v>301</v>
+      </c>
+      <c r="G226" t="s">
+        <v>302</v>
+      </c>
       <c r="H226" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="227" spans="1:8">
+        <v>303</v>
+      </c>
+      <c r="I226" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="227" spans="1:9">
       <c r="A227" s="1" t="n">
         <v>225</v>
       </c>
       <c r="B227" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C227" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D227" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E227" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F227" t="s">
-        <v>17</v>
-      </c>
-      <c r="G227" t="s"/>
-      <c r="H227" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="228" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G227" t="s">
+        <v>23</v>
+      </c>
+      <c r="H227" t="s"/>
+      <c r="I227" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="228" spans="1:9">
       <c r="A228" s="1" t="n">
         <v>226</v>
       </c>
       <c r="B228" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C228" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D228" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E228" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F228" t="s">
-        <v>255</v>
-      </c>
-      <c r="G228" t="s"/>
+        <v>301</v>
+      </c>
+      <c r="G228" t="s">
+        <v>302</v>
+      </c>
       <c r="H228" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="229" spans="1:8">
+        <v>303</v>
+      </c>
+      <c r="I228" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="229" spans="1:9">
       <c r="A229" s="1" t="n">
         <v>227</v>
       </c>
       <c r="B229" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C229" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D229" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E229" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F229" t="s">
-        <v>17</v>
-      </c>
-      <c r="G229" t="s"/>
-      <c r="H229" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="230" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G229" t="s">
+        <v>23</v>
+      </c>
+      <c r="H229" t="s"/>
+      <c r="I229" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="230" spans="1:9">
       <c r="A230" s="1" t="n">
         <v>228</v>
       </c>
       <c r="B230" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C230" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D230" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E230" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F230" t="s">
-        <v>255</v>
-      </c>
-      <c r="G230" t="s"/>
+        <v>301</v>
+      </c>
+      <c r="G230" t="s">
+        <v>302</v>
+      </c>
       <c r="H230" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="231" spans="1:8">
+        <v>303</v>
+      </c>
+      <c r="I230" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="231" spans="1:9">
       <c r="A231" s="1" t="n">
         <v>229</v>
       </c>
       <c r="B231" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C231" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D231" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E231" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F231" t="s">
-        <v>11</v>
-      </c>
-      <c r="G231" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G231" t="s">
+        <v>13</v>
+      </c>
       <c r="H231" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="232" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I231" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="232" spans="1:9">
       <c r="A232" s="1" t="n">
         <v>230</v>
       </c>
       <c r="B232" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C232" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D232" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E232" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F232" t="s">
-        <v>262</v>
-      </c>
-      <c r="G232" t="s"/>
+        <v>310</v>
+      </c>
+      <c r="G232" t="s">
+        <v>311</v>
+      </c>
       <c r="H232" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="233" spans="1:8">
+        <v>312</v>
+      </c>
+      <c r="I232" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="233" spans="1:9">
       <c r="A233" s="1" t="n">
         <v>231</v>
       </c>
       <c r="B233" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C233" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D233" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E233" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F233" t="s">
-        <v>17</v>
-      </c>
-      <c r="G233" t="s"/>
-      <c r="H233" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="234" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G233" t="s">
+        <v>23</v>
+      </c>
+      <c r="H233" t="s"/>
+      <c r="I233" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="234" spans="1:9">
       <c r="A234" s="1" t="n">
         <v>232</v>
       </c>
       <c r="B234" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C234" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D234" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E234" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F234" t="s">
-        <v>262</v>
-      </c>
-      <c r="G234" t="s"/>
+        <v>310</v>
+      </c>
+      <c r="G234" t="s">
+        <v>311</v>
+      </c>
       <c r="H234" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="235" spans="1:8">
+        <v>312</v>
+      </c>
+      <c r="I234" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="235" spans="1:9">
       <c r="A235" s="1" t="n">
         <v>233</v>
       </c>
       <c r="B235" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C235" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D235" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E235" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F235" t="s">
-        <v>11</v>
-      </c>
-      <c r="G235" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G235" t="s">
+        <v>13</v>
+      </c>
       <c r="H235" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="236" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I235" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="236" spans="1:9">
       <c r="A236" s="1" t="n">
         <v>234</v>
       </c>
       <c r="B236" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C236" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D236" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E236" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F236" t="s">
-        <v>13</v>
-      </c>
-      <c r="G236" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G236" t="s">
+        <v>17</v>
+      </c>
       <c r="H236" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="237" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I236" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="237" spans="1:9">
       <c r="A237" s="1" t="n">
         <v>235</v>
       </c>
       <c r="B237" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C237" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D237" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E237" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F237" t="s">
-        <v>11</v>
-      </c>
-      <c r="G237" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G237" t="s">
+        <v>13</v>
+      </c>
       <c r="H237" t="s">
-        <v>268</v>
+        <v>14</v>
+      </c>
+      <c r="I237" t="s">
+        <v>318</v>
       </c>
     </row>
   </sheetData>
